--- a/Week 1/Excel 2 layer NN.xlsx
+++ b/Week 1/Excel 2 layer NN.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -194,12 +194,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -301,6 +301,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -568,16 +571,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="109" workbookViewId="0">
+      <selection activeCell="D168" sqref="D168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -585,7 +588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="37" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" ht="37">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -618,12 +621,12 @@
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="18">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,7 +676,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -709,16 +712,16 @@
         <v>0.18038609164867514</v>
       </c>
       <c r="O5">
-        <f>(EXP(2*K5)-1)/(EXP(2*K5+1))</f>
-        <v>0.11141677688344524</v>
+        <f>TANH(K5)</f>
+        <v>0.17845468999957345</v>
       </c>
       <c r="P5">
-        <f t="shared" ref="P5:Q8" si="0">(EXP(2*L5)-1)/(EXP(2*L5+1))</f>
-        <v>0.11141677688344524</v>
+        <f t="shared" ref="P5:Q5" si="0">TANH(L5)</f>
+        <v>0.17845468999957345</v>
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
-        <v>0.11141677688344524</v>
+        <v>0.17845468999957345</v>
       </c>
       <c r="S5">
         <v>0.62326341388703321</v>
@@ -728,25 +731,25 @@
       </c>
       <c r="V5">
         <f t="array" ref="V5:V8">MMULT(O5:Q8,S5:S7)</f>
-        <v>0.1388060455327404</v>
+        <v>0.22232369772754015</v>
       </c>
       <c r="X5">
         <f>1/(1+EXP(-V5))</f>
-        <v>0.53464590201360895</v>
+        <v>0.55535311336181226</v>
       </c>
       <c r="Z5" s="2">
         <v>0</v>
       </c>
       <c r="AB5" s="4">
         <f>-(Z5*LOG(X5)+(1-Z5)*LOG(1-X5))</f>
-        <v>0.33221645726409127</v>
+        <v>0.35198474421324238</v>
       </c>
       <c r="AC5" s="3">
         <f>1/4*SUM(AB5:AB8)</f>
-        <v>0.30410875283437777</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+        <v>0.31317204264133192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -778,36 +781,36 @@
         <v>0.14640984142830704</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O8" si="1">(EXP(2*K6)-1)/(EXP(2*K6+1))</f>
-        <v>9.338374113196829E-2</v>
+        <f t="shared" ref="O6:O8" si="1">TANH(K6)</f>
+        <v>0.14537259482976606</v>
       </c>
       <c r="P6">
-        <f t="shared" si="0"/>
-        <v>9.338374113196829E-2</v>
+        <f t="shared" ref="P6:P8" si="2">TANH(L6)</f>
+        <v>0.14537259482976606</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>9.338374113196829E-2</v>
+        <f t="shared" ref="Q6:Q8" si="3">TANH(M6)</f>
+        <v>0.14537259482976606</v>
       </c>
       <c r="S6">
         <v>0.48685094654278449</v>
       </c>
       <c r="V6">
-        <v>0.11634000000863076</v>
+        <v>0.18110912540812646</v>
       </c>
       <c r="X6">
-        <f t="shared" ref="X6:X8" si="2">1/(1+EXP(-V6))</f>
-        <v>0.52905223889799058</v>
+        <f t="shared" ref="X6:X8" si="4">1/(1+EXP(-V6))</f>
+        <v>0.54515392610115032</v>
       </c>
       <c r="Z6" s="2">
         <v>1</v>
       </c>
       <c r="AB6" s="4">
-        <f t="shared" ref="AB6:AB8" si="3">-(Z6*LOG(X6)+(1-Z6)*LOG(1-X6))</f>
-        <v>0.2765014433806276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AB6:AB8" si="5">-(Z6*LOG(X6)+(1-Z6)*LOG(1-X6))</f>
+        <v>0.26348085585564662</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -840,35 +843,35 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>0.28976136808140457</v>
+        <v>0.64969278710267164</v>
       </c>
       <c r="P7">
-        <f t="shared" si="0"/>
-        <v>0.28976136808140457</v>
+        <f t="shared" si="2"/>
+        <v>0.64969278710267164</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="0"/>
-        <v>0.28976136808140457</v>
+        <f t="shared" si="3"/>
+        <v>0.64969278710267164</v>
       </c>
       <c r="S7">
         <v>0.1357127889046803</v>
       </c>
       <c r="V7">
-        <v>0.36099257918412048</v>
+        <v>0.80940491289930627</v>
       </c>
       <c r="X7">
-        <f t="shared" si="2"/>
-        <v>0.5892806882361894</v>
+        <f t="shared" si="4"/>
+        <v>0.69198268035282529</v>
       </c>
       <c r="Z7" s="2">
         <v>1</v>
       </c>
       <c r="AB7" s="4">
-        <f t="shared" si="3"/>
-        <v>0.22967779126508414</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0.15990477537175041</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -893,43 +896,43 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>0.26318551310765009</v>
+        <v>0.55691989909114681</v>
       </c>
       <c r="P8">
-        <f t="shared" si="0"/>
-        <v>0.26318551310765009</v>
+        <f t="shared" si="2"/>
+        <v>0.55691989909114681</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>0.26318551310765009</v>
+        <f t="shared" si="3"/>
+        <v>0.55691989909114681</v>
       </c>
       <c r="V8">
-        <v>0.32788365754104087</v>
+        <v>0.69382593029237982</v>
       </c>
       <c r="X8">
-        <f t="shared" si="2"/>
-        <v>0.58124434919736434</v>
+        <f t="shared" si="4"/>
+        <v>0.66681748287367415</v>
       </c>
       <c r="Z8" s="2">
         <v>0</v>
       </c>
       <c r="AB8" s="4">
-        <f t="shared" si="3"/>
-        <v>0.37803931942770808</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0.47731779512468842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29">
       <c r="F11" t="s">
         <v>24</v>
       </c>
@@ -949,119 +952,119 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29">
       <c r="F12">
         <f t="array" ref="F12:H14">1/4*MMULT(TRANSPOSE(B5:D8),K12:M15)</f>
-        <v>-0.13136452713270827</v>
+        <v>-9.7110160316960945E-2</v>
       </c>
       <c r="G12">
-        <v>-0.10261302516995836</v>
+        <v>-7.5855845884454848E-2</v>
       </c>
       <c r="H12">
-        <v>-2.8604031526797899E-2</v>
+        <v>-2.1145298109835946E-2</v>
       </c>
       <c r="I12">
         <f>1/4*SUM(K12:M15)</f>
-        <v>7.0363382851810236E-2</v>
+        <v>0.11661817498115976</v>
       </c>
       <c r="K12">
         <f t="array" ref="K12:M15">MMULT(V12:V15,TRANSPOSE(S5:S7))*(1-(O5:Q8)^2)</f>
-        <v>0.32908867268013836</v>
+        <v>0.33510835424980212</v>
       </c>
       <c r="L12">
-        <v>0.25706166641745692</v>
+        <v>0.26176383183384083</v>
       </c>
       <c r="M12">
-        <v>7.1657569771063093E-2</v>
+        <v>7.2968328201502966E-2</v>
       </c>
       <c r="S12">
         <f t="array" ref="S12:S14">1/4*MMULT(TRANSPOSE(O5:Q8),V12:V15)</f>
-        <v>1.2388540494291077E-2</v>
+        <v>5.105762701780614E-2</v>
       </c>
       <c r="T12">
         <f>1/4*SUM(V12:V15)</f>
-        <v>5.8555794586288318E-2</v>
+        <v>0.1148268006723655</v>
       </c>
       <c r="V12">
         <f>X5-Z5</f>
-        <v>0.53464590201360895</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+        <v>0.55535311336181226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="F13">
-        <v>0.1079426556027176</v>
+        <v>0.12771630772297179</v>
       </c>
       <c r="G13">
-        <v>8.4317453714762597E-2</v>
+        <v>9.9763284541435154E-2</v>
       </c>
       <c r="H13">
-        <v>2.3504024955133006E-2</v>
+        <v>2.7809648253851189E-2</v>
       </c>
       <c r="K13">
-        <v>-0.2909648220804274</v>
+        <v>-0.27749789129310054</v>
       </c>
       <c r="L13">
-        <v>-0.22728190983818</v>
+        <v>-0.21676246034900368</v>
       </c>
       <c r="M13">
-        <v>-6.3356273764604537E-2</v>
+        <v>-6.0423910506289355E-2</v>
       </c>
       <c r="S13">
-        <v>1.2388540494291077E-2</v>
+        <v>5.105762701780614E-2</v>
       </c>
       <c r="V13">
-        <f t="shared" ref="V13:V15" si="4">X6-Z6</f>
-        <v>-0.47094776110200942</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" ref="V13:V15" si="6">X6-Z6</f>
+        <v>-0.45484607389884968</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="F14">
-        <v>2.5670487432683013E-2</v>
+        <v>4.3939219160521265E-2</v>
       </c>
       <c r="G14">
-        <v>2.0052037110398373E-2</v>
+        <v>3.4322326582974932E-2</v>
       </c>
       <c r="H14">
-        <v>5.5896325123672343E-3</v>
+        <v>9.5675662034754461E-3</v>
       </c>
       <c r="K14">
-        <v>-0.23449328645040565</v>
+        <v>-0.11094274997474325</v>
       </c>
       <c r="L14">
-        <v>-0.18317019084165345</v>
+        <v>-8.66609231888157E-2</v>
       </c>
       <c r="M14">
-        <v>-5.1059852342587052E-2</v>
+        <v>-2.4157281933054435E-2</v>
       </c>
       <c r="S14">
-        <v>1.2388540494291077E-2</v>
+        <v>5.105762701780614E-2</v>
       </c>
       <c r="V14">
-        <f t="shared" si="4"/>
-        <v>-0.4107193117638106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-0.30801731964717471</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="K15">
-        <v>0.33717523618113771</v>
+        <v>0.2866996266168283</v>
       </c>
       <c r="L15">
-        <v>0.26337833928324694</v>
+        <v>0.22395022952071544</v>
       </c>
       <c r="M15">
-        <v>7.3418382392055989E-2</v>
+        <v>6.242754674695622E-2</v>
       </c>
       <c r="V15">
-        <f t="shared" si="4"/>
-        <v>0.58124434919736434</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0.66681748287367415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29">
       <c r="F17" t="s">
         <v>28</v>
       </c>
@@ -1075,69 +1078,69 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29">
       <c r="F18">
         <f>F5-$B$1*F12</f>
-        <v>0.40509052050050293</v>
+        <v>0.3365817868690083</v>
       </c>
       <c r="G18">
-        <f t="shared" ref="G18:H18" si="5">G5-$B$1*G12</f>
-        <v>0.69489754909849855</v>
+        <f t="shared" ref="G18:H18" si="7">G5-$B$1*G12</f>
+        <v>0.6413831905274916</v>
       </c>
       <c r="H18">
-        <f t="shared" si="5"/>
-        <v>0.20361790448190284</v>
+        <f t="shared" si="7"/>
+        <v>0.18870043764797895</v>
       </c>
       <c r="I18">
         <f>I5-$B$1*I12</f>
-        <v>-0.14072676570362047</v>
+        <v>-0.23323634996231951</v>
       </c>
       <c r="S18">
         <f>S5-$B$1*S12</f>
-        <v>0.5984863328984511</v>
+        <v>0.52114815985142093</v>
       </c>
       <c r="T18">
         <f>T5-$B$1*T12</f>
-        <v>-0.11711158917257664</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+        <v>-0.22965360134473101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="F19">
-        <f t="shared" ref="F19:H20" si="6">F6-$B$1*F13</f>
-        <v>0.24196036208775451</v>
+        <f t="shared" ref="F19:H20" si="8">F6-$B$1*F13</f>
+        <v>0.20241305784724611</v>
       </c>
       <c r="G19">
-        <f t="shared" si="6"/>
-        <v>0.38184699134062489</v>
+        <f t="shared" si="8"/>
+        <v>0.35095532968727977</v>
       </c>
       <c r="H19">
-        <f t="shared" si="6"/>
-        <v>0.13337804173840911</v>
+        <f t="shared" si="8"/>
+        <v>0.12476679514097276</v>
       </c>
       <c r="S19">
-        <f t="shared" ref="S19:S20" si="7">S6-$B$1*S13</f>
-        <v>0.46207386555420232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" ref="S19:S20" si="9">S6-$B$1*S13</f>
+        <v>0.38473569250717221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="F20">
-        <f t="shared" si="6"/>
-        <v>0.72092142713983609</v>
+        <f t="shared" si="8"/>
+        <v>0.68438396368415955</v>
       </c>
       <c r="G20">
-        <f t="shared" si="6"/>
-        <v>0.49186450599186105</v>
+        <f t="shared" si="8"/>
+        <v>0.46332392704670794</v>
       </c>
       <c r="H20">
-        <f t="shared" si="6"/>
-        <v>0.4367917215502895</v>
+        <f t="shared" si="8"/>
+        <v>0.42883585416807307</v>
       </c>
       <c r="S20">
-        <f t="shared" si="7"/>
-        <v>0.11093570791609815</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" ht="37" x14ac:dyDescent="0.45">
+        <f t="shared" si="9"/>
+        <v>3.3597534869068024E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="37">
       <c r="A22" s="5" t="s">
         <v>35</v>
       </c>
@@ -1170,12 +1173,12 @@
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29">
       <c r="A23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="18">
       <c r="B24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1225,7 +1228,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1240,71 +1243,71 @@
       </c>
       <c r="F25">
         <f>F18</f>
-        <v>0.40509052050050293</v>
+        <v>0.3365817868690083</v>
       </c>
       <c r="G25">
-        <f t="shared" ref="G25:H25" si="8">G18</f>
-        <v>0.69489754909849855</v>
+        <f t="shared" ref="G25:H25" si="10">G18</f>
+        <v>0.6413831905274916</v>
       </c>
       <c r="H25">
-        <f t="shared" si="8"/>
-        <v>0.20361790448190284</v>
+        <f t="shared" si="10"/>
+        <v>0.18870043764797895</v>
       </c>
       <c r="I25" s="3">
         <f>I18</f>
-        <v>-0.14072676570362047</v>
+        <v>-0.23323634996231951</v>
       </c>
       <c r="K25" s="3">
         <f t="array" ref="K25:M28">MMULT(B25:D28,H25:H27)+I25</f>
-        <v>-7.3487239652113567E-3</v>
+        <v>-0.10846955482134675</v>
       </c>
       <c r="L25">
-        <v>-7.3487239652113567E-3</v>
+        <v>-0.10846955482134675</v>
       </c>
       <c r="M25" s="4">
-        <v>-7.3487239652113567E-3</v>
+        <v>-0.10846955482134675</v>
       </c>
       <c r="O25">
-        <f>(EXP(2*K25)-1)/(EXP(2*K25+1))</f>
-        <v>-5.4468180444181783E-3</v>
+        <f>TANH(K25)</f>
+        <v>-0.10804614266253368</v>
       </c>
       <c r="P25">
-        <f t="shared" ref="P25:P28" si="9">(EXP(2*L25)-1)/(EXP(2*L25+1))</f>
-        <v>-5.4468180444181783E-3</v>
+        <f t="shared" ref="P25:Q25" si="11">TANH(L25)</f>
+        <v>-0.10804614266253368</v>
       </c>
       <c r="Q25">
-        <f t="shared" ref="Q25:Q28" si="10">(EXP(2*M25)-1)/(EXP(2*M25+1))</f>
-        <v>-5.4468180444181783E-3</v>
+        <f t="shared" si="11"/>
+        <v>-0.10804614266253368</v>
       </c>
       <c r="S25">
         <f>S18</f>
-        <v>0.5984863328984511</v>
+        <v>0.52114815985142093</v>
       </c>
       <c r="T25">
         <f>T18</f>
-        <v>-0.11711158917257664</v>
+        <v>-0.22965360134473101</v>
       </c>
       <c r="V25">
         <f t="array" ref="V25:V28">MMULT(O25:Q28,S25:S27)</f>
-        <v>-6.380925041771345E-3</v>
+        <v>-0.10150733999319492</v>
       </c>
       <c r="X25">
         <f>1/(1+EXP(-V25))</f>
-        <v>0.49840477415218198</v>
+        <v>0.47464493226619331</v>
       </c>
       <c r="Z25" s="2">
         <v>0</v>
       </c>
       <c r="AB25" s="4">
         <f>-(Z25*LOG(X25)+(1-Z25)*LOG(1-X25))</f>
-        <v>0.2996466057455528</v>
+        <v>0.27954707405038137</v>
       </c>
       <c r="AC25" s="3">
         <f>1/4*SUM(AB25:AB28)</f>
-        <v>0.29676851896005041</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+        <v>0.29358643002721896</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1318,58 +1321,58 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <f t="shared" ref="F26:H26" si="11">F19</f>
-        <v>0.24196036208775451</v>
+        <f t="shared" ref="F26:H26" si="12">F19</f>
+        <v>0.20241305784724611</v>
       </c>
       <c r="G26">
-        <f t="shared" si="11"/>
-        <v>0.38184699134062489</v>
+        <f t="shared" si="12"/>
+        <v>0.35095532968727977</v>
       </c>
       <c r="H26">
-        <f t="shared" si="11"/>
-        <v>0.13337804173840911</v>
+        <f t="shared" si="12"/>
+        <v>0.12476679514097276</v>
       </c>
       <c r="K26" s="3">
-        <v>6.2891138778282368E-2</v>
+        <v>-4.4535912314340564E-2</v>
       </c>
       <c r="L26">
-        <v>6.2891138778282368E-2</v>
+        <v>-4.4535912314340564E-2</v>
       </c>
       <c r="M26" s="4">
-        <v>6.2891138778282368E-2</v>
+        <v>-4.4535912314340564E-2</v>
       </c>
       <c r="O26">
-        <f t="shared" ref="O26:O28" si="12">(EXP(2*K26)-1)/(EXP(2*K26+1))</f>
-        <v>4.3480842841022528E-2</v>
+        <f t="shared" ref="O26:O28" si="13">TANH(K26)</f>
+        <v>-4.4506490775450401E-2</v>
       </c>
       <c r="P26">
-        <f t="shared" si="9"/>
-        <v>4.3480842841022528E-2</v>
+        <f t="shared" ref="P26:P28" si="14">TANH(L26)</f>
+        <v>-4.4506490775450401E-2</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="10"/>
-        <v>4.3480842841022528E-2</v>
+        <f t="shared" ref="Q26:Q28" si="15">TANH(M26)</f>
+        <v>-4.4506490775450401E-2</v>
       </c>
       <c r="S26">
-        <f t="shared" ref="S26:S27" si="13">S19</f>
-        <v>0.46207386555420232</v>
+        <f t="shared" ref="S26:S27" si="16">S19</f>
+        <v>0.38473569250717221</v>
       </c>
       <c r="V26">
-        <v>5.0937629393720929E-2</v>
+        <v>-4.1813019694355247E-2</v>
       </c>
       <c r="X26">
-        <f t="shared" ref="X26:X28" si="14">1/(1+EXP(-V26))</f>
-        <v>0.51273165462688786</v>
+        <f t="shared" ref="X26:X28" si="17">1/(1+EXP(-V26))</f>
+        <v>0.48954826778725125</v>
       </c>
       <c r="Z26" s="2">
         <v>1</v>
       </c>
       <c r="AB26" s="4">
-        <f t="shared" ref="AB26:AB28" si="15">-(Z26*LOG(X26)+(1-Z26)*LOG(1-X26))</f>
-        <v>0.29010986959800267</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AB26:AB28" si="18">-(Z26*LOG(X26)+(1-Z26)*LOG(1-X26))</f>
+        <v>0.31020448179708293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1383,58 +1386,58 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <f t="shared" ref="F27:H27" si="16">F20</f>
-        <v>0.72092142713983609</v>
+        <f t="shared" ref="F27:H27" si="19">F20</f>
+        <v>0.68438396368415955</v>
       </c>
       <c r="G27">
+        <f t="shared" si="19"/>
+        <v>0.46332392704670794</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="19"/>
+        <v>0.42883585416807307</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.50906673699470528</v>
+      </c>
+      <c r="L27">
+        <v>0.50906673699470528</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0.50906673699470528</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="13"/>
+        <v>0.46921772680791923</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="14"/>
+        <v>0.46921772680791923</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="15"/>
+        <v>0.46921772680791923</v>
+      </c>
+      <c r="S27">
         <f t="shared" si="16"/>
-        <v>0.49186450599186105</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="16"/>
-        <v>0.4367917215502895</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0.63306090206698107</v>
-      </c>
-      <c r="L27">
-        <v>0.63306090206698107</v>
-      </c>
-      <c r="M27" s="4">
-        <v>0.63306090206698107</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="12"/>
-        <v>0.26416581828487712</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="9"/>
-        <v>0.26416581828487712</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="10"/>
-        <v>0.26416581828487712</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="13"/>
-        <v>0.11093570791609815</v>
+        <v>3.3597534869068024E-2</v>
       </c>
       <c r="V27">
-        <v>0.30946917472328506</v>
+        <v>0.44082132089331372</v>
       </c>
       <c r="X27">
-        <f t="shared" si="14"/>
-        <v>0.57675568741814986</v>
+        <f t="shared" si="17"/>
+        <v>0.60845471766382286</v>
       </c>
       <c r="Z27" s="2">
         <v>1</v>
       </c>
       <c r="AB27" s="4">
-        <f t="shared" si="15"/>
-        <v>0.23900811418503926</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="18"/>
+        <v>0.21577173723752607</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1449,53 +1452,53 @@
       </c>
       <c r="H28" s="3"/>
       <c r="K28" s="3">
-        <v>0.42944299758507815</v>
+        <v>0.32036629934672628</v>
       </c>
       <c r="L28">
-        <v>0.42944299758507815</v>
+        <v>0.32036629934672628</v>
       </c>
       <c r="M28" s="4">
-        <v>0.42944299758507815</v>
+        <v>0.32036629934672628</v>
       </c>
       <c r="O28">
-        <f t="shared" si="12"/>
-        <v>0.21203329411006794</v>
+        <f t="shared" si="13"/>
+        <v>0.30983809352349906</v>
       </c>
       <c r="P28">
-        <f t="shared" si="9"/>
-        <v>0.21203329411006794</v>
+        <f t="shared" si="14"/>
+        <v>0.30983809352349906</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="10"/>
-        <v>0.21203329411006794</v>
+        <f t="shared" si="15"/>
+        <v>0.30983809352349906</v>
       </c>
       <c r="V28">
-        <v>0.24839613606382616</v>
+        <v>0.2910871219194307</v>
       </c>
       <c r="X28">
-        <f t="shared" si="14"/>
-        <v>0.56178169602067807</v>
+        <f t="shared" si="17"/>
+        <v>0.57226225752130022</v>
       </c>
       <c r="Z28" s="2">
         <v>0</v>
       </c>
       <c r="AB28" s="4">
-        <f t="shared" si="15"/>
-        <v>0.35830948631160697</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="18"/>
+        <v>0.36882242702388546</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29">
       <c r="A30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29">
       <c r="F31" t="s">
         <v>24</v>
       </c>
@@ -1515,119 +1518,119 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29">
       <c r="F32">
         <f t="array" ref="F32:H34">1/4*MMULT(TRANSPOSE(B25:D28),K32:M35)</f>
-        <v>-0.13167536205314304</v>
+        <v>-0.10615543373435296</v>
       </c>
       <c r="G32">
-        <v>-0.10166271174060154</v>
+        <v>-7.8368854497787133E-2</v>
       </c>
       <c r="H32">
-        <v>-2.4407406989112475E-2</v>
+        <v>-6.8436601358197032E-3</v>
       </c>
       <c r="I32">
         <f>1/4*SUM(K32:M35)</f>
-        <v>4.5354201219879403E-2</v>
+        <v>4.0315026155528288E-2</v>
       </c>
       <c r="K32">
         <f t="array" ref="K32:M35">MMULT(V32:V35,TRANSPOSE(S25:S27))*(1-(O25:Q28)^2)</f>
-        <v>0.29827959601147752</v>
+        <v>0.24447265618745792</v>
       </c>
       <c r="L32">
-        <v>0.2302929881079761</v>
+        <v>0.18048103000913432</v>
       </c>
       <c r="M32">
-        <v>5.5289246088892026E-2</v>
+        <v>1.5760736050825761E-2</v>
       </c>
       <c r="S32">
         <f t="array" ref="S32:S34">1/4*MMULT(TRANSPOSE(O25:Q28),V32:V35)</f>
-        <v>-4.1479537633622963E-3</v>
+        <v>-8.7441198022337532E-3</v>
       </c>
       <c r="T32">
         <f>1/4*SUM(V32:V35)</f>
-        <v>3.7418453054474443E-2</v>
+        <v>3.622754380964191E-2</v>
       </c>
       <c r="V32">
         <f>X25-Z25</f>
-        <v>0.49840477415218198</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+        <v>0.47464493226619331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29">
       <c r="F33">
-        <v>9.5938290780438529E-2</v>
+        <v>8.8737020116933032E-2</v>
       </c>
       <c r="G33">
-        <v>7.4071159922547744E-2</v>
+        <v>6.5509775368763609E-2</v>
       </c>
       <c r="H33">
-        <v>1.7783166663881494E-2</v>
+        <v>5.7207246561243319E-3</v>
       </c>
       <c r="K33">
-        <v>-0.29107210662959421</v>
+        <v>-0.26549403920220072</v>
       </c>
       <c r="L33">
-        <v>-0.22472829548834905</v>
+        <v>-0.19599998790767392</v>
       </c>
       <c r="M33">
-        <v>-5.3953262470010213E-2</v>
+        <v>-1.7115948835296137E-2</v>
       </c>
       <c r="S33">
-        <v>-4.1479537633622963E-3</v>
+        <v>-8.7441198022337532E-3</v>
       </c>
       <c r="V33">
-        <f t="shared" ref="V33:V35" si="17">X26-Z26</f>
-        <v>-0.48726834537311214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" ref="V33:V35" si="20">X26-Z26</f>
+        <v>-0.51045173221274875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29">
       <c r="F34">
-        <v>2.1368391777569155E-2</v>
+        <v>2.7618856070068552E-2</v>
       </c>
       <c r="G34">
-        <v>1.6497912895553718E-2</v>
+        <v>2.0389517866480033E-2</v>
       </c>
       <c r="H34">
-        <v>3.9608551416584897E-3</v>
+        <v>1.7805406434178916E-3</v>
       </c>
       <c r="K34">
-        <v>-0.23562934158297796</v>
+        <v>-0.1591276957352111</v>
       </c>
       <c r="L34">
-        <v>-0.18192255147405714</v>
+        <v>-0.11747543008347459</v>
       </c>
       <c r="M34">
-        <v>-4.3676365486439689E-2</v>
+        <v>-1.0258691707982676E-2</v>
       </c>
       <c r="S34">
-        <v>-4.1479537633622963E-3</v>
+        <v>-8.7441198022337532E-3</v>
       </c>
       <c r="V34">
-        <f t="shared" si="17"/>
-        <v>-0.42324431258185014</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="20"/>
+        <v>-0.39154528233617714</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29">
       <c r="K35">
-        <v>0.32110290869325459</v>
+        <v>0.26960312001548531</v>
       </c>
       <c r="L35">
-        <v>0.24791420305627201</v>
+        <v>0.19903350154939473</v>
       </c>
       <c r="M35">
-        <v>5.9519786053073648E-2</v>
+        <v>1.7380854281654243E-2</v>
       </c>
       <c r="V35">
-        <f t="shared" si="17"/>
-        <v>0.56178169602067807</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="20"/>
+        <v>0.57226225752130022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29">
       <c r="A36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29">
       <c r="F37" t="s">
         <v>28</v>
       </c>
@@ -1641,69 +1644,69 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29">
       <c r="F38">
         <f>F25-$B$1*F32</f>
-        <v>0.668441244606789</v>
+        <v>0.54889265433771417</v>
       </c>
       <c r="G38">
-        <f t="shared" ref="G38:H38" si="18">G25-$B$1*G32</f>
-        <v>0.89822297257970163</v>
+        <f t="shared" ref="G38:H38" si="21">G25-$B$1*G32</f>
+        <v>0.79812089952306586</v>
       </c>
       <c r="H38">
-        <f t="shared" si="18"/>
-        <v>0.25243271846012777</v>
+        <f t="shared" si="21"/>
+        <v>0.20238775791961836</v>
       </c>
       <c r="I38">
         <f>I25-$B$1*I32</f>
-        <v>-0.23143516814337928</v>
+        <v>-0.31386640227337609</v>
       </c>
       <c r="S38">
         <f>S25-$B$1*S32</f>
-        <v>0.6067822404251757</v>
+        <v>0.53863639945588848</v>
       </c>
       <c r="T38">
         <f>T25-$B$1*T32</f>
-        <v>-0.19194849528152552</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+        <v>-0.30210868896401483</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29">
       <c r="F39">
-        <f t="shared" ref="F39:H39" si="19">F26-$B$1*F33</f>
-        <v>5.0083780526877453E-2</v>
+        <f t="shared" ref="F39:H39" si="22">F26-$B$1*F33</f>
+        <v>2.4939017613380049E-2</v>
       </c>
       <c r="G39">
-        <f t="shared" si="19"/>
-        <v>0.2337046714955294</v>
+        <f t="shared" si="22"/>
+        <v>0.21993577894975255</v>
       </c>
       <c r="H39">
-        <f t="shared" si="19"/>
-        <v>9.7811708410646125E-2</v>
+        <f t="shared" si="22"/>
+        <v>0.1133253458287241</v>
       </c>
       <c r="S39">
-        <f t="shared" ref="S39:S40" si="20">S26-$B$1*S33</f>
-        <v>0.47036977308092692</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" ref="S39:S40" si="23">S26-$B$1*S33</f>
+        <v>0.4022239321116397</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29">
       <c r="F40">
-        <f t="shared" ref="F40:H40" si="21">F27-$B$1*F34</f>
-        <v>0.67818464358469777</v>
+        <f t="shared" ref="F40:H40" si="24">F27-$B$1*F34</f>
+        <v>0.62914625154402248</v>
       </c>
       <c r="G40">
-        <f t="shared" si="21"/>
-        <v>0.45886868020075361</v>
+        <f t="shared" si="24"/>
+        <v>0.42254489131374789</v>
       </c>
       <c r="H40">
-        <f t="shared" si="21"/>
-        <v>0.42887001126697255</v>
+        <f t="shared" si="24"/>
+        <v>0.42527477288123727</v>
       </c>
       <c r="S40">
-        <f t="shared" si="20"/>
-        <v>0.11923161544282274</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" ht="37" x14ac:dyDescent="0.45">
+        <f t="shared" si="23"/>
+        <v>5.1085774473535531E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="37">
       <c r="A42" s="5" t="s">
         <v>36</v>
       </c>
@@ -1736,12 +1739,12 @@
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29">
       <c r="A43" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" ht="18">
       <c r="B44" s="1" t="s">
         <v>0</v>
       </c>
@@ -1791,7 +1794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1806,71 +1809,71 @@
       </c>
       <c r="F45">
         <f>F38</f>
-        <v>0.668441244606789</v>
+        <v>0.54889265433771417</v>
       </c>
       <c r="G45">
-        <f t="shared" ref="G45:H45" si="22">G38</f>
-        <v>0.89822297257970163</v>
+        <f t="shared" ref="G45:H45" si="25">G38</f>
+        <v>0.79812089952306586</v>
       </c>
       <c r="H45">
-        <f t="shared" si="22"/>
-        <v>0.25243271846012777</v>
+        <f t="shared" si="25"/>
+        <v>0.20238775791961836</v>
       </c>
       <c r="I45" s="3">
         <f>I38</f>
-        <v>-0.23143516814337928</v>
+        <v>-0.31386640227337609</v>
       </c>
       <c r="K45" s="3">
         <f t="array" ref="K45:M48">MMULT(B45:D48,H45:H47)+I45</f>
-        <v>-0.13362345973273315</v>
+        <v>-0.20054105644465198</v>
       </c>
       <c r="L45">
-        <v>-0.13362345973273315</v>
+        <v>-0.20054105644465198</v>
       </c>
       <c r="M45" s="4">
-        <v>-0.13362345973273315</v>
+        <v>-0.20054105644465198</v>
       </c>
       <c r="O45">
-        <f>(EXP(2*K45)-1)/(EXP(2*K45+1))</f>
-        <v>-0.11270463928702523</v>
+        <f>TANH(K45)</f>
+        <v>-0.19789524315050347</v>
       </c>
       <c r="P45">
-        <f t="shared" ref="P45:P48" si="23">(EXP(2*L45)-1)/(EXP(2*L45+1))</f>
-        <v>-0.11270463928702523</v>
+        <f t="shared" ref="P45:Q45" si="26">TANH(L45)</f>
+        <v>-0.19789524315050347</v>
       </c>
       <c r="Q45">
-        <f t="shared" ref="Q45:Q48" si="24">(EXP(2*M45)-1)/(EXP(2*M45+1))</f>
-        <v>-0.11270463928702523</v>
+        <f t="shared" si="26"/>
+        <v>-0.19789524315050347</v>
       </c>
       <c r="S45">
         <f>S38</f>
-        <v>0.6067822404251757</v>
+        <v>0.53863639945588848</v>
       </c>
       <c r="T45">
         <f>T38</f>
-        <v>-0.19194849528152552</v>
+        <v>-0.30210868896401483</v>
       </c>
       <c r="V45">
         <f t="array" ref="V45:V48">MMULT(O45:Q48,S45:S47)</f>
-        <v>-0.13483798534959088</v>
+        <v>-0.19630141584719141</v>
       </c>
       <c r="X45">
         <f>1/(1+EXP(-V45))</f>
-        <v>0.46634148446404627</v>
+        <v>0.45108163128142897</v>
       </c>
       <c r="Z45" s="2">
         <v>0</v>
       </c>
       <c r="AB45" s="4">
         <f>-(Z45*LOG(X45)+(1-Z45)*LOG(1-X45))</f>
-        <v>0.27273655618847914</v>
+        <v>0.26049223597073118</v>
       </c>
       <c r="AC45" s="3">
         <f>1/4*SUM(AB45:AB48)</f>
-        <v>0.28941322128875219</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+        <v>0.29004848052905918</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1884,58 +1887,58 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <f t="shared" ref="F46:H46" si="25">F39</f>
-        <v>5.0083780526877453E-2</v>
+        <f t="shared" ref="F46:H46" si="27">F39</f>
+        <v>2.4939017613380049E-2</v>
       </c>
       <c r="G46">
-        <f t="shared" si="25"/>
-        <v>0.2337046714955294</v>
+        <f t="shared" si="27"/>
+        <v>0.21993577894975255</v>
       </c>
       <c r="H46">
-        <f t="shared" si="25"/>
-        <v>9.7811708410646125E-2</v>
+        <f t="shared" si="27"/>
+        <v>0.1133253458287241</v>
       </c>
       <c r="K46" s="3">
-        <v>2.0997550316748492E-2</v>
+        <v>-0.11147864435375773</v>
       </c>
       <c r="L46">
-        <v>2.0997550316748492E-2</v>
+        <v>-0.11147864435375773</v>
       </c>
       <c r="M46" s="4">
-        <v>2.0997550316748492E-2</v>
+        <v>-0.11147864435375773</v>
       </c>
       <c r="O46">
-        <f t="shared" ref="O46:O48" si="26">(EXP(2*K46)-1)/(EXP(2*K46+1))</f>
-        <v>1.512923388993738E-2</v>
+        <f t="shared" ref="O46:O48" si="28">TANH(K46)</f>
+        <v>-0.1110191286253794</v>
       </c>
       <c r="P46">
-        <f t="shared" si="23"/>
-        <v>1.512923388993738E-2</v>
+        <f t="shared" ref="P46:P48" si="29">TANH(L46)</f>
+        <v>-0.1110191286253794</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="24"/>
-        <v>1.512923388993738E-2</v>
+        <f t="shared" ref="Q46:Q48" si="30">TANH(M46)</f>
+        <v>-0.1110191286253794</v>
       </c>
       <c r="S46">
-        <f t="shared" ref="S46:S47" si="27">S39</f>
-        <v>0.47036977308092692</v>
+        <f t="shared" ref="S46:S47" si="31">S39</f>
+        <v>0.4022239321116397</v>
       </c>
       <c r="V46">
-        <v>1.8100367744460347E-2</v>
+        <v>-0.11012499233601709</v>
       </c>
       <c r="X46">
-        <f t="shared" ref="X46:X48" si="28">1/(1+EXP(-V46))</f>
-        <v>0.50452496839636174</v>
+        <f t="shared" ref="X46:X48" si="32">1/(1+EXP(-V46))</f>
+        <v>0.47249654201357277</v>
       </c>
       <c r="Z46" s="2">
         <v>1</v>
       </c>
       <c r="AB46" s="4">
-        <f t="shared" ref="AB46:AB48" si="29">-(Z46*LOG(X46)+(1-Z46)*LOG(1-X46))</f>
-        <v>0.29711733612987046</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AB46:AB48" si="33">-(Z46*LOG(X46)+(1-Z46)*LOG(1-X46))</f>
+        <v>0.32560136554608177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1949,58 +1952,58 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <f t="shared" ref="F47:H47" si="30">F40</f>
-        <v>0.67818464358469777</v>
+        <f t="shared" ref="F47:H47" si="34">F40</f>
+        <v>0.62914625154402248</v>
       </c>
       <c r="G47">
+        <f t="shared" si="34"/>
+        <v>0.42254489131374789</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="34"/>
+        <v>0.42527477288123727</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0.42712147435620357</v>
+      </c>
+      <c r="L47">
+        <v>0.42712147435620357</v>
+      </c>
+      <c r="M47" s="4">
+        <v>0.42712147435620357</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="28"/>
+        <v>0.4029128793473456</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="29"/>
+        <v>0.4029128793473456</v>
+      </c>
+      <c r="Q47">
         <f t="shared" si="30"/>
-        <v>0.45886868020075361</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="30"/>
-        <v>0.42887001126697255</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0.54767926999436711</v>
-      </c>
-      <c r="L47">
-        <v>0.54767926999436711</v>
-      </c>
-      <c r="M47" s="4">
-        <v>0.54767926999436711</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="26"/>
-        <v>0.24485331521179637</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="23"/>
-        <v>0.24485331521179637</v>
-      </c>
-      <c r="Q47">
-        <f t="shared" si="24"/>
-        <v>0.24485331521179637</v>
+        <v>0.4029128793473456</v>
       </c>
       <c r="S47">
-        <f t="shared" si="27"/>
-        <v>0.11923161544282274</v>
+        <f t="shared" si="31"/>
+        <v>5.1085774473535531E-2</v>
       </c>
       <c r="V47">
-        <v>0.29293849781326403</v>
+        <v>0.39966786174239238</v>
       </c>
       <c r="X47">
-        <f t="shared" si="28"/>
-        <v>0.57271537316810384</v>
+        <f t="shared" si="32"/>
+        <v>0.59860785771196467</v>
       </c>
       <c r="Z47" s="2">
         <v>1</v>
       </c>
       <c r="AB47" s="4">
-        <f t="shared" si="29"/>
-        <v>0.24206115913834006</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="33"/>
+        <v>0.2228575866295581</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -2015,53 +2018,53 @@
       </c>
       <c r="H48" s="3"/>
       <c r="K48" s="3">
-        <v>0.2952465515342394</v>
+        <v>0.2247337164365853</v>
       </c>
       <c r="L48">
-        <v>0.2952465515342394</v>
+        <v>0.2247337164365853</v>
       </c>
       <c r="M48" s="4">
-        <v>0.2952465515342394</v>
+        <v>0.2247337164365853</v>
       </c>
       <c r="O48">
-        <f t="shared" si="26"/>
-        <v>0.16405436099386986</v>
+        <f t="shared" si="28"/>
+        <v>0.22102520776931353</v>
       </c>
       <c r="P48">
-        <f t="shared" si="23"/>
-        <v>0.16405436099386986</v>
+        <f t="shared" si="29"/>
+        <v>0.22102520776931353</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="24"/>
-        <v>0.16405436099386986</v>
+        <f t="shared" si="30"/>
+        <v>0.22102520776931353</v>
       </c>
       <c r="V48">
-        <v>0.19627195175074305</v>
+        <v>0.21924509418368759</v>
       </c>
       <c r="X48">
-        <f t="shared" si="28"/>
-        <v>0.54891107319172727</v>
+        <f t="shared" si="32"/>
+        <v>0.55459276624556397</v>
       </c>
       <c r="Z48" s="2">
         <v>0</v>
       </c>
       <c r="AB48" s="4">
-        <f t="shared" si="29"/>
-        <v>0.34573783369831917</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="33"/>
+        <v>0.35124273396986555</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29">
       <c r="A50" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29">
       <c r="F51" t="s">
         <v>24</v>
       </c>
@@ -2081,119 +2084,119 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29">
       <c r="F52">
         <f t="array" ref="F52:H54">1/4*MMULT(TRANSPOSE(B45:D48),K52:M55)</f>
-        <v>-0.13607534536476079</v>
+        <v>-0.1154341535752772</v>
       </c>
       <c r="G52">
-        <v>-0.10548385410272082</v>
+        <v>-8.6199854294899514E-2</v>
       </c>
       <c r="H52">
-        <v>-2.6738559847123845E-2</v>
+        <v>-1.0948096233464839E-2</v>
       </c>
       <c r="I52">
         <f>1/4*SUM(K52:M55)</f>
-        <v>2.9169759260017292E-2</v>
+        <v>2.5712081298296888E-2</v>
       </c>
       <c r="K52">
         <f t="array" ref="K52:M55">MMULT(V52:V55,TRANSPOSE(S45:S47))*(1-(O45:Q48)^2)</f>
-        <v>0.27937337963333053</v>
+        <v>0.23345370620658265</v>
       </c>
       <c r="L52">
-        <v>0.21656664356376426</v>
+        <v>0.1743303418991036</v>
       </c>
       <c r="M52">
-        <v>5.489636503214463E-2</v>
+        <v>2.2141398905324433E-2</v>
       </c>
       <c r="S52">
         <f t="array" ref="S52:S54">1/4*MMULT(TRANSPOSE(O45:Q48),V52:V55)</f>
-        <v>-1.8656452123687176E-2</v>
+        <v>-1.746275431513105E-2</v>
       </c>
       <c r="T52">
         <f>1/4*SUM(V52:V55)</f>
-        <v>2.3123224805059781E-2</v>
+        <v>1.9194699313132585E-2</v>
       </c>
       <c r="V52">
         <f>X45-Z45</f>
-        <v>0.46634148446404627</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+        <v>0.45108163128142897</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29">
       <c r="F53">
-        <v>8.9938486520862629E-2</v>
+        <v>8.4119550468126206E-2</v>
       </c>
       <c r="G53">
-        <v>6.9719155699773411E-2</v>
+        <v>6.2815837160154916E-2</v>
       </c>
       <c r="H53">
-        <v>1.7672750327779804E-2</v>
+        <v>7.9781321655403893E-3</v>
       </c>
       <c r="K53">
-        <v>-0.30057663389636802</v>
+        <v>-0.28063055930931746</v>
       </c>
       <c r="L53">
-        <v>-0.23300313301885073</v>
+        <v>-0.2095594117852155</v>
       </c>
       <c r="M53">
-        <v>-5.9062766238375433E-2</v>
+        <v>-2.6615782887565491E-2</v>
       </c>
       <c r="S53">
-        <v>-1.8656452123687176E-2</v>
+        <v>-1.746275431513105E-2</v>
       </c>
       <c r="V53">
-        <f t="shared" ref="V53:V55" si="31">X46-Z46</f>
-        <v>-0.49547503160363826</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" ref="V53:V55" si="35">X46-Z46</f>
+        <v>-0.52750345798642728</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29">
       <c r="F54">
-        <v>2.0095141612529996E-2</v>
+        <v>2.5756123916480543E-2</v>
       </c>
       <c r="G54">
-        <v>1.5577494808832339E-2</v>
+        <v>1.9233251685379017E-2</v>
       </c>
       <c r="H54">
-        <v>3.9486590697436468E-3</v>
+        <v>2.4427824392092819E-3</v>
       </c>
       <c r="K54">
-        <v>-0.24372474756267515</v>
+        <v>-0.1811060549917913</v>
       </c>
       <c r="L54">
-        <v>-0.18893228339203252</v>
+        <v>-0.13524000539438255</v>
       </c>
       <c r="M54">
-        <v>-4.7891473150119955E-2</v>
+        <v>-1.7176602046293864E-2</v>
       </c>
       <c r="S54">
-        <v>-1.8656452123687176E-2</v>
+        <v>-1.746275431513105E-2</v>
       </c>
       <c r="V54">
-        <f t="shared" si="31"/>
-        <v>-0.42728462683189616</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="35"/>
+        <v>-0.40139214228803533</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29">
       <c r="K55">
-        <v>0.32410531401279513</v>
+        <v>0.28413055065771348</v>
       </c>
       <c r="L55">
-        <v>0.25124226262736188</v>
+        <v>0.21217301213589862</v>
       </c>
       <c r="M55">
-        <v>6.3686109429094542E-2</v>
+        <v>2.6947731803130991E-2</v>
       </c>
       <c r="V55">
-        <f t="shared" si="31"/>
-        <v>0.54891107319172727</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="35"/>
+        <v>0.55459276624556397</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29">
       <c r="A56" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29">
       <c r="F57" t="s">
         <v>28</v>
       </c>
@@ -2207,69 +2210,69 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29">
       <c r="F58">
         <f>F45-$B$1*F52</f>
-        <v>0.94059193533631058</v>
+        <v>0.77976096148826857</v>
       </c>
       <c r="G58">
-        <f t="shared" ref="G58:H58" si="32">G45-$B$1*G52</f>
-        <v>1.1091906807851433</v>
+        <f t="shared" ref="G58:H58" si="36">G45-$B$1*G52</f>
+        <v>0.97052060811286489</v>
       </c>
       <c r="H58">
-        <f t="shared" si="32"/>
-        <v>0.30590983815437545</v>
+        <f t="shared" si="36"/>
+        <v>0.22428395038654803</v>
       </c>
       <c r="I58">
         <f>I45-$B$1*I52</f>
-        <v>-0.28977468666341388</v>
+        <v>-0.36529056486996986</v>
       </c>
       <c r="S58">
         <f>S45-$B$1*S52</f>
-        <v>0.64409514467255002</v>
+        <v>0.5735619080861506</v>
       </c>
       <c r="T58">
         <f>T45-$B$1*T52</f>
-        <v>-0.23819494489164508</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+        <v>-0.34049808759028</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29">
       <c r="F59">
-        <f t="shared" ref="F59:H59" si="33">F46-$B$1*F53</f>
-        <v>-0.1297931925148478</v>
+        <f t="shared" ref="F59:H59" si="37">F46-$B$1*F53</f>
+        <v>-0.14330008332287236</v>
       </c>
       <c r="G59">
-        <f t="shared" si="33"/>
-        <v>9.4266360095982576E-2</v>
+        <f t="shared" si="37"/>
+        <v>9.430410462944272E-2</v>
       </c>
       <c r="H59">
-        <f t="shared" si="33"/>
-        <v>6.2466207755086517E-2</v>
+        <f t="shared" si="37"/>
+        <v>9.7369081497643312E-2</v>
       </c>
       <c r="S59">
-        <f t="shared" ref="S59:S60" si="34">S46-$B$1*S53</f>
-        <v>0.5076826773283013</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" ref="S59:S60" si="38">S46-$B$1*S53</f>
+        <v>0.43714944074190182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29">
       <c r="F60">
-        <f t="shared" ref="F60:H60" si="35">F47-$B$1*F54</f>
-        <v>0.63799436035963775</v>
+        <f t="shared" ref="F60:H60" si="39">F47-$B$1*F54</f>
+        <v>0.57763400371106144</v>
       </c>
       <c r="G60">
-        <f t="shared" si="35"/>
-        <v>0.42771369058308895</v>
+        <f t="shared" si="39"/>
+        <v>0.38407838794298987</v>
       </c>
       <c r="H60">
-        <f t="shared" si="35"/>
-        <v>0.42097269312748525</v>
+        <f t="shared" si="39"/>
+        <v>0.4203892080028187</v>
       </c>
       <c r="S60">
-        <f t="shared" si="34"/>
-        <v>0.15654451969019709</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" ht="37" x14ac:dyDescent="0.45">
+        <f t="shared" si="38"/>
+        <v>8.6011283103797631E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" ht="37">
       <c r="A62" s="5" t="s">
         <v>37</v>
       </c>
@@ -2302,12 +2305,12 @@
       <c r="AB62" s="5"/>
       <c r="AC62" s="5"/>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29">
       <c r="A63" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" ht="18">
       <c r="B64" s="1" t="s">
         <v>0</v>
       </c>
@@ -2357,7 +2360,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -2372,71 +2375,71 @@
       </c>
       <c r="F65">
         <f>F58</f>
-        <v>0.94059193533631058</v>
+        <v>0.77976096148826857</v>
       </c>
       <c r="G65">
-        <f t="shared" ref="G65:H65" si="36">G58</f>
-        <v>1.1091906807851433</v>
+        <f t="shared" ref="G65:H65" si="40">G58</f>
+        <v>0.97052060811286489</v>
       </c>
       <c r="H65">
-        <f t="shared" si="36"/>
-        <v>0.30590983815437545</v>
+        <f t="shared" si="40"/>
+        <v>0.22428395038654803</v>
       </c>
       <c r="I65" s="3">
         <f>I58</f>
-        <v>-0.28977468666341388</v>
+        <v>-0.36529056486996986</v>
       </c>
       <c r="K65" s="3">
         <f t="array" ref="K65:M68">MMULT(B65:D68,H65:H67)+I65</f>
-        <v>-0.22730847890832737</v>
+        <v>-0.26792148337232657</v>
       </c>
       <c r="L65">
-        <v>-0.22730847890832737</v>
+        <v>-0.26792148337232657</v>
       </c>
       <c r="M65" s="4">
-        <v>-0.22730847890832737</v>
+        <v>-0.26792148337232657</v>
       </c>
       <c r="O65">
-        <f>(EXP(2*K65)-1)/(EXP(2*K65+1))</f>
-        <v>-0.21174028083786228</v>
+        <f>TANH(K65)</f>
+        <v>-0.26168971414479891</v>
       </c>
       <c r="P65">
-        <f t="shared" ref="P65:P68" si="37">(EXP(2*L65)-1)/(EXP(2*L65+1))</f>
-        <v>-0.21174028083786228</v>
+        <f t="shared" ref="P65:Q65" si="41">TANH(L65)</f>
+        <v>-0.26168971414479891</v>
       </c>
       <c r="Q65">
-        <f t="shared" ref="Q65:Q68" si="38">(EXP(2*M65)-1)/(EXP(2*M65+1))</f>
-        <v>-0.21174028083786228</v>
+        <f t="shared" si="41"/>
+        <v>-0.26168971414479891</v>
       </c>
       <c r="S65">
         <f>S58</f>
-        <v>0.64409514467255002</v>
+        <v>0.5735619080861506</v>
       </c>
       <c r="T65">
         <f>T58</f>
-        <v>-0.23819494489164508</v>
+        <v>-0.34049808759028</v>
       </c>
       <c r="V65">
         <f t="array" ref="V65:V68">MMULT(O65:Q68,S65:S67)</f>
-        <v>-0.27702454005611221</v>
+        <v>-0.28700103204637734</v>
       </c>
       <c r="X65">
         <f>1/(1+EXP(-V65))</f>
-        <v>0.43118340015155465</v>
+        <v>0.42873822208418111</v>
       </c>
       <c r="Z65" s="2">
         <v>0</v>
       </c>
       <c r="AB65" s="4">
         <f>-(Z65*LOG(X65)+(1-Z65)*LOG(1-X65))</f>
-        <v>0.24502773802128347</v>
+        <v>0.24316483281947926</v>
       </c>
       <c r="AC65" s="3">
         <f>1/4*SUM(AB65:AB68)</f>
-        <v>0.27965950244501503</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+        <v>0.28527887627397747</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -2450,58 +2453,58 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:H66" si="39">F59</f>
-        <v>-0.1297931925148478</v>
+        <f t="shared" ref="F66:H66" si="42">F59</f>
+        <v>-0.14330008332287236</v>
       </c>
       <c r="G66">
-        <f t="shared" si="39"/>
-        <v>9.4266360095982576E-2</v>
+        <f t="shared" si="42"/>
+        <v>9.430410462944272E-2</v>
       </c>
       <c r="H66">
-        <f t="shared" si="39"/>
-        <v>6.2466207755086517E-2</v>
+        <f t="shared" si="42"/>
+        <v>9.7369081497643312E-2</v>
       </c>
       <c r="K66" s="3">
-        <v>1.6135151490961563E-2</v>
+        <v>-0.14100661448342183</v>
       </c>
       <c r="L66">
-        <v>1.6135151490961563E-2</v>
+        <v>-0.14100661448342183</v>
       </c>
       <c r="M66" s="4">
-        <v>1.6135151490961563E-2</v>
+        <v>-0.14100661448342183</v>
       </c>
       <c r="O66">
-        <f t="shared" ref="O66:O68" si="40">(EXP(2*K66)-1)/(EXP(2*K66+1))</f>
-        <v>1.1682075209177866E-2</v>
+        <f t="shared" ref="O66:O68" si="43">TANH(K66)</f>
+        <v>-0.14007944915847995</v>
       </c>
       <c r="P66">
-        <f t="shared" si="37"/>
-        <v>1.1682075209177866E-2</v>
+        <f t="shared" ref="P66:P68" si="44">TANH(L66)</f>
+        <v>-0.14007944915847995</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="38"/>
-        <v>1.1682075209177866E-2</v>
+        <f t="shared" ref="Q66:Q68" si="45">TANH(M66)</f>
+        <v>-0.14007944915847995</v>
       </c>
       <c r="S66">
-        <f t="shared" ref="S66:S67" si="41">S59</f>
-        <v>0.5076826773283013</v>
+        <f t="shared" ref="S66:S67" si="46">S59</f>
+        <v>0.43714944074190182</v>
       </c>
       <c r="V66">
-        <v>1.5283919993482529E-2</v>
+        <v>-0.1536283021606519</v>
       </c>
       <c r="X66">
-        <f t="shared" ref="X66:X68" si="42">1/(1+EXP(-V66))</f>
-        <v>0.503820905618934</v>
+        <f t="shared" ref="X66:X68" si="47">1/(1+EXP(-V66))</f>
+        <v>0.46166828581249114</v>
       </c>
       <c r="Z66" s="2">
         <v>1</v>
       </c>
       <c r="AB66" s="4">
-        <f t="shared" ref="AB66:AB68" si="43">-(Z66*LOG(X66)+(1-Z66)*LOG(1-X66))</f>
-        <v>0.2977238157847607</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AB66:AB68" si="48">-(Z66*LOG(X66)+(1-Z66)*LOG(1-X66))</f>
+        <v>0.3356699581750856</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -2515,58 +2518,58 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:H67" si="44">F60</f>
-        <v>0.63799436035963775</v>
+        <f t="shared" ref="F67:H67" si="49">F60</f>
+        <v>0.57763400371106144</v>
       </c>
       <c r="G67">
+        <f t="shared" si="49"/>
+        <v>0.38407838794298987</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="49"/>
+        <v>0.4203892080028187</v>
+      </c>
+      <c r="K67" s="3">
+        <v>0.37675167501704027</v>
+      </c>
+      <c r="L67">
+        <v>0.37675167501704027</v>
+      </c>
+      <c r="M67" s="4">
+        <v>0.37675167501704027</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="43"/>
+        <v>0.35988316389564623</v>
+      </c>
+      <c r="P67">
         <f t="shared" si="44"/>
-        <v>0.42771369058308895</v>
-      </c>
-      <c r="H67">
-        <f t="shared" si="44"/>
-        <v>0.42097269312748525</v>
-      </c>
-      <c r="K67" s="3">
-        <v>0.49957405237353325</v>
-      </c>
-      <c r="L67">
-        <v>0.49957405237353325</v>
-      </c>
-      <c r="M67" s="4">
-        <v>0.49957405237353325</v>
-      </c>
-      <c r="O67">
-        <f t="shared" si="40"/>
-        <v>0.23242881732740345</v>
-      </c>
-      <c r="P67">
-        <f t="shared" si="37"/>
-        <v>0.23242881732740345</v>
+        <v>0.35988316389564623</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="38"/>
-        <v>0.23242881732740345</v>
+        <f t="shared" si="45"/>
+        <v>0.35988316389564623</v>
       </c>
       <c r="S67">
-        <f t="shared" si="41"/>
-        <v>0.15654451969019709</v>
+        <f t="shared" si="46"/>
+        <v>8.6011283103797631E-2</v>
       </c>
       <c r="V67">
-        <v>0.30409181456226941</v>
+        <v>0.39469201069559451</v>
       </c>
       <c r="X67">
-        <f t="shared" si="42"/>
-        <v>0.57544248889962457</v>
+        <f t="shared" si="47"/>
+        <v>0.59741169324601529</v>
       </c>
       <c r="Z67" s="2">
         <v>1</v>
       </c>
       <c r="AB67" s="4">
-        <f t="shared" si="43"/>
-        <v>0.23999807429590606</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="48"/>
+        <v>0.22372628112506043</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -2581,53 +2584,53 @@
       </c>
       <c r="H68" s="3"/>
       <c r="K68" s="3">
-        <v>0.19366421421915792</v>
+        <v>0.15246772463049213</v>
       </c>
       <c r="L68">
-        <v>0.19366421421915792</v>
+        <v>0.15246772463049213</v>
       </c>
       <c r="M68" s="4">
-        <v>0.19366421421915792</v>
+        <v>0.15246772463049213</v>
       </c>
       <c r="O68">
-        <f t="shared" si="40"/>
-        <v>0.11813782438520616</v>
+        <f t="shared" si="43"/>
+        <v>0.15129716567967183</v>
       </c>
       <c r="P68">
-        <f t="shared" si="37"/>
-        <v>0.11813782438520616</v>
+        <f t="shared" si="44"/>
+        <v>0.15129716567967183</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="38"/>
-        <v>0.11813782438520616</v>
+        <f t="shared" si="45"/>
+        <v>0.15129716567967183</v>
       </c>
       <c r="V68">
-        <v>0.15456235504193877</v>
+        <v>0.16593102574803889</v>
       </c>
       <c r="X68">
-        <f t="shared" si="42"/>
-        <v>0.53856384665684631</v>
+        <f t="shared" si="47"/>
+        <v>0.54138783867474116</v>
       </c>
       <c r="Z68" s="2">
         <v>0</v>
       </c>
       <c r="AB68" s="4">
-        <f t="shared" si="43"/>
-        <v>0.33588838167811003</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="48"/>
+        <v>0.33855443297628468</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29">
       <c r="A70" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29">
       <c r="F71" t="s">
         <v>24</v>
       </c>
@@ -2647,119 +2650,119 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29">
       <c r="F72">
         <f t="array" ref="F72:H74">1/4*MMULT(TRANSPOSE(B65:D68),K72:M75)</f>
-        <v>-0.14455635941451694</v>
+        <v>-0.12592769026476325</v>
       </c>
       <c r="G72">
-        <v>-0.113940867555684</v>
+        <v>-9.5977816164340105E-2</v>
       </c>
       <c r="H72">
-        <v>-3.5133793570534699E-2</v>
+        <v>-1.8884103119942576E-2</v>
       </c>
       <c r="I72">
         <f>1/4*SUM(K72:M75)</f>
-        <v>1.4772969881239297E-2</v>
+        <v>1.3752201642453143E-2</v>
       </c>
       <c r="K72">
         <f t="array" ref="K72:M75">MMULT(V72:V75,TRANSPOSE(S65:S67))*(1-(O65:Q68)^2)</f>
-        <v>0.26527171033885028</v>
+        <v>0.22906776840683726</v>
       </c>
       <c r="L72">
-        <v>0.20908999739898931</v>
+        <v>0.1745876869424243</v>
       </c>
       <c r="M72">
-        <v>6.4473133862085127E-2</v>
+        <v>3.4350978334907613E-2</v>
       </c>
       <c r="S72">
         <f t="array" ref="S72:S74">1/4*MMULT(TRANSPOSE(O65:Q68),V72:V75)</f>
-        <v>-3.3037483698613632E-2</v>
+        <v>-2.4940370212328845E-2</v>
       </c>
       <c r="T72">
         <f>1/4*SUM(V72:V75)</f>
-        <v>1.2252660331739884E-2</v>
+        <v>7.3015099543571882E-3</v>
       </c>
       <c r="V72">
         <f>X65-Z65</f>
-        <v>0.43118340015155465</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+        <v>0.42873822208418111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29">
       <c r="F73">
-        <v>8.7158556865895548E-2</v>
+        <v>8.2869067607541175E-2</v>
       </c>
       <c r="G73">
-        <v>6.8699306100567542E-2</v>
+        <v>6.3159993801398334E-2</v>
       </c>
       <c r="H73">
-        <v>2.118350764528568E-2</v>
+        <v>1.2427036618110586E-2</v>
       </c>
       <c r="K73">
-        <v>-0.31954293132137507</v>
+        <v>-0.30270786979804915</v>
       </c>
       <c r="L73">
-        <v>-0.25186715384579256</v>
+        <v>-0.23071367558550193</v>
       </c>
       <c r="M73">
-        <v>-7.7663517754870223E-2</v>
+        <v>-4.5394040154836772E-2</v>
       </c>
       <c r="S73">
-        <v>-3.3037483698613632E-2</v>
+        <v>-2.4940370212328845E-2</v>
       </c>
       <c r="V73">
-        <f t="shared" ref="V73:V75" si="45">X66-Z66</f>
-        <v>-0.496179094381066</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" ref="V73:V75" si="50">X66-Z66</f>
+        <v>-0.5383317141875088</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29">
       <c r="F74">
-        <v>2.0840629281182979E-2</v>
+        <v>2.5602125505831866E-2</v>
       </c>
       <c r="G74">
-        <v>1.6426806750820221E-2</v>
+        <v>1.9513072065792267E-2</v>
       </c>
       <c r="H74">
-        <v>5.0652241797643979E-3</v>
+        <v>3.8392920343836819E-3</v>
       </c>
       <c r="K74">
-        <v>-0.25868250633669276</v>
+        <v>-0.2010028912610039</v>
       </c>
       <c r="L74">
-        <v>-0.20389631637694347</v>
+        <v>-0.15319758907185849</v>
       </c>
       <c r="M74">
-        <v>-6.2871656527268574E-2</v>
+        <v>-3.0142372324933529E-2</v>
       </c>
       <c r="S74">
-        <v>-3.3037483698613632E-2</v>
+        <v>-2.4940370212328845E-2</v>
       </c>
       <c r="V74">
-        <f t="shared" si="45"/>
-        <v>-0.42455751110037543</v>
-      </c>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="50"/>
+        <v>-0.40258830675398471</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29">
       <c r="K75">
-        <v>0.34204502346142468</v>
+        <v>0.30341139328433137</v>
       </c>
       <c r="L75">
-        <v>0.26960354338022435</v>
+        <v>0.23124987733502755</v>
       </c>
       <c r="M75">
-        <v>8.3132553246326166E-2</v>
+        <v>4.5499540462468256E-2</v>
       </c>
       <c r="V75">
-        <f t="shared" si="45"/>
-        <v>0.53856384665684631</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="50"/>
+        <v>0.54138783867474116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29">
       <c r="A76" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29">
       <c r="F77" t="s">
         <v>28</v>
       </c>
@@ -2773,69 +2776,69 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29">
       <c r="F78">
         <f>F65-$B$1*F72</f>
-        <v>1.2297046541653445</v>
+        <v>1.0316163420177951</v>
       </c>
       <c r="G78">
-        <f t="shared" ref="G78:H78" si="46">G65-$B$1*G72</f>
-        <v>1.3370724158965113</v>
+        <f t="shared" ref="G78:H78" si="51">G65-$B$1*G72</f>
+        <v>1.1624762404415452</v>
       </c>
       <c r="H78">
-        <f t="shared" si="46"/>
-        <v>0.37617742529544484</v>
+        <f t="shared" si="51"/>
+        <v>0.26205215662643316</v>
       </c>
       <c r="I78">
         <f>I65-$B$1*I72</f>
-        <v>-0.31932062642589248</v>
+        <v>-0.39279496815487613</v>
       </c>
       <c r="S78">
         <f>S65-$B$1*S72</f>
-        <v>0.71017011206977732</v>
+        <v>0.62344264851080833</v>
       </c>
       <c r="T78">
         <f>T65-$B$1*T72</f>
-        <v>-0.26270026555512482</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+        <v>-0.35510110749899437</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29">
       <c r="F79">
-        <f t="shared" ref="F79:H79" si="47">F66-$B$1*F73</f>
-        <v>-0.30411030624663893</v>
+        <f t="shared" ref="F79:H79" si="52">F66-$B$1*F73</f>
+        <v>-0.30903821853795471</v>
       </c>
       <c r="G79">
-        <f t="shared" si="47"/>
-        <v>-4.3132252105152508E-2</v>
+        <f t="shared" si="52"/>
+        <v>-3.2015882973353949E-2</v>
       </c>
       <c r="H79">
-        <f t="shared" si="47"/>
-        <v>2.0099192464515157E-2</v>
+        <f t="shared" si="52"/>
+        <v>7.251500826142214E-2</v>
       </c>
       <c r="S79">
-        <f t="shared" ref="S79:S80" si="48">S66-$B$1*S73</f>
-        <v>0.57375764472552859</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" ref="S79:S80" si="53">S66-$B$1*S73</f>
+        <v>0.48703018116655949</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29">
       <c r="F80">
-        <f t="shared" ref="F80:H80" si="49">F67-$B$1*F74</f>
-        <v>0.59631310179727182</v>
+        <f t="shared" ref="F80:H80" si="54">F67-$B$1*F74</f>
+        <v>0.52642975269939773</v>
       </c>
       <c r="G80">
-        <f t="shared" si="49"/>
-        <v>0.39486007708144849</v>
+        <f t="shared" si="54"/>
+        <v>0.34505224381140531</v>
       </c>
       <c r="H80">
-        <f t="shared" si="49"/>
-        <v>0.41084224476795644</v>
+        <f t="shared" si="54"/>
+        <v>0.41271062393405133</v>
       </c>
       <c r="S80">
-        <f t="shared" si="48"/>
-        <v>0.22261948708742435</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29" ht="37" x14ac:dyDescent="0.45">
+        <f t="shared" si="53"/>
+        <v>0.13589202352845531</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" ht="37">
       <c r="A82" s="5" t="s">
         <v>38</v>
       </c>
@@ -2868,12 +2871,12 @@
       <c r="AB82" s="5"/>
       <c r="AC82" s="5"/>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29">
       <c r="A83" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" ht="18">
       <c r="B84" s="1" t="s">
         <v>0</v>
       </c>
@@ -2923,7 +2926,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:29">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -2938,71 +2941,71 @@
       </c>
       <c r="F85">
         <f>F78</f>
-        <v>1.2297046541653445</v>
+        <v>1.0316163420177951</v>
       </c>
       <c r="G85">
-        <f t="shared" ref="G85:H85" si="50">G78</f>
-        <v>1.3370724158965113</v>
+        <f t="shared" ref="G85:H85" si="55">G78</f>
+        <v>1.1624762404415452</v>
       </c>
       <c r="H85">
-        <f t="shared" si="50"/>
-        <v>0.37617742529544484</v>
+        <f t="shared" si="55"/>
+        <v>0.26205215662643316</v>
       </c>
       <c r="I85" s="3">
         <f>I78</f>
-        <v>-0.31932062642589248</v>
+        <v>-0.39279496815487613</v>
       </c>
       <c r="K85" s="3">
         <f t="array" ref="K85:M88">MMULT(B85:D88,H85:H87)+I85</f>
-        <v>-0.29922143396137735</v>
+        <v>-0.32027995989345398</v>
       </c>
       <c r="L85">
-        <v>-0.29922143396137735</v>
+        <v>-0.32027995989345398</v>
       </c>
       <c r="M85" s="4">
-        <v>-0.29922143396137735</v>
+        <v>-0.32027995989345398</v>
       </c>
       <c r="O85">
-        <f>(EXP(2*K85)-1)/(EXP(2*K85+1))</f>
-        <v>-0.30139764024606169</v>
+        <f>TANH(K85)</f>
+        <v>-0.30976004053920009</v>
       </c>
       <c r="P85">
-        <f t="shared" ref="P85:P88" si="51">(EXP(2*L85)-1)/(EXP(2*L85+1))</f>
-        <v>-0.30139764024606169</v>
+        <f t="shared" ref="P85:Q85" si="56">TANH(L85)</f>
+        <v>-0.30976004053920009</v>
       </c>
       <c r="Q85">
-        <f t="shared" ref="Q85:Q88" si="52">(EXP(2*M85)-1)/(EXP(2*M85+1))</f>
-        <v>-0.30139764024606169</v>
+        <f t="shared" si="56"/>
+        <v>-0.30976004053920009</v>
       </c>
       <c r="S85">
         <f>S78</f>
-        <v>0.71017011206977732</v>
+        <v>0.62344264851080833</v>
       </c>
       <c r="T85">
         <f>T78</f>
-        <v>-0.26270026555512482</v>
+        <v>-0.35510110749899437</v>
       </c>
       <c r="V85">
         <f t="array" ref="V85:V88">MMULT(O85:Q88,S85:S87)</f>
-        <v>-0.4540697842254629</v>
+        <v>-0.38607402745566993</v>
       </c>
       <c r="X85">
         <f>1/(1+EXP(-V85))</f>
-        <v>0.38839357522581114</v>
+        <v>0.40466275483793185</v>
       </c>
       <c r="Z85" s="2">
         <v>0</v>
       </c>
       <c r="AB85" s="4">
         <f>-(Z85*LOG(X85)+(1-Z85)*LOG(1-X85))</f>
-        <v>0.21352796107966154</v>
+        <v>0.22523694650523304</v>
       </c>
       <c r="AC85" s="3">
         <f>1/4*SUM(AB85:AB88)</f>
-        <v>0.26502016349296287</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+        <v>0.27704488080981715</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -3016,58 +3019,58 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <f t="shared" ref="F86:H86" si="53">F79</f>
-        <v>-0.30411030624663893</v>
+        <f t="shared" ref="F86:H86" si="57">F79</f>
+        <v>-0.30903821853795471</v>
       </c>
       <c r="G86">
-        <f t="shared" si="53"/>
-        <v>-4.3132252105152508E-2</v>
+        <f t="shared" si="57"/>
+        <v>-3.2015882973353949E-2</v>
       </c>
       <c r="H86">
-        <f t="shared" si="53"/>
-        <v>2.0099192464515157E-2</v>
+        <f t="shared" si="57"/>
+        <v>7.251500826142214E-2</v>
       </c>
       <c r="K86" s="3">
-        <v>5.6856798869552361E-2</v>
+        <v>-0.13074281152844297</v>
       </c>
       <c r="L86">
-        <v>5.6856798869552361E-2</v>
+        <v>-0.13074281152844297</v>
       </c>
       <c r="M86" s="4">
-        <v>5.6856798869552361E-2</v>
+        <v>-0.13074281152844297</v>
       </c>
       <c r="O86">
-        <f t="shared" ref="O86:O88" si="54">(EXP(2*K86)-1)/(EXP(2*K86+1))</f>
-        <v>3.9542059877166816E-2</v>
+        <f t="shared" ref="O86:O88" si="58">TANH(K86)</f>
+        <v>-0.13000291144910098</v>
       </c>
       <c r="P86">
-        <f t="shared" si="51"/>
-        <v>3.9542059877166816E-2</v>
+        <f t="shared" ref="P86:P88" si="59">TANH(L86)</f>
+        <v>-0.13000291144910098</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="52"/>
-        <v>3.9542059877166816E-2</v>
+        <f t="shared" ref="Q86:Q88" si="60">TANH(M86)</f>
+        <v>-0.13000291144910098</v>
       </c>
       <c r="S86">
-        <f t="shared" ref="S86:S87" si="55">S79</f>
-        <v>0.57375764472552859</v>
+        <f t="shared" ref="S86:S87" si="61">S79</f>
+        <v>0.48703018116655949</v>
       </c>
       <c r="V86">
-        <v>5.9571981325391557E-2</v>
+        <v>-0.16203105964458836</v>
       </c>
       <c r="X86">
-        <f t="shared" ref="X86:X88" si="56">1/(1+EXP(-V86))</f>
-        <v>0.51488859251265828</v>
+        <f t="shared" ref="X86:X88" si="62">1/(1+EXP(-V86))</f>
+        <v>0.45958062748548784</v>
       </c>
       <c r="Z86" s="2">
         <v>1</v>
       </c>
       <c r="AB86" s="4">
-        <f t="shared" ref="AB86:AB88" si="57">-(Z86*LOG(X86)+(1-Z86)*LOG(1-X86))</f>
-        <v>0.28828672997056171</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AB86:AB88" si="63">-(Z86*LOG(X86)+(1-Z86)*LOG(1-X86))</f>
+        <v>0.33763828623587067</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -3081,58 +3084,58 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <f t="shared" ref="F87:H87" si="58">F80</f>
-        <v>0.59631310179727182</v>
+        <f t="shared" ref="F87:H87" si="64">F80</f>
+        <v>0.52642975269939773</v>
       </c>
       <c r="G87">
+        <f t="shared" si="64"/>
+        <v>0.34505224381140531</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="64"/>
+        <v>0.41271062393405133</v>
+      </c>
+      <c r="K87" s="3">
+        <v>0.35448282066703052</v>
+      </c>
+      <c r="L87">
+        <v>0.35448282066703052</v>
+      </c>
+      <c r="M87" s="4">
+        <v>0.35448282066703052</v>
+      </c>
+      <c r="O87">
         <f t="shared" si="58"/>
-        <v>0.39486007708144849</v>
-      </c>
-      <c r="H87">
-        <f t="shared" si="58"/>
-        <v>0.41084224476795644</v>
-      </c>
-      <c r="K87" s="3">
-        <v>0.48779823610202394</v>
-      </c>
-      <c r="L87">
-        <v>0.48779823610202394</v>
-      </c>
-      <c r="M87" s="4">
-        <v>0.48779823610202394</v>
-      </c>
-      <c r="O87">
-        <f t="shared" si="54"/>
-        <v>0.2292008715149576</v>
+        <v>0.34034512816796519</v>
       </c>
       <c r="P87">
-        <f t="shared" si="51"/>
-        <v>0.2292008715149576</v>
+        <f t="shared" si="59"/>
+        <v>0.34034512816796519</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="52"/>
-        <v>0.2292008715149576</v>
+        <f t="shared" si="60"/>
+        <v>0.34034512816796519</v>
       </c>
       <c r="S87">
-        <f t="shared" si="55"/>
-        <v>0.22261948708742435</v>
+        <f t="shared" si="61"/>
+        <v>0.13589202352845531</v>
       </c>
       <c r="V87">
-        <v>0.34530194127637914</v>
+        <v>0.42419420570838301</v>
       </c>
       <c r="X87">
-        <f t="shared" si="56"/>
-        <v>0.58547785021660892</v>
+        <f t="shared" si="62"/>
+        <v>0.60448644956358322</v>
       </c>
       <c r="Z87" s="2">
         <v>1</v>
       </c>
       <c r="AB87" s="4">
-        <f t="shared" si="57"/>
-        <v>0.2324895304988131</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="63"/>
+        <v>0.21861343003186395</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -3147,53 +3150,53 @@
       </c>
       <c r="H88" s="3"/>
       <c r="K88" s="3">
-        <v>0.1116208108065791</v>
+        <v>9.2430664040597355E-2</v>
       </c>
       <c r="L88">
-        <v>0.1116208108065791</v>
+        <v>9.2430664040597355E-2</v>
       </c>
       <c r="M88" s="4">
-        <v>0.1116208108065791</v>
+        <v>9.2430664040597355E-2</v>
       </c>
       <c r="O88">
-        <f t="shared" si="54"/>
-        <v>7.3604749256478919E-2</v>
+        <f t="shared" si="58"/>
+        <v>9.2168335580716479E-2</v>
       </c>
       <c r="P88">
-        <f t="shared" si="51"/>
-        <v>7.3604749256478919E-2</v>
+        <f t="shared" si="59"/>
+        <v>9.2168335580716479E-2</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="52"/>
-        <v>7.3604749256478919E-2</v>
+        <f t="shared" si="60"/>
+        <v>9.2168335580716479E-2</v>
       </c>
       <c r="V88">
-        <v>0.11088903212902776</v>
+        <v>0.11487537404628473</v>
       </c>
       <c r="X88">
-        <f t="shared" si="56"/>
-        <v>0.52769388597339795</v>
+        <f t="shared" si="62"/>
+        <v>0.52868730313641854</v>
       </c>
       <c r="Z88" s="2">
         <v>0</v>
       </c>
       <c r="AB88" s="4">
-        <f t="shared" si="57"/>
-        <v>0.32577643242281523</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="63"/>
+        <v>0.32669086046630097</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="H89" s="3"/>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:29">
       <c r="A90" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29">
       <c r="F91" t="s">
         <v>24</v>
       </c>
@@ -3213,119 +3216,119 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:29">
       <c r="F92">
         <f t="array" ref="F92:H94">1/4*MMULT(TRANSPOSE(B85:D88),K92:M95)</f>
-        <v>-0.1557223633021465</v>
+        <v>-0.13731093519004856</v>
       </c>
       <c r="G92">
-        <v>-0.12581055564128546</v>
+        <v>-0.10726659429139082</v>
       </c>
       <c r="H92">
-        <v>-4.8814829091201231E-2</v>
+        <v>-2.9929715075045573E-2</v>
       </c>
       <c r="I92">
         <f>1/4*SUM(K92:M95)</f>
-        <v>3.1930270028154503E-4</v>
+        <v>2.8185783564973338E-3</v>
       </c>
       <c r="K92">
         <f t="array" ref="K92:M95">MMULT(V92:V95,TRANSPOSE(S85:S87))*(1-(O85:Q88)^2)</f>
-        <v>0.25076937135291927</v>
+        <v>0.22807704433789938</v>
       </c>
       <c r="L92">
-        <v>0.20260053391632382</v>
+        <v>0.17817261056675177</v>
       </c>
       <c r="M92">
-        <v>7.8609544219086447E-2</v>
+        <v>4.971403728875478E-2</v>
       </c>
       <c r="S92">
         <f t="array" ref="S92:S94">1/4*MMULT(TRANSPOSE(O85:Q88),V92:V95)</f>
-        <v>-4.8102818303277492E-2</v>
+        <v>-3.5243785188906786E-2</v>
       </c>
       <c r="T92">
         <f>1/4*SUM(V92:V95)</f>
-        <v>4.1134759821190858E-3</v>
+        <v>-6.4571624414461182E-4</v>
       </c>
       <c r="V92">
         <f>X85-Z85</f>
-        <v>0.38839357522581114</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
+        <v>0.40466275483793185</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29">
       <c r="F93">
-        <v>8.6143754105429557E-2</v>
+        <v>8.4216446071334355E-2</v>
       </c>
       <c r="G93">
-        <v>6.9596898860325537E-2</v>
+        <v>6.5789453264544662E-2</v>
       </c>
       <c r="H93">
-        <v>2.7003781247346665E-2</v>
+        <v>1.835668974258544E-2</v>
       </c>
       <c r="K93">
-        <v>-0.34397295303375913</v>
+        <v>-0.33122627366823326</v>
       </c>
       <c r="L93">
-        <v>-0.27790117892562521</v>
+        <v>-0.25875225645389477</v>
       </c>
       <c r="M93">
-        <v>-0.10782639409189658</v>
+        <v>-7.2197512765740463E-2</v>
       </c>
       <c r="S93">
-        <v>-4.8102818303277492E-2</v>
+        <v>-3.5243785188906786E-2</v>
       </c>
       <c r="V93">
-        <f t="shared" ref="V93:V95" si="59">X86-Z86</f>
-        <v>-0.48511140748734172</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" ref="V93:V95" si="65">X86-Z86</f>
+        <v>-0.54041937251451211</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29">
       <c r="F94">
-        <v>2.345141126719974E-2</v>
+        <v>2.7197184986859517E-2</v>
       </c>
       <c r="G94">
-        <v>1.8946765381244582E-2</v>
+        <v>2.1246300622856713E-2</v>
       </c>
       <c r="H94">
-        <v>7.3513951925750533E-3</v>
+        <v>5.9281804203967468E-3</v>
       </c>
       <c r="K94">
-        <v>-0.27891650017482683</v>
+        <v>-0.21801746709196093</v>
       </c>
       <c r="L94">
-        <v>-0.22534104363951668</v>
+        <v>-0.17031412071166854</v>
       </c>
       <c r="M94">
-        <v>-8.7432922272908359E-2</v>
+        <v>-4.752134753444183E-2</v>
       </c>
       <c r="S94">
-        <v>-4.8102818303277492E-2</v>
+        <v>-3.5243785188906786E-2</v>
       </c>
       <c r="V94">
-        <f t="shared" si="59"/>
-        <v>-0.41452214978339108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="65"/>
+        <v>-0.39551355043641678</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29">
       <c r="K95">
-        <v>0.37272214524362579</v>
+        <v>0.326806207039399</v>
       </c>
       <c r="L95">
-        <v>0.30112810516449501</v>
+        <v>0.2552993232030954</v>
       </c>
       <c r="M95">
-        <v>0.11683850304320857</v>
+        <v>7.1234069216028817E-2</v>
       </c>
       <c r="V95">
-        <f t="shared" si="59"/>
-        <v>0.52769388597339795</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="65"/>
+        <v>0.52868730313641854</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29">
       <c r="A96" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:29">
       <c r="F97" t="s">
         <v>28</v>
       </c>
@@ -3339,69 +3342,69 @@
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:29">
       <c r="F98">
         <f>F85-$B$1*F92</f>
-        <v>1.5411493807696375</v>
+        <v>1.3062382123978922</v>
       </c>
       <c r="G98">
-        <f t="shared" ref="G98:H98" si="60">G85-$B$1*G92</f>
-        <v>1.5886935271790823</v>
+        <f t="shared" ref="G98:H98" si="66">G85-$B$1*G92</f>
+        <v>1.3770094290243269</v>
       </c>
       <c r="H98">
-        <f t="shared" si="60"/>
-        <v>0.47380708347784728</v>
+        <f t="shared" si="66"/>
+        <v>0.32191158677652432</v>
       </c>
       <c r="I98">
         <f>I85-$B$1*I92</f>
-        <v>-0.31995923182645558</v>
+        <v>-0.39843212486787083</v>
       </c>
       <c r="S98">
         <f>S85-$B$1*S92</f>
-        <v>0.80637574867633233</v>
+        <v>0.69393021888862194</v>
       </c>
       <c r="T98">
         <f>T85-$B$1*T92</f>
-        <v>-0.270927217519363</v>
-      </c>
-    </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
+        <v>-0.35380967501070515</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29">
       <c r="F99">
-        <f t="shared" ref="F99:H99" si="61">F86-$B$1*F93</f>
-        <v>-0.47639781445749807</v>
+        <f t="shared" ref="F99:H99" si="67">F86-$B$1*F93</f>
+        <v>-0.47747111068062342</v>
       </c>
       <c r="G99">
-        <f t="shared" si="61"/>
-        <v>-0.18232604982580358</v>
+        <f t="shared" si="67"/>
+        <v>-0.16359478950244327</v>
       </c>
       <c r="H99">
-        <f t="shared" si="61"/>
-        <v>-3.3908370030178173E-2</v>
+        <f t="shared" si="67"/>
+        <v>3.580162877625126E-2</v>
       </c>
       <c r="S99">
-        <f t="shared" ref="S99:S100" si="62">S86-$B$1*S93</f>
-        <v>0.6699632813320836</v>
-      </c>
-    </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" ref="S99:S100" si="68">S86-$B$1*S93</f>
+        <v>0.55751775154437311</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29">
       <c r="F100">
-        <f t="shared" ref="F100:H100" si="63">F87-$B$1*F94</f>
-        <v>0.54941027926287234</v>
+        <f t="shared" ref="F100:H100" si="69">F87-$B$1*F94</f>
+        <v>0.47203538272567869</v>
       </c>
       <c r="G100">
-        <f t="shared" si="63"/>
-        <v>0.3569665463189593</v>
+        <f t="shared" si="69"/>
+        <v>0.3025596425656919</v>
       </c>
       <c r="H100">
-        <f t="shared" si="63"/>
-        <v>0.39613945438280634</v>
+        <f t="shared" si="69"/>
+        <v>0.40085426309325783</v>
       </c>
       <c r="S100">
-        <f t="shared" si="62"/>
-        <v>0.31882512369397931</v>
-      </c>
-    </row>
-    <row r="102" spans="1:29" ht="37" x14ac:dyDescent="0.45">
+        <f t="shared" si="68"/>
+        <v>0.20637959390626887</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" ht="37">
       <c r="A102" s="5" t="s">
         <v>39</v>
       </c>
@@ -3434,12 +3437,12 @@
       <c r="AB102" s="5"/>
       <c r="AC102" s="5"/>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:29">
       <c r="A103" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:29" ht="18">
       <c r="B104" s="1" t="s">
         <v>0</v>
       </c>
@@ -3489,7 +3492,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:29">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -3504,71 +3507,71 @@
       </c>
       <c r="F105">
         <f>F98</f>
-        <v>1.5411493807696375</v>
+        <v>1.3062382123978922</v>
       </c>
       <c r="G105">
-        <f t="shared" ref="G105:H105" si="64">G98</f>
-        <v>1.5886935271790823</v>
+        <f t="shared" ref="G105:H105" si="70">G98</f>
+        <v>1.3770094290243269</v>
       </c>
       <c r="H105">
-        <f t="shared" si="64"/>
-        <v>0.47380708347784728</v>
+        <f t="shared" si="70"/>
+        <v>0.32191158677652432</v>
       </c>
       <c r="I105" s="3">
         <f>I98</f>
-        <v>-0.31995923182645558</v>
+        <v>-0.39843212486787083</v>
       </c>
       <c r="K105" s="3">
         <f t="array" ref="K105:M108">MMULT(B105:D108,H105:H107)+I105</f>
-        <v>-0.35386760185663374</v>
+        <v>-0.36263049609161957</v>
       </c>
       <c r="L105">
-        <v>-0.35386760185663374</v>
+        <v>-0.36263049609161957</v>
       </c>
       <c r="M105" s="4">
-        <v>-0.35386760185663374</v>
+        <v>-0.36263049609161957</v>
       </c>
       <c r="O105">
-        <f>(EXP(2*K105)-1)/(EXP(2*K105+1))</f>
-        <v>-0.37869137944484188</v>
+        <f>TANH(K105)</f>
+        <v>-0.34752893936020263</v>
       </c>
       <c r="P105">
-        <f t="shared" ref="P105:P108" si="65">(EXP(2*L105)-1)/(EXP(2*L105+1))</f>
-        <v>-0.37869137944484188</v>
+        <f t="shared" ref="P105:Q105" si="71">TANH(L105)</f>
+        <v>-0.34752893936020263</v>
       </c>
       <c r="Q105">
-        <f t="shared" ref="Q105:Q108" si="66">(EXP(2*M105)-1)/(EXP(2*M105+1))</f>
-        <v>-0.37869137944484188</v>
+        <f t="shared" si="71"/>
+        <v>-0.34752893936020263</v>
       </c>
       <c r="S105">
         <f>S98</f>
-        <v>0.80637574867633233</v>
+        <v>0.69393021888862194</v>
       </c>
       <c r="T105">
         <f>T98</f>
-        <v>-0.270927217519363</v>
+        <v>-0.35380967501070515</v>
       </c>
       <c r="V105">
         <f t="array" ref="V105:V108">MMULT(O105:Q108,S105:S107)</f>
-        <v>-0.6798131896954922</v>
+        <v>-0.50663726720489199</v>
       </c>
       <c r="X105">
         <f>1/(1+EXP(-V105))</f>
-        <v>0.33630299799532748</v>
+        <v>0.37598215883715452</v>
       </c>
       <c r="Z105" s="2">
         <v>0</v>
       </c>
       <c r="AB105" s="4">
         <f>-(Z105*LOG(X105)+(1-Z105)*LOG(1-X105))</f>
-        <v>0.1780301441114123</v>
+        <v>0.20480299331788343</v>
       </c>
       <c r="AC105" s="3">
         <f>1/4*SUM(AB105:AB108)</f>
-        <v>0.24349955559449682</v>
-      </c>
-    </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
+        <v>0.26232522610981079</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -3582,58 +3585,58 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <f t="shared" ref="F106:H106" si="67">F99</f>
-        <v>-0.47639781445749807</v>
+        <f t="shared" ref="F106:H106" si="72">F99</f>
+        <v>-0.47747111068062342</v>
       </c>
       <c r="G106">
-        <f t="shared" si="67"/>
-        <v>-0.18232604982580358</v>
+        <f t="shared" si="72"/>
+        <v>-0.16359478950244327</v>
       </c>
       <c r="H106">
-        <f t="shared" si="67"/>
-        <v>-3.3908370030178173E-2</v>
+        <f t="shared" si="72"/>
+        <v>3.580162877625126E-2</v>
       </c>
       <c r="K106" s="3">
-        <v>0.1538478516513917</v>
+        <v>-7.6520538091346513E-2</v>
       </c>
       <c r="L106">
-        <v>0.1538478516513917</v>
+        <v>-7.6520538091346513E-2</v>
       </c>
       <c r="M106" s="4">
-        <v>0.1538478516513917</v>
+        <v>-7.6520538091346513E-2</v>
       </c>
       <c r="O106">
-        <f t="shared" ref="O106:O108" si="68">(EXP(2*K106)-1)/(EXP(2*K106+1))</f>
-        <v>9.7436922428435532E-2</v>
+        <f t="shared" ref="O106:O108" si="73">TANH(K106)</f>
+        <v>-7.6371534470190752E-2</v>
       </c>
       <c r="P106">
-        <f t="shared" si="65"/>
-        <v>9.7436922428435532E-2</v>
+        <f t="shared" ref="P106:P108" si="74">TANH(L106)</f>
+        <v>-7.6371534470190752E-2</v>
       </c>
       <c r="Q106">
-        <f t="shared" si="66"/>
-        <v>9.7436922428435532E-2</v>
+        <f t="shared" ref="Q106:Q108" si="75">TANH(M106)</f>
+        <v>-7.6371534470190752E-2</v>
       </c>
       <c r="S106">
-        <f t="shared" ref="S106:S107" si="69">S99</f>
-        <v>0.6699632813320836</v>
+        <f t="shared" ref="S106:S107" si="76">S99</f>
+        <v>0.55751775154437311</v>
       </c>
       <c r="V106">
-        <v>0.17491527039060839</v>
+        <v>-0.11133652808153033</v>
       </c>
       <c r="X106">
-        <f t="shared" ref="X106:X108" si="70">1/(1+EXP(-V106))</f>
-        <v>0.54361766611058093</v>
+        <f t="shared" ref="X106:X108" si="77">1/(1+EXP(-V106))</f>
+        <v>0.47219458463012204</v>
       </c>
       <c r="Z106" s="2">
         <v>1</v>
       </c>
       <c r="AB106" s="4">
-        <f t="shared" ref="AB106:AB108" si="71">-(Z106*LOG(X106)+(1-Z106)*LOG(1-X106))</f>
-        <v>0.26470643830879242</v>
-      </c>
-    </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AB106:AB108" si="78">-(Z106*LOG(X106)+(1-Z106)*LOG(1-X106))</f>
+        <v>0.32587899794077679</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -3647,58 +3650,58 @@
         <v>1</v>
       </c>
       <c r="F107">
-        <f t="shared" ref="F107:H107" si="72">F100</f>
-        <v>0.54941027926287234</v>
+        <f t="shared" ref="F107:H107" si="79">F100</f>
+        <v>0.47203538272567869</v>
       </c>
       <c r="G107">
-        <f t="shared" si="72"/>
-        <v>0.3569665463189593</v>
+        <f t="shared" si="79"/>
+        <v>0.3025596425656919</v>
       </c>
       <c r="H107">
-        <f t="shared" si="72"/>
-        <v>0.39613945438280634</v>
+        <f t="shared" si="79"/>
+        <v>0.40085426309325783</v>
       </c>
       <c r="K107" s="3">
-        <v>0.51607893600401988</v>
+        <v>0.36013535377816264</v>
       </c>
       <c r="L107">
-        <v>0.51607893600401988</v>
+        <v>0.36013535377816264</v>
       </c>
       <c r="M107" s="4">
-        <v>0.51607893600401988</v>
+        <v>0.36013535377816264</v>
       </c>
       <c r="O107">
-        <f t="shared" si="68"/>
-        <v>0.23682701971139791</v>
+        <f t="shared" si="73"/>
+        <v>0.34533325186321168</v>
       </c>
       <c r="P107">
-        <f t="shared" si="65"/>
-        <v>0.23682701971139791</v>
+        <f t="shared" si="74"/>
+        <v>0.34533325186321168</v>
       </c>
       <c r="Q107">
-        <f t="shared" si="66"/>
-        <v>0.23682701971139791</v>
+        <f t="shared" si="75"/>
+        <v>0.34533325186321168</v>
       </c>
       <c r="S107">
-        <f t="shared" si="69"/>
-        <v>0.31882512369397931</v>
+        <f t="shared" si="76"/>
+        <v>0.20637959390626887</v>
       </c>
       <c r="V107">
-        <v>0.42514337641407207</v>
+        <v>0.50343633344910343</v>
       </c>
       <c r="X107">
-        <f t="shared" si="70"/>
-        <v>0.60471335722581177</v>
+        <f t="shared" si="77"/>
+        <v>0.62326654184124131</v>
       </c>
       <c r="Z107" s="2">
         <v>1</v>
       </c>
       <c r="AB107" s="4">
-        <f t="shared" si="71"/>
-        <v>0.21845043836380248</v>
-      </c>
-    </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="78"/>
+        <v>0.20532618625373297</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -3713,53 +3716,53 @@
       </c>
       <c r="H108" s="3"/>
       <c r="K108" s="3">
-        <v>4.2271852526172604E-2</v>
+        <v>3.8223767001638265E-2</v>
       </c>
       <c r="L108">
-        <v>4.2271852526172604E-2</v>
+        <v>3.8223767001638265E-2</v>
       </c>
       <c r="M108" s="4">
-        <v>4.2271852526172604E-2</v>
+        <v>3.8223767001638265E-2</v>
       </c>
       <c r="O108">
-        <f t="shared" si="68"/>
-        <v>2.982343721723707E-2</v>
+        <f t="shared" si="73"/>
+        <v>3.8205162181963362E-2</v>
       </c>
       <c r="P108">
-        <f t="shared" si="65"/>
-        <v>2.982343721723707E-2</v>
+        <f t="shared" si="74"/>
+        <v>3.8205162181963362E-2</v>
       </c>
       <c r="Q108">
-        <f t="shared" si="66"/>
-        <v>2.982343721723707E-2</v>
+        <f t="shared" si="75"/>
+        <v>3.8205162181963362E-2</v>
       </c>
       <c r="V108">
-        <v>5.3537965432577904E-2</v>
+        <v>5.5696538528918205E-2</v>
       </c>
       <c r="X108">
-        <f t="shared" si="70"/>
-        <v>0.51338129526161635</v>
+        <f t="shared" si="77"/>
+        <v>0.51392053623853762</v>
       </c>
       <c r="Z108" s="2">
         <v>0</v>
       </c>
       <c r="AB108" s="4">
-        <f t="shared" si="71"/>
-        <v>0.31281120159398007</v>
-      </c>
-    </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="78"/>
+        <v>0.31329272692685001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="H109" s="3"/>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:29">
       <c r="A110" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:29">
       <c r="F111" t="s">
         <v>24</v>
       </c>
@@ -3779,119 +3782,119 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:29">
       <c r="F112">
         <f t="array" ref="F112:H114">1/4*MMULT(TRANSPOSE(B105:D108),K112:M115)</f>
-        <v>-0.16634839163226742</v>
+        <v>-0.14859353659970673</v>
       </c>
       <c r="G112">
-        <v>-0.13820767115728544</v>
+        <v>-0.11938309092775172</v>
       </c>
       <c r="H112">
-        <v>-6.5770884882774522E-2</v>
+        <v>-4.419273423437102E-2</v>
       </c>
       <c r="I112">
         <f>1/4*SUM(K112:M115)</f>
-        <v>-1.084558861772808E-2</v>
+        <v>-4.6614836285313738E-3</v>
       </c>
       <c r="K112">
         <f t="array" ref="K112:M115">MMULT(V112:V115,TRANSPOSE(S105:S107))*(1-(O105:Q108)^2)</f>
-        <v>0.23229648403107947</v>
+        <v>0.22939417850079594</v>
       </c>
       <c r="L112">
-        <v>0.19299949798693122</v>
+        <v>0.1842999816609216</v>
       </c>
       <c r="M112">
-        <v>9.1845464569660334E-2</v>
+        <v>6.822339785011583E-2</v>
       </c>
       <c r="S112">
         <f t="array" ref="S112:S114">1/4*MMULT(TRANSPOSE(O105:Q108),V112:V115)</f>
-        <v>-6.2531824749843617E-2</v>
+        <v>-5.0204886040391E-2</v>
       </c>
       <c r="T112">
         <f>1/4*SUM(V112:V115)</f>
-        <v>-4.9617085166586694E-4</v>
+        <v>-3.659044613236101E-3</v>
       </c>
       <c r="V112">
         <f>X105-Z105</f>
-        <v>0.33630299799532748</v>
-      </c>
-    </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
+        <v>0.37598215883715452</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29">
       <c r="F113">
-        <v>8.6258664678923486E-2</v>
+        <v>8.8812088666037597E-2</v>
       </c>
       <c r="G113">
-        <v>7.1666512945705668E-2</v>
+        <v>7.135345116163043E-2</v>
       </c>
       <c r="H113">
-        <v>3.4104980812082866E-2</v>
+        <v>2.641332268570112E-2</v>
       </c>
       <c r="K113">
-        <v>-0.36452172261103472</v>
+        <v>-0.364123874468603</v>
       </c>
       <c r="L113">
-        <v>-0.30285654026450298</v>
+        <v>-0.29254457905362408</v>
       </c>
       <c r="M113">
-        <v>-0.14412472534222265</v>
+        <v>-0.10829293104537499</v>
       </c>
       <c r="S113">
-        <v>-6.2531824749843617E-2</v>
+        <v>-5.0204886040391E-2</v>
       </c>
       <c r="V113">
-        <f t="shared" ref="V113:V115" si="73">X106-Z106</f>
-        <v>-0.45638233388941907</v>
-      </c>
-    </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" ref="V113:V115" si="80">X106-Z106</f>
+        <v>-0.52780541536987791</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29">
       <c r="F114">
-        <v>2.8184543671153611E-2</v>
+        <v>3.146354404083862E-2</v>
       </c>
       <c r="G114">
-        <v>2.3416638448972862E-2</v>
+        <v>2.527845574640003E-2</v>
       </c>
       <c r="H114">
-        <v>1.1143614669667779E-2</v>
+        <v>9.3574732231721629E-3</v>
       </c>
       <c r="K114">
-        <v>-0.30087184391803495</v>
+        <v>-0.2302502719302239</v>
       </c>
       <c r="L114">
-        <v>-0.24997414436463883</v>
+        <v>-0.1849877846573828</v>
       </c>
       <c r="M114">
-        <v>-0.11895881418887543</v>
+        <v>-6.8478005892109076E-2</v>
       </c>
       <c r="S114">
-        <v>-6.2531824749843617E-2</v>
+        <v>-5.0204886040391E-2</v>
       </c>
       <c r="V114">
-        <f t="shared" si="73"/>
-        <v>-0.39528664277418823</v>
-      </c>
-    </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="80"/>
+        <v>-0.37673345815875869</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29">
       <c r="K115">
-        <v>0.4136100186026494</v>
+        <v>0.35610444809357839</v>
       </c>
       <c r="L115">
-        <v>0.34364069816053028</v>
+        <v>0.28610160764298292</v>
       </c>
       <c r="M115">
-        <v>0.16353327286754654</v>
+        <v>0.10590789878479773</v>
       </c>
       <c r="V115">
-        <f t="shared" si="73"/>
-        <v>0.51338129526161635</v>
-      </c>
-    </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="80"/>
+        <v>0.51392053623853762</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29">
       <c r="A116" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:29">
       <c r="F117" t="s">
         <v>28</v>
       </c>
@@ -3905,69 +3908,69 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:29">
       <c r="F118">
         <f>F105-$B$1*F112</f>
-        <v>1.8738461640341724</v>
+        <v>1.6034252855973057</v>
       </c>
       <c r="G118">
-        <f t="shared" ref="G118:H118" si="74">G105-$B$1*G112</f>
-        <v>1.8651088694936533</v>
+        <f t="shared" ref="G118:H118" si="81">G105-$B$1*G112</f>
+        <v>1.6157756108798302</v>
       </c>
       <c r="H118">
-        <f t="shared" si="74"/>
-        <v>0.60534885324339638</v>
+        <f t="shared" si="81"/>
+        <v>0.41029705524526638</v>
       </c>
       <c r="I118">
         <f>I105-$B$1*I112</f>
-        <v>-0.29826805459099942</v>
+        <v>-0.38910915761080811</v>
       </c>
       <c r="S118">
         <f>S105-$B$1*S112</f>
-        <v>0.93143939817601962</v>
+        <v>0.794339990969404</v>
       </c>
       <c r="T118">
         <f>T105-$B$1*T112</f>
-        <v>-0.26993487581603126</v>
-      </c>
-    </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
+        <v>-0.34649158578423295</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29">
       <c r="F119">
-        <f t="shared" ref="F119:H119" si="75">F106-$B$1*F113</f>
-        <v>-0.6489151438153451</v>
+        <f t="shared" ref="F119:H119" si="82">F106-$B$1*F113</f>
+        <v>-0.65509528801269856</v>
       </c>
       <c r="G119">
-        <f t="shared" si="75"/>
-        <v>-0.32565907571721492</v>
+        <f t="shared" si="82"/>
+        <v>-0.3063016918257041</v>
       </c>
       <c r="H119">
-        <f t="shared" si="75"/>
-        <v>-0.10211833165434391</v>
+        <f t="shared" si="82"/>
+        <v>-1.7025016595150981E-2</v>
       </c>
       <c r="S119">
-        <f t="shared" ref="S119:S120" si="76">S106-$B$1*S113</f>
-        <v>0.79502693083177078</v>
-      </c>
-    </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" ref="S119:S120" si="83">S106-$B$1*S113</f>
+        <v>0.65792752362515516</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29">
       <c r="F120">
-        <f t="shared" ref="F120:H120" si="77">F107-$B$1*F114</f>
-        <v>0.49304119192056511</v>
+        <f t="shared" ref="F120:H120" si="84">F107-$B$1*F114</f>
+        <v>0.40910829464400145</v>
       </c>
       <c r="G120">
-        <f t="shared" si="77"/>
-        <v>0.3101332694210136</v>
+        <f t="shared" si="84"/>
+        <v>0.25200273107289184</v>
       </c>
       <c r="H120">
-        <f t="shared" si="77"/>
-        <v>0.37385222504347076</v>
+        <f t="shared" si="84"/>
+        <v>0.38213931664691353</v>
       </c>
       <c r="S120">
-        <f t="shared" si="76"/>
-        <v>0.44388877319366654</v>
-      </c>
-    </row>
-    <row r="122" spans="1:29" ht="37" x14ac:dyDescent="0.45">
+        <f t="shared" si="83"/>
+        <v>0.30678936598705087</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29" ht="37">
       <c r="A122" s="5" t="s">
         <v>40</v>
       </c>
@@ -4000,12 +4003,12 @@
       <c r="AB122" s="5"/>
       <c r="AC122" s="5"/>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:29">
       <c r="A123" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:29" ht="18">
       <c r="B124" s="1" t="s">
         <v>0</v>
       </c>
@@ -4055,7 +4058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:29">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -4070,71 +4073,71 @@
       </c>
       <c r="F125">
         <f>F118</f>
-        <v>1.8738461640341724</v>
+        <v>1.6034252855973057</v>
       </c>
       <c r="G125">
-        <f t="shared" ref="G125:H125" si="78">G118</f>
-        <v>1.8651088694936533</v>
+        <f t="shared" ref="G125:H125" si="85">G118</f>
+        <v>1.6157756108798302</v>
       </c>
       <c r="H125">
-        <f t="shared" si="78"/>
-        <v>0.60534885324339638</v>
+        <f t="shared" si="85"/>
+        <v>0.41029705524526638</v>
       </c>
       <c r="I125" s="3">
         <f>I118</f>
-        <v>-0.29826805459099942</v>
+        <v>-0.38910915761080811</v>
       </c>
       <c r="K125" s="3">
         <f t="array" ref="K125:M128">MMULT(B125:D128,H125:H127)+I125</f>
-        <v>-0.40038638624534334</v>
+        <v>-0.4061341742059591</v>
       </c>
       <c r="L125">
-        <v>-0.40038638624534334</v>
+        <v>-0.4061341742059591</v>
       </c>
       <c r="M125" s="4">
-        <v>-0.40038638624534334</v>
+        <v>-0.4061341742059591</v>
       </c>
       <c r="O125">
-        <f>(EXP(2*K125)-1)/(EXP(2*K125+1))</f>
-        <v>-0.45148424903650058</v>
+        <f>TANH(K125)</f>
+        <v>-0.38518532968757185</v>
       </c>
       <c r="P125">
-        <f t="shared" ref="P125:P128" si="79">(EXP(2*L125)-1)/(EXP(2*L125+1))</f>
-        <v>-0.45148424903650058</v>
+        <f t="shared" ref="P125:Q125" si="86">TANH(L125)</f>
+        <v>-0.38518532968757185</v>
       </c>
       <c r="Q125">
-        <f t="shared" ref="Q125:Q128" si="80">(EXP(2*M125)-1)/(EXP(2*M125+1))</f>
-        <v>-0.45148424903650058</v>
+        <f t="shared" si="86"/>
+        <v>-0.38518532968757185</v>
       </c>
       <c r="S125">
         <f>S118</f>
-        <v>0.93143939817601962</v>
+        <v>0.794339990969404</v>
       </c>
       <c r="T125">
         <f>T118</f>
-        <v>-0.26993487581603126</v>
+        <v>-0.34649158578423295</v>
       </c>
       <c r="V125">
         <f t="array" ref="V125:V128">MMULT(O125:Q128,S125:S127)</f>
-        <v>-0.97988114345996224</v>
+        <v>-0.67756290448601908</v>
       </c>
       <c r="X125">
         <f>1/(1+EXP(-V125))</f>
-        <v>0.27291536803098077</v>
+        <v>0.33680545393610012</v>
       </c>
       <c r="Z125" s="2">
         <v>0</v>
       </c>
       <c r="AB125" s="4">
         <f>-(Z125*LOG(X125)+(1-Z125)*LOG(1-X125))</f>
-        <v>0.13841503472841829</v>
+        <v>0.17835905396576282</v>
       </c>
       <c r="AC125" s="3">
         <f>1/4*SUM(AB125:AB128)</f>
-        <v>0.21425548605310085</v>
-      </c>
-    </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
+        <v>0.23652916555990752</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -4148,58 +4151,58 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <f t="shared" ref="F126:H126" si="81">F119</f>
-        <v>-0.6489151438153451</v>
+        <f t="shared" ref="F126:H126" si="87">F119</f>
+        <v>-0.65509528801269856</v>
       </c>
       <c r="G126">
-        <f t="shared" si="81"/>
-        <v>-0.32565907571721492</v>
+        <f t="shared" si="87"/>
+        <v>-0.3063016918257041</v>
       </c>
       <c r="H126">
-        <f t="shared" si="81"/>
-        <v>-0.10211833165434391</v>
+        <f t="shared" si="87"/>
+        <v>-1.7025016595150981E-2</v>
       </c>
       <c r="K126" s="3">
-        <v>0.30708079865239696</v>
+        <v>2.1187897634458275E-2</v>
       </c>
       <c r="L126">
-        <v>0.30708079865239696</v>
+        <v>2.1187897634458275E-2</v>
       </c>
       <c r="M126" s="4">
-        <v>0.30708079865239696</v>
+        <v>2.1187897634458275E-2</v>
       </c>
       <c r="O126">
-        <f t="shared" ref="O126:O128" si="82">(EXP(2*K126)-1)/(EXP(2*K126+1))</f>
-        <v>0.16882195033491088</v>
+        <f t="shared" ref="O126:O128" si="88">TANH(K126)</f>
+        <v>2.1184727597219177E-2</v>
       </c>
       <c r="P126">
-        <f t="shared" si="79"/>
-        <v>0.16882195033491088</v>
+        <f t="shared" ref="P126:P128" si="89">TANH(L126)</f>
+        <v>2.1184727597219177E-2</v>
       </c>
       <c r="Q126">
-        <f t="shared" si="80"/>
-        <v>0.16882195033491088</v>
+        <f t="shared" ref="Q126:Q128" si="90">TANH(M126)</f>
+        <v>2.1184727597219177E-2</v>
       </c>
       <c r="S126">
-        <f t="shared" ref="S126:S127" si="83">S119</f>
-        <v>0.79502693083177078</v>
+        <f t="shared" ref="S126:S127" si="91">S119</f>
+        <v>0.65792752362515516</v>
       </c>
       <c r="V126">
-        <v>0.36640358127297479</v>
+        <v>3.7265140843135508E-2</v>
       </c>
       <c r="X126">
-        <f t="shared" ref="X126:X128" si="84">1/(1+EXP(-V126))</f>
-        <v>0.59058967187615252</v>
+        <f t="shared" ref="X126:X128" si="92">1/(1+EXP(-V126))</f>
+        <v>0.50931520724057733</v>
       </c>
       <c r="Z126" s="2">
         <v>1</v>
       </c>
       <c r="AB126" s="4">
-        <f t="shared" ref="AB126:AB128" si="85">-(Z126*LOG(X126)+(1-Z126)*LOG(1-X126))</f>
-        <v>0.22871415216676746</v>
-      </c>
-    </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AB126:AB128" si="93">-(Z126*LOG(X126)+(1-Z126)*LOG(1-X126))</f>
+        <v>0.29301335637424664</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -4213,58 +4216,58 @@
         <v>1</v>
       </c>
       <c r="F127">
-        <f t="shared" ref="F127:H127" si="86">F120</f>
-        <v>0.49304119192056511</v>
+        <f t="shared" ref="F127:H127" si="94">F120</f>
+        <v>0.40910829464400145</v>
       </c>
       <c r="G127">
-        <f t="shared" si="86"/>
-        <v>0.3101332694210136</v>
+        <f t="shared" si="94"/>
+        <v>0.25200273107289184</v>
       </c>
       <c r="H127">
-        <f t="shared" si="86"/>
-        <v>0.37385222504347076</v>
+        <f t="shared" si="94"/>
+        <v>0.38213931664691353</v>
       </c>
       <c r="K127" s="3">
-        <v>0.5788146920415238</v>
+        <v>0.38630219768622087</v>
       </c>
       <c r="L127">
-        <v>0.5788146920415238</v>
+        <v>0.38630219768622087</v>
       </c>
       <c r="M127" s="4">
-        <v>0.5788146920415238</v>
+        <v>0.38630219768622087</v>
       </c>
       <c r="O127">
-        <f t="shared" si="82"/>
-        <v>0.25228060425640131</v>
+        <f t="shared" si="88"/>
+        <v>0.36816801458221921</v>
       </c>
       <c r="P127">
-        <f t="shared" si="79"/>
-        <v>0.25228060425640131</v>
+        <f t="shared" si="89"/>
+        <v>0.36816801458221921</v>
       </c>
       <c r="Q127">
-        <f t="shared" si="80"/>
-        <v>0.25228060425640131</v>
+        <f t="shared" si="90"/>
+        <v>0.36816801458221921</v>
       </c>
       <c r="S127">
-        <f t="shared" si="83"/>
-        <v>0.44388877319366654</v>
+        <f t="shared" si="91"/>
+        <v>0.30678936598705087</v>
       </c>
       <c r="V127">
-        <v>0.54753849663434717</v>
+        <v>0.64762847926092326</v>
       </c>
       <c r="X127">
-        <f t="shared" si="84"/>
-        <v>0.63356431508344535</v>
+        <f t="shared" si="92"/>
+        <v>0.65647584707933226</v>
       </c>
       <c r="Z127" s="2">
         <v>1</v>
       </c>
       <c r="AB127" s="4">
-        <f t="shared" si="85"/>
-        <v>0.19820929195957798</v>
-      </c>
-    </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="93"/>
+        <v>0.18278124775139271</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -4279,53 +4282,53 @@
       </c>
       <c r="H128" s="3"/>
       <c r="K128" s="3">
-        <v>-2.6534161201872575E-2</v>
+        <v>-2.3994857559045568E-2</v>
       </c>
       <c r="L128">
-        <v>-2.6534161201872575E-2</v>
+        <v>-2.3994857559045568E-2</v>
       </c>
       <c r="M128" s="4">
-        <v>-2.6534161201872575E-2</v>
+        <v>-2.3994857559045568E-2</v>
       </c>
       <c r="O128">
-        <f t="shared" si="82"/>
-        <v>-2.0050050799646373E-2</v>
+        <f t="shared" si="88"/>
+        <v>-2.3990253580756096E-2</v>
       </c>
       <c r="P128">
-        <f t="shared" si="79"/>
-        <v>-2.0050050799646373E-2</v>
+        <f t="shared" si="89"/>
+        <v>-2.3990253580756096E-2</v>
       </c>
       <c r="Q128">
-        <f t="shared" si="80"/>
-        <v>-2.0050050799646373E-2</v>
+        <f t="shared" si="90"/>
+        <v>-2.3990253580756096E-2</v>
       </c>
       <c r="V128">
-        <v>-4.3515730052410904E-2</v>
+        <v>-4.2200220628126624E-2</v>
       </c>
       <c r="X128">
-        <f t="shared" si="84"/>
-        <v>0.48912278387443936</v>
+        <f t="shared" si="92"/>
+        <v>0.48945151024391648</v>
       </c>
       <c r="Z128" s="2">
         <v>0</v>
       </c>
       <c r="AB128" s="4">
-        <f t="shared" si="85"/>
-        <v>0.29168346535763973</v>
-      </c>
-    </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="93"/>
+        <v>0.29196300414822796</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="H129" s="3"/>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:29">
       <c r="A130" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:29">
       <c r="F131" t="s">
         <v>24</v>
       </c>
@@ -4345,119 +4348,119 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:29">
       <c r="F132">
         <f t="array" ref="F132:H134">1/4*MMULT(TRANSPOSE(B125:D128),K132:M135)</f>
-        <v>-0.17251549717328807</v>
+        <v>-0.15637075721235608</v>
       </c>
       <c r="G132">
-        <v>-0.14725001595077186</v>
+        <v>-0.12951711638559379</v>
       </c>
       <c r="H132">
-        <v>-8.2214358279350933E-2</v>
+        <v>-6.0393390751418911E-2</v>
       </c>
       <c r="I132">
         <f>1/4*SUM(K132:M135)</f>
-        <v>-1.8797713900804869E-2</v>
+        <v>-5.0223800323980147E-3</v>
       </c>
       <c r="K132">
         <f t="array" ref="K132:M135">MMULT(V132:V135,TRANSPOSE(S125:S127))*(1-(O125:Q128)^2)</f>
-        <v>0.20238765858917745</v>
+        <v>0.22784402717535507</v>
       </c>
       <c r="L132">
-        <v>0.17274729774311642</v>
+        <v>0.18871624024534084</v>
       </c>
       <c r="M132">
-        <v>9.6450300101769443E-2</v>
+        <v>8.799774081090668E-2</v>
       </c>
       <c r="S132">
         <f t="array" ref="S132:S134">1/4*MMULT(TRANSPOSE(O125:Q128),V132:V135)</f>
-        <v>-7.3646498185728715E-2</v>
+        <v>-6.9586053668432957E-2</v>
       </c>
       <c r="T132">
         <f>1/4*SUM(V132:V135)</f>
-        <v>-3.4519652837454867E-3</v>
+        <v>-1.9879953750184531E-3</v>
       </c>
       <c r="V132">
         <f>X125-Z125</f>
-        <v>0.27291536803098077</v>
-      </c>
-    </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
+        <v>0.33680545393610012</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29">
       <c r="F133">
-        <v>8.4550780506903497E-2</v>
+        <v>9.5130943129219533E-2</v>
       </c>
       <c r="G133">
-        <v>7.2168031175691399E-2</v>
+        <v>7.8794051092340958E-2</v>
       </c>
       <c r="H133">
-        <v>4.0293702741446516E-2</v>
+        <v>3.6741397965808317E-2</v>
       </c>
       <c r="K133">
-        <v>-0.37047236922147808</v>
+        <v>-0.38959562767658362</v>
       </c>
       <c r="L133">
-        <v>-0.31621543090929699</v>
+        <v>-0.32269014458106982</v>
       </c>
       <c r="M133">
-        <v>-0.17655311316861019</v>
+        <v>-0.1504693166214138</v>
       </c>
       <c r="S133">
-        <v>-7.3646498185728715E-2</v>
+        <v>-6.9586053668432957E-2</v>
       </c>
       <c r="V133">
-        <f t="shared" ref="V133:V135" si="87">X126-Z126</f>
-        <v>-0.40941032812384748</v>
-      </c>
-    </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" ref="V133:V135" si="95">X126-Z126</f>
+        <v>-0.49068479275942267</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29">
       <c r="F134">
-        <v>3.3953865859609134E-2</v>
+        <v>3.8169936335380766E-2</v>
       </c>
       <c r="G134">
-        <v>2.8981206739912294E-2</v>
+        <v>3.1614991031005749E-2</v>
       </c>
       <c r="H134">
-        <v>1.6181127716004155E-2</v>
+        <v>1.4741962763081644E-2</v>
       </c>
       <c r="K134">
-        <v>-0.31958961947167425</v>
+        <v>-0.23588740117284068</v>
       </c>
       <c r="L134">
-        <v>-0.27278463289379051</v>
+        <v>-0.19537832096130536</v>
       </c>
       <c r="M134">
-        <v>-0.15230431994879354</v>
+        <v>-9.1104246384261844E-2</v>
       </c>
       <c r="S134">
-        <v>-7.3646498185728715E-2</v>
+        <v>-6.9586053668432957E-2</v>
       </c>
       <c r="V134">
-        <f t="shared" si="87"/>
-        <v>-0.36643568491655465</v>
-      </c>
-    </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="95"/>
+        <v>-0.34352415292066774</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29">
       <c r="K135">
-        <v>0.45540508291011078</v>
+        <v>0.38856714651436375</v>
       </c>
       <c r="L135">
-        <v>0.38870945985343969</v>
+        <v>0.32183828508532836</v>
       </c>
       <c r="M135">
-        <v>0.21702883081281016</v>
+        <v>0.15007209743658842</v>
       </c>
       <c r="V135">
-        <f t="shared" si="87"/>
-        <v>0.48912278387443936</v>
-      </c>
-    </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="95"/>
+        <v>0.48945151024391648</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29">
       <c r="A136" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:29">
       <c r="F137" t="s">
         <v>28</v>
       </c>
@@ -4471,69 +4474,69 @@
         <v>32</v>
       </c>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:29">
       <c r="F138">
         <f>F125-$B$1*F132</f>
-        <v>2.2188771583807485</v>
+        <v>1.9161668000220178</v>
       </c>
       <c r="G138">
-        <f t="shared" ref="G138:H138" si="88">G125-$B$1*G132</f>
-        <v>2.1596089013951971</v>
+        <f t="shared" ref="G138:H138" si="96">G125-$B$1*G132</f>
+        <v>1.8748098436510179</v>
       </c>
       <c r="H138">
-        <f t="shared" si="88"/>
-        <v>0.76977756980209822</v>
+        <f t="shared" si="96"/>
+        <v>0.53108383674810422</v>
       </c>
       <c r="I138">
         <f>I125-$B$1*I132</f>
-        <v>-0.26067262678938968</v>
+        <v>-0.37906439754601207</v>
       </c>
       <c r="S138">
         <f>S125-$B$1*S132</f>
-        <v>1.0787323945474769</v>
+        <v>0.93351209830626991</v>
       </c>
       <c r="T138">
         <f>T125-$B$1*T132</f>
-        <v>-0.26303094524854032</v>
-      </c>
-    </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
+        <v>-0.34251559503419604</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29">
       <c r="F139">
-        <f t="shared" ref="F139:H139" si="89">F126-$B$1*F133</f>
-        <v>-0.81801670482915212</v>
+        <f t="shared" ref="F139:H139" si="97">F126-$B$1*F133</f>
+        <v>-0.84535717427113766</v>
       </c>
       <c r="G139">
-        <f t="shared" si="89"/>
-        <v>-0.46999513806859772</v>
+        <f t="shared" si="97"/>
+        <v>-0.46388979401038599</v>
       </c>
       <c r="H139">
-        <f t="shared" si="89"/>
-        <v>-0.18270573713723692</v>
+        <f t="shared" si="97"/>
+        <v>-9.0507812526767623E-2</v>
       </c>
       <c r="S139">
-        <f t="shared" ref="S139:S140" si="90">S126-$B$1*S133</f>
-        <v>0.94231992720322821</v>
-      </c>
-    </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" ref="S139:S140" si="98">S126-$B$1*S133</f>
+        <v>0.79709963096202108</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29">
       <c r="F140">
-        <f t="shared" ref="F140:H140" si="91">F127-$B$1*F134</f>
-        <v>0.42513346020134685</v>
+        <f t="shared" ref="F140:H140" si="99">F127-$B$1*F134</f>
+        <v>0.33276842197323991</v>
       </c>
       <c r="G140">
-        <f t="shared" si="91"/>
-        <v>0.25217085594118904</v>
+        <f t="shared" si="99"/>
+        <v>0.18877274901088034</v>
       </c>
       <c r="H140">
-        <f t="shared" si="91"/>
-        <v>0.34148996961146244</v>
+        <f t="shared" si="99"/>
+        <v>0.35265539112075023</v>
       </c>
       <c r="S140">
-        <f t="shared" si="90"/>
-        <v>0.59118176956512403</v>
-      </c>
-    </row>
-    <row r="142" spans="1:29" ht="37" x14ac:dyDescent="0.45">
+        <f t="shared" si="98"/>
+        <v>0.44596147332391678</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29" ht="37">
       <c r="A142" s="5" t="s">
         <v>41</v>
       </c>
@@ -4566,12 +4569,12 @@
       <c r="AB142" s="5"/>
       <c r="AC142" s="5"/>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:29">
       <c r="A143" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="144" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:29" ht="18">
       <c r="B144" s="1" t="s">
         <v>0</v>
       </c>
@@ -4621,7 +4624,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:29">
       <c r="A145" t="s">
         <v>6</v>
       </c>
@@ -4636,71 +4639,71 @@
       </c>
       <c r="F145">
         <f>F138</f>
-        <v>2.2188771583807485</v>
+        <v>1.9161668000220178</v>
       </c>
       <c r="G145">
-        <f t="shared" ref="G145:H145" si="92">G138</f>
-        <v>2.1596089013951971</v>
+        <f t="shared" ref="G145:H145" si="100">G138</f>
+        <v>1.8748098436510179</v>
       </c>
       <c r="H145">
-        <f t="shared" si="92"/>
-        <v>0.76977756980209822</v>
+        <f t="shared" si="100"/>
+        <v>0.53108383674810422</v>
       </c>
       <c r="I145" s="3">
         <f>I138</f>
-        <v>-0.26067262678938968</v>
+        <v>-0.37906439754601207</v>
       </c>
       <c r="K145" s="3">
         <f t="array" ref="K145:M148">MMULT(B145:D148,H145:H147)+I145</f>
-        <v>-0.44337836392662661</v>
+        <v>-0.46957221007277972</v>
       </c>
       <c r="L145">
-        <v>-0.44337836392662661</v>
+        <v>-0.46957221007277972</v>
       </c>
       <c r="M145" s="4">
-        <v>-0.44337836392662661</v>
+        <v>-0.46957221007277972</v>
       </c>
       <c r="O145">
-        <f>(EXP(2*K145)-1)/(EXP(2*K145+1))</f>
-        <v>-0.52505396669290072</v>
+        <f>TANH(K145)</f>
+        <v>-0.43785360376041355</v>
       </c>
       <c r="P145">
-        <f t="shared" ref="P145:P148" si="93">(EXP(2*L145)-1)/(EXP(2*L145+1))</f>
-        <v>-0.52505396669290072</v>
+        <f t="shared" ref="P145:Q145" si="101">TANH(L145)</f>
+        <v>-0.43785360376041355</v>
       </c>
       <c r="Q145">
-        <f t="shared" ref="Q145:Q148" si="94">(EXP(2*M145)-1)/(EXP(2*M145+1))</f>
-        <v>-0.52505396669290072</v>
+        <f t="shared" si="101"/>
+        <v>-0.43785360376041355</v>
       </c>
       <c r="S145">
         <f>S138</f>
-        <v>1.0787323945474769</v>
+        <v>0.93351209830626991</v>
       </c>
       <c r="T145">
         <f>T138</f>
-        <v>-0.26303094524854032</v>
+        <v>-0.34251559503419604</v>
       </c>
       <c r="V145">
         <f t="array" ref="V145:V148">MMULT(O145:Q148,S145:S147)</f>
-        <v>-1.3715638715758012</v>
+        <v>-0.9530204206033428</v>
       </c>
       <c r="X145">
         <f>1/(1+EXP(-V145))</f>
-        <v>0.2023672969539988</v>
+        <v>0.27827779686449139</v>
       </c>
       <c r="Z145" s="2">
         <v>0</v>
       </c>
       <c r="AB145" s="4">
         <f>-(Z145*LOG(X145)+(1-Z145)*LOG(1-X145))</f>
-        <v>9.8197048200339504E-2</v>
+        <v>0.14162993381694697</v>
       </c>
       <c r="AC145" s="3">
         <f>1/4*SUM(AB145:AB148)</f>
-        <v>0.17910140189791618</v>
-      </c>
-    </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
+        <v>0.19520299727703039</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -4714,58 +4717,58 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <f t="shared" ref="F146:H146" si="95">F139</f>
-        <v>-0.81801670482915212</v>
+        <f t="shared" ref="F146:H146" si="102">F139</f>
+        <v>-0.84535717427113766</v>
       </c>
       <c r="G146">
-        <f t="shared" si="95"/>
-        <v>-0.46999513806859772</v>
+        <f t="shared" si="102"/>
+        <v>-0.46388979401038599</v>
       </c>
       <c r="H146">
-        <f t="shared" si="95"/>
-        <v>-0.18270573713723692</v>
+        <f t="shared" si="102"/>
+        <v>-9.0507812526767623E-2</v>
       </c>
       <c r="K146" s="3">
-        <v>0.50910494301270859</v>
+        <v>0.15201943920209215</v>
       </c>
       <c r="L146">
-        <v>0.50910494301270859</v>
+        <v>0.15201943920209215</v>
       </c>
       <c r="M146" s="4">
-        <v>0.50910494301270859</v>
+        <v>0.15201943920209215</v>
       </c>
       <c r="O146">
-        <f t="shared" ref="O146:O148" si="96">(EXP(2*K146)-1)/(EXP(2*K146+1))</f>
-        <v>0.23498629501483853</v>
+        <f t="shared" ref="O146:O148" si="103">TANH(K146)</f>
+        <v>0.15085911219652143</v>
       </c>
       <c r="P146">
-        <f t="shared" si="93"/>
-        <v>0.23498629501483853</v>
+        <f t="shared" ref="P146:P148" si="104">TANH(L146)</f>
+        <v>0.15085911219652143</v>
       </c>
       <c r="Q146">
-        <f t="shared" si="94"/>
-        <v>0.23498629501483853</v>
+        <f t="shared" ref="Q146:Q148" si="105">TANH(M146)</f>
+        <v>0.15085911219652143</v>
       </c>
       <c r="S146">
-        <f t="shared" ref="S146:S147" si="97">S139</f>
-        <v>0.94231992720322821</v>
+        <f t="shared" ref="S146:S147" si="106">S139</f>
+        <v>0.79709963096202108</v>
       </c>
       <c r="V146">
-        <v>0.61383921082976001</v>
+        <v>0.3283559009737998</v>
       </c>
       <c r="X146">
-        <f t="shared" ref="X146:X148" si="98">1/(1+EXP(-V146))</f>
-        <v>0.64881607976176237</v>
+        <f t="shared" ref="X146:X148" si="107">1/(1+EXP(-V146))</f>
+        <v>0.58135928853261631</v>
       </c>
       <c r="Z146" s="2">
         <v>1</v>
       </c>
       <c r="AB146" s="4">
-        <f t="shared" ref="AB146:AB148" si="99">-(Z146*LOG(X146)+(1-Z146)*LOG(1-X146))</f>
-        <v>0.18787839544106197</v>
-      </c>
-    </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AB146:AB148" si="108">-(Z146*LOG(X146)+(1-Z146)*LOG(1-X146))</f>
+        <v>0.23555538430397321</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -4779,58 +4782,58 @@
         <v>1</v>
       </c>
       <c r="F147">
-        <f t="shared" ref="F147:H147" si="100">F140</f>
-        <v>0.42513346020134685</v>
+        <f t="shared" ref="F147:H147" si="109">F140</f>
+        <v>0.33276842197323991</v>
       </c>
       <c r="G147">
-        <f t="shared" si="100"/>
-        <v>0.25217085594118904</v>
+        <f t="shared" si="109"/>
+        <v>0.18877274901088034</v>
       </c>
       <c r="H147">
-        <f t="shared" si="100"/>
-        <v>0.34148996961146244</v>
+        <f t="shared" si="109"/>
+        <v>0.35265539112075023</v>
       </c>
       <c r="K147" s="3">
-        <v>0.66788917548693405</v>
+        <v>0.41416701779607468</v>
       </c>
       <c r="L147">
-        <v>0.66788917548693405</v>
+        <v>0.41416701779607468</v>
       </c>
       <c r="M147" s="4">
-        <v>0.66788917548693405</v>
+        <v>0.41416701779607468</v>
       </c>
       <c r="O147">
-        <f t="shared" si="96"/>
-        <v>0.27114428186058537</v>
+        <f t="shared" si="103"/>
+        <v>0.39200511044563441</v>
       </c>
       <c r="P147">
-        <f t="shared" si="93"/>
-        <v>0.27114428186058537</v>
+        <f t="shared" si="104"/>
+        <v>0.39200511044563441</v>
       </c>
       <c r="Q147">
-        <f t="shared" si="94"/>
-        <v>0.27114428186058537</v>
+        <f t="shared" si="105"/>
+        <v>0.39200511044563441</v>
       </c>
       <c r="S147">
-        <f t="shared" si="97"/>
-        <v>0.59118176956512403</v>
+        <f t="shared" si="106"/>
+        <v>0.44596147332391678</v>
       </c>
       <c r="V147">
-        <v>0.70829233674156922</v>
+        <v>0.85322781867516662</v>
       </c>
       <c r="X147">
-        <f t="shared" si="98"/>
-        <v>0.67002371891386314</v>
+        <f t="shared" si="107"/>
+        <v>0.70124381244446454</v>
       </c>
       <c r="Z147" s="2">
         <v>1</v>
       </c>
       <c r="AB147" s="4">
-        <f t="shared" si="99"/>
-        <v>0.17390982295428223</v>
-      </c>
-    </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="108"/>
+        <v>0.15413095779721689</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29">
       <c r="A148" t="s">
         <v>9</v>
       </c>
@@ -4845,53 +4848,53 @@
       </c>
       <c r="H148" s="3"/>
       <c r="K148" s="3">
-        <v>-0.10188839431516417</v>
+        <v>-0.11691681895202943</v>
       </c>
       <c r="L148">
-        <v>-0.10188839431516417</v>
+        <v>-0.11691681895202943</v>
       </c>
       <c r="M148" s="4">
-        <v>-0.10188839431516417</v>
+        <v>-0.11691681895202943</v>
       </c>
       <c r="O148">
-        <f t="shared" si="96"/>
-        <v>-8.3149752150875736E-2</v>
+        <f t="shared" si="103"/>
+        <v>-0.11638698266744606</v>
       </c>
       <c r="P148">
-        <f t="shared" si="93"/>
-        <v>-8.3149752150875736E-2</v>
+        <f t="shared" si="104"/>
+        <v>-0.11638698266744606</v>
       </c>
       <c r="Q148">
-        <f t="shared" si="94"/>
-        <v>-8.3149752150875736E-2</v>
+        <f t="shared" si="105"/>
+        <v>-0.11638698266744606</v>
       </c>
       <c r="V148">
-        <v>-0.21720661725297929</v>
+        <v>-0.25332478760452687</v>
       </c>
       <c r="X148">
-        <f t="shared" si="98"/>
-        <v>0.44591083344062027</v>
+        <f t="shared" si="107"/>
+        <v>0.43700532545640564</v>
       </c>
       <c r="Z148" s="2">
         <v>0</v>
       </c>
       <c r="AB148" s="4">
-        <f t="shared" si="99"/>
-        <v>0.25642034099598099</v>
-      </c>
-    </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="108"/>
+        <v>0.24949571318998454</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29">
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="H149" s="3"/>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:29">
       <c r="A150" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:29">
       <c r="F151" t="s">
         <v>24</v>
       </c>
@@ -4911,119 +4914,119 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:29">
       <c r="F152">
         <f t="array" ref="F152:H154">1/4*MMULT(TRANSPOSE(B145:D148),K152:M155)</f>
-        <v>-0.17192533026249365</v>
+        <v>-0.15448691911354173</v>
       </c>
       <c r="G152">
-        <v>-0.15018429548999113</v>
+        <v>-0.13191201960562382</v>
       </c>
       <c r="H152">
-        <v>-9.4220885078997285E-2</v>
+        <v>-7.3802165159025546E-2</v>
       </c>
       <c r="I152">
         <f>1/4*SUM(K152:M155)</f>
-        <v>-3.1413767292856443E-2</v>
+        <v>-3.2358972038054185E-3</v>
       </c>
       <c r="K152">
         <f t="array" ref="K152:M155">MMULT(V152:V155,TRANSPOSE(S145:S147))*(1-(O145:Q148)^2)</f>
-        <v>0.15811880692587901</v>
+        <v>0.20997259145241709</v>
       </c>
       <c r="L152">
-        <v>0.13812369349894213</v>
+        <v>0.17928966904931301</v>
       </c>
       <c r="M152">
-        <v>8.665444419065628E-2</v>
+        <v>0.10030902268075281</v>
       </c>
       <c r="S152">
         <f t="array" ref="S152:S154">1/4*MMULT(TRANSPOSE(O145:Q148),V152:V155)</f>
-        <v>-7.8831429332073127E-2</v>
+        <v>-8.8244096450854015E-2</v>
       </c>
       <c r="T152">
         <f>1/4*SUM(V152:V155)</f>
-        <v>-8.2205177324388562E-3</v>
+        <v>-5.2844417550552969E-4</v>
       </c>
       <c r="V152">
         <f>X145-Z145</f>
-        <v>0.2023672969539988</v>
-      </c>
-    </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.2">
+        <v>0.27827779686449139</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29">
       <c r="F153">
-        <v>7.6506268834016705E-2</v>
+        <v>9.409015810566887E-2</v>
       </c>
       <c r="G153">
-        <v>6.683157198454584E-2</v>
+        <v>8.0340930170334945E-2</v>
       </c>
       <c r="H153">
-        <v>4.1928018126397765E-2</v>
+        <v>4.4949160927015411E-2</v>
       </c>
       <c r="K153">
-        <v>-0.35791483288304177</v>
+        <v>-0.38191201784822459</v>
       </c>
       <c r="L153">
-        <v>-0.31265426066006546</v>
+        <v>-0.32610389200002071</v>
       </c>
       <c r="M153">
-        <v>-0.19614941140815967</v>
+        <v>-0.18244867577905313</v>
       </c>
       <c r="S153">
-        <v>-7.8831429332073127E-2</v>
+        <v>-8.8244096450854015E-2</v>
       </c>
       <c r="V153">
-        <f t="shared" ref="V153:V155" si="101">X146-Z146</f>
-        <v>-0.35118392023823763</v>
-      </c>
-    </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" ref="V153:V155" si="110">X146-Z146</f>
+        <v>-0.41864071146738369</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29">
       <c r="F154">
-        <v>3.6976567102546945E-2</v>
+        <v>4.1597010242564597E-2</v>
       </c>
       <c r="G154">
-        <v>3.2300648609810301E-2</v>
+        <v>3.5518512908006686E-2</v>
       </c>
       <c r="H154">
-        <v>2.0264407078733691E-2</v>
+        <v>1.9871905256827208E-2</v>
       </c>
       <c r="K154">
-        <v>-0.32978648816693285</v>
+        <v>-0.23603565860594239</v>
       </c>
       <c r="L154">
-        <v>-0.28808292129989904</v>
+        <v>-0.20154418642247457</v>
       </c>
       <c r="M154">
-        <v>-0.18073412890782944</v>
+        <v>-0.11275998485704908</v>
       </c>
       <c r="S154">
-        <v>-7.8831429332073127E-2</v>
+        <v>-8.8244096450854015E-2</v>
       </c>
       <c r="V154">
-        <f t="shared" si="101"/>
-        <v>-0.32997628108613686</v>
-      </c>
-    </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="110"/>
+        <v>-0.29875618755553546</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29">
       <c r="K155">
-        <v>0.47769275657712063</v>
+        <v>0.40242369957620078</v>
       </c>
       <c r="L155">
-        <v>0.41728551573914024</v>
+        <v>0.34361823805450131</v>
       </c>
       <c r="M155">
-        <v>0.26179175722276421</v>
+        <v>0.19224760588435791</v>
       </c>
       <c r="V155">
-        <f t="shared" si="101"/>
-        <v>0.44591083344062027</v>
-      </c>
-    </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="110"/>
+        <v>0.43700532545640564</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29">
       <c r="A156" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:29">
       <c r="F157" t="s">
         <v>28</v>
       </c>
@@ -5037,69 +5040,69 @@
         <v>32</v>
       </c>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:29">
       <c r="F158">
         <f>F145-$B$1*F152</f>
-        <v>2.5627278189057359</v>
+        <v>2.2251406382491012</v>
       </c>
       <c r="G158">
-        <f t="shared" ref="G158:H158" si="102">G145-$B$1*G152</f>
-        <v>2.4599774923751792</v>
+        <f t="shared" ref="G158:H158" si="111">G145-$B$1*G152</f>
+        <v>2.1386338828622655</v>
       </c>
       <c r="H158">
-        <f t="shared" si="102"/>
-        <v>0.95821933996009279</v>
+        <f t="shared" si="111"/>
+        <v>0.67868816706615531</v>
       </c>
       <c r="I158">
         <f>I145-$B$1*I152</f>
-        <v>-0.1978450922036768</v>
+        <v>-0.37259260313840126</v>
       </c>
       <c r="S158">
         <f>S145-$B$1*S152</f>
-        <v>1.2363952532116231</v>
+        <v>1.1100002912079781</v>
       </c>
       <c r="T158">
         <f>T145-$B$1*T152</f>
-        <v>-0.2465899097836626</v>
-      </c>
-    </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.2">
+        <v>-0.34145870668318501</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29">
       <c r="F159">
-        <f t="shared" ref="F159:H159" si="103">F146-$B$1*F153</f>
-        <v>-0.97102924249718559</v>
+        <f t="shared" ref="F159:H159" si="112">F146-$B$1*F153</f>
+        <v>-1.0335374904824755</v>
       </c>
       <c r="G159">
-        <f t="shared" si="103"/>
-        <v>-0.60365828203768945</v>
+        <f t="shared" si="112"/>
+        <v>-0.62457165435105588</v>
       </c>
       <c r="H159">
-        <f t="shared" si="103"/>
-        <v>-0.26656177339003245</v>
+        <f t="shared" si="112"/>
+        <v>-0.18040613438079844</v>
       </c>
       <c r="S159">
-        <f t="shared" ref="S159:S160" si="104">S146-$B$1*S153</f>
-        <v>1.0999827858673745</v>
-      </c>
-    </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" ref="S159:S160" si="113">S146-$B$1*S153</f>
+        <v>0.97358782386372911</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29">
       <c r="F160">
-        <f t="shared" ref="F160:H160" si="105">F147-$B$1*F154</f>
-        <v>0.35118032599625293</v>
+        <f t="shared" ref="F160:H160" si="114">F147-$B$1*F154</f>
+        <v>0.24957440148811072</v>
       </c>
       <c r="G160">
-        <f t="shared" si="105"/>
-        <v>0.18756955872156844</v>
+        <f t="shared" si="114"/>
+        <v>0.11773572319486697</v>
       </c>
       <c r="H160">
-        <f t="shared" si="105"/>
-        <v>0.30096115545399504</v>
+        <f t="shared" si="114"/>
+        <v>0.31291158060709579</v>
       </c>
       <c r="S160">
-        <f t="shared" si="104"/>
-        <v>0.74884462822927023</v>
-      </c>
-    </row>
-    <row r="162" spans="1:29" ht="37" x14ac:dyDescent="0.45">
+        <f t="shared" si="113"/>
+        <v>0.62244966622562481</v>
+      </c>
+    </row>
+    <row r="162" spans="1:29" ht="37">
       <c r="A162" s="5" t="s">
         <v>42</v>
       </c>
@@ -5132,12 +5135,12 @@
       <c r="AB162" s="5"/>
       <c r="AC162" s="5"/>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:29">
       <c r="A163" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="164" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:29" ht="18">
       <c r="B164" s="1" t="s">
         <v>0</v>
       </c>
@@ -5187,7 +5190,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:29">
       <c r="A165" t="s">
         <v>6</v>
       </c>
@@ -5202,71 +5205,71 @@
       </c>
       <c r="F165">
         <f>F158</f>
-        <v>2.5627278189057359</v>
+        <v>2.2251406382491012</v>
       </c>
       <c r="G165">
-        <f t="shared" ref="G165:H165" si="106">G158</f>
-        <v>2.4599774923751792</v>
+        <f t="shared" ref="G165:H165" si="115">G158</f>
+        <v>2.1386338828622655</v>
       </c>
       <c r="H165">
-        <f t="shared" si="106"/>
-        <v>0.95821933996009279</v>
+        <f t="shared" si="115"/>
+        <v>0.67868816706615531</v>
       </c>
       <c r="I165" s="3">
         <f>I158</f>
-        <v>-0.1978450922036768</v>
+        <v>-0.37259260313840126</v>
       </c>
       <c r="K165" s="3">
         <f t="array" ref="K165:M168">MMULT(B165:D168,H165:H167)+I165</f>
-        <v>-0.46440686559370925</v>
+        <v>-0.5529987375191997</v>
       </c>
       <c r="L165">
-        <v>-0.46440686559370925</v>
+        <v>-0.5529987375191997</v>
       </c>
       <c r="M165" s="4">
-        <v>-0.46440686559370925</v>
+        <v>-0.5529987375191997</v>
       </c>
       <c r="O165">
-        <f>(EXP(2*K165)-1)/(EXP(2*K165+1))</f>
-        <v>-0.56340896481356872</v>
+        <f>TANH(K165)</f>
+        <v>-0.50276432855438091</v>
       </c>
       <c r="P165">
-        <f t="shared" ref="P165:P168" si="107">(EXP(2*L165)-1)/(EXP(2*L165+1))</f>
-        <v>-0.56340896481356872</v>
+        <f t="shared" ref="P165:Q165" si="116">TANH(L165)</f>
+        <v>-0.50276432855438091</v>
       </c>
       <c r="Q165">
-        <f t="shared" ref="Q165:Q168" si="108">(EXP(2*M165)-1)/(EXP(2*M165+1))</f>
-        <v>-0.56340896481356872</v>
+        <f t="shared" si="116"/>
+        <v>-0.50276432855438091</v>
       </c>
       <c r="S165">
         <f>S158</f>
-        <v>1.2363952532116231</v>
+        <v>1.1100002912079781</v>
       </c>
       <c r="T165">
         <f>T158</f>
-        <v>-0.2465899097836626</v>
+        <v>-0.34145870668318501</v>
       </c>
       <c r="V165">
         <f t="array" ref="V165:V168">MMULT(O165:Q168,S165:S167)</f>
-        <v>-1.7382421092075087</v>
+        <v>-1.3604992681567398</v>
       </c>
       <c r="X165">
         <f>1/(1+EXP(-V165))</f>
-        <v>0.14953635700243376</v>
+        <v>0.20415917010913126</v>
       </c>
       <c r="Z165" s="2">
         <v>0</v>
       </c>
       <c r="AB165" s="4">
         <f>-(Z165*LOG(X165)+(1-Z165)*LOG(1-X165))</f>
-        <v>7.034424758113754E-2</v>
+        <v>9.9173783534156595E-2</v>
       </c>
       <c r="AC165" s="3">
         <f>1/4*SUM(AB165:AB168)</f>
-        <v>0.14599789862990303</v>
-      </c>
-    </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.2">
+        <v>0.14180731499595431</v>
+      </c>
+    </row>
+    <row r="166" spans="1:29">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -5281,57 +5284,57 @@
       </c>
       <c r="F166">
         <f>F159</f>
-        <v>-0.97102924249718559</v>
+        <v>-1.0335374904824755</v>
       </c>
       <c r="G166">
-        <f t="shared" ref="F166:H166" si="109">G159</f>
-        <v>-0.60365828203768945</v>
+        <f t="shared" ref="G166:H166" si="117">G159</f>
+        <v>-0.62457165435105588</v>
       </c>
       <c r="H166">
-        <f t="shared" si="109"/>
-        <v>-0.26656177339003245</v>
+        <f t="shared" si="117"/>
+        <v>-0.18040613438079844</v>
       </c>
       <c r="K166" s="3">
-        <v>0.76037424775641593</v>
+        <v>0.30609556392775406</v>
       </c>
       <c r="L166">
-        <v>0.76037424775641593</v>
+        <v>0.30609556392775406</v>
       </c>
       <c r="M166" s="4">
-        <v>0.76037424775641593</v>
+        <v>0.30609556392775406</v>
       </c>
       <c r="O166">
-        <f t="shared" ref="O166:O168" si="110">(EXP(2*K166)-1)/(EXP(2*K166+1))</f>
-        <v>0.28748003554358081</v>
+        <f t="shared" ref="O166:O168" si="118">TANH(K166)</f>
+        <v>0.29688093159403506</v>
       </c>
       <c r="P166">
-        <f t="shared" si="107"/>
-        <v>0.28748003554358081</v>
+        <f t="shared" ref="P166:P168" si="119">TANH(L166)</f>
+        <v>0.29688093159403506</v>
       </c>
       <c r="Q166">
-        <f t="shared" si="108"/>
-        <v>0.28748003554358081</v>
+        <f t="shared" ref="Q166:Q168" si="120">TANH(M166)</f>
+        <v>0.29688093159403506</v>
       </c>
       <c r="S166">
-        <f t="shared" ref="S166:S167" si="111">S159</f>
-        <v>1.0999827858673745</v>
+        <f t="shared" ref="S166:S167" si="121">S159</f>
+        <v>0.97358782386372911</v>
       </c>
       <c r="V166">
-        <v>0.88693992205764216</v>
+        <v>0.80337101744020767</v>
       </c>
       <c r="X166">
-        <f t="shared" ref="X166:X168" si="112">1/(1+EXP(-V166))</f>
-        <v>0.70825827647272954</v>
+        <f t="shared" ref="X166:X168" si="122">1/(1+EXP(-V166))</f>
+        <v>0.6906951122653554</v>
       </c>
       <c r="Z166" s="2">
         <v>1</v>
       </c>
       <c r="AB166" s="4">
-        <f t="shared" ref="AB166:AB168" si="113">-(Z166*LOG(X166)+(1-Z166)*LOG(1-X166))</f>
-        <v>0.14980834175572944</v>
-      </c>
-    </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AB166:AB168" si="123">-(Z166*LOG(X166)+(1-Z166)*LOG(1-X166))</f>
+        <v>0.16071361728717271</v>
+      </c>
+    </row>
+    <row r="167" spans="1:29">
       <c r="A167" t="s">
         <v>8</v>
       </c>
@@ -5345,58 +5348,58 @@
         <v>1</v>
       </c>
       <c r="F167">
-        <f t="shared" ref="F167:H167" si="114">F160</f>
-        <v>0.35118032599625293</v>
+        <f t="shared" ref="F167:H167" si="124">F160</f>
+        <v>0.24957440148811072</v>
       </c>
       <c r="G167">
-        <f t="shared" si="114"/>
-        <v>0.18756955872156844</v>
+        <f t="shared" si="124"/>
+        <v>0.11773572319486697</v>
       </c>
       <c r="H167">
-        <f t="shared" si="114"/>
-        <v>0.30096115545399504</v>
+        <f t="shared" si="124"/>
+        <v>0.31291158060709579</v>
       </c>
       <c r="K167" s="3">
-        <v>0.79477362982037869</v>
+        <v>0.4386010101540514</v>
       </c>
       <c r="L167">
-        <v>0.79477362982037869</v>
+        <v>0.4386010101540514</v>
       </c>
       <c r="M167" s="4">
-        <v>0.79477362982037869</v>
+        <v>0.4386010101540514</v>
       </c>
       <c r="O167">
-        <f t="shared" si="110"/>
-        <v>0.29282542879648366</v>
+        <f t="shared" si="118"/>
+        <v>0.4124841512311766</v>
       </c>
       <c r="P167">
-        <f t="shared" si="107"/>
-        <v>0.29282542879648366</v>
+        <f t="shared" si="119"/>
+        <v>0.4124841512311766</v>
       </c>
       <c r="Q167">
-        <f t="shared" si="108"/>
-        <v>0.29282542879648366</v>
+        <f t="shared" si="120"/>
+        <v>0.4124841512311766</v>
       </c>
       <c r="S167">
-        <f t="shared" si="111"/>
-        <v>0.74884462822927023</v>
+        <f t="shared" si="121"/>
+        <v>0.62244966622562481</v>
       </c>
       <c r="V167">
-        <v>0.90343165048717466</v>
+        <v>1.1161976974179262</v>
       </c>
       <c r="X167">
-        <f t="shared" si="112"/>
-        <v>0.71165419703147781</v>
+        <f t="shared" si="122"/>
+        <v>0.75328274742897938</v>
       </c>
       <c r="Z167" s="2">
         <v>1</v>
       </c>
       <c r="AB167" s="4">
-        <f t="shared" si="113"/>
-        <v>0.14773098501838394</v>
-      </c>
-    </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="123"/>
+        <v>0.1230419791785867</v>
+      </c>
+    </row>
+    <row r="168" spans="1:29">
       <c r="A168" t="s">
         <v>9</v>
       </c>
@@ -5411,53 +5414,53 @@
       </c>
       <c r="H168" s="3"/>
       <c r="K168" s="3">
-        <v>-0.16344571013971421</v>
+        <v>-0.24008715691210392</v>
       </c>
       <c r="L168">
-        <v>-0.16344571013971421</v>
+        <v>-0.24008715691210392</v>
       </c>
       <c r="M168" s="4">
-        <v>-0.16344571013971421</v>
+        <v>-0.24008715691210392</v>
       </c>
       <c r="O168">
-        <f t="shared" si="110"/>
-        <v>-0.14224091953599943</v>
+        <f t="shared" si="118"/>
+        <v>-0.23557807119108393</v>
       </c>
       <c r="P168">
-        <f t="shared" si="107"/>
-        <v>-0.14224091953599943</v>
+        <f t="shared" si="119"/>
+        <v>-0.23557807119108393</v>
       </c>
       <c r="Q168">
-        <f t="shared" si="108"/>
-        <v>-0.14224091953599943</v>
+        <f t="shared" si="120"/>
+        <v>-0.23557807119108393</v>
       </c>
       <c r="V168">
-        <v>-0.43884490917123692</v>
+        <v>-0.63748316108822567</v>
       </c>
       <c r="X168">
-        <f t="shared" si="112"/>
-        <v>0.39201623866723656</v>
+        <f t="shared" si="122"/>
+        <v>0.34581569564873327</v>
       </c>
       <c r="Z168" s="2">
         <v>0</v>
       </c>
       <c r="AB168" s="4">
-        <f t="shared" si="113"/>
-        <v>0.21610802016436115</v>
-      </c>
-    </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="123"/>
+        <v>0.18429987998390115</v>
+      </c>
+    </row>
+    <row r="169" spans="1:29">
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="H169" s="3"/>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:29">
       <c r="A170" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:29">
       <c r="F171" t="s">
         <v>24</v>
       </c>
@@ -5477,119 +5480,119 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:29">
       <c r="F172">
         <f t="array" ref="F172:H174">1/4*MMULT(TRANSPOSE(B165:D168),K172:M175)</f>
-        <v>-0.1642093282672677</v>
+        <v>-0.13508239577416364</v>
       </c>
       <c r="G172">
-        <v>-0.14609198304801552</v>
+        <v>-0.11848156868584589</v>
       </c>
       <c r="H172">
-        <v>-9.9456280714977002E-2</v>
+        <v>-7.5749522615964515E-2</v>
       </c>
       <c r="I172">
         <f>1/4*SUM(K172:M175)</f>
-        <v>-3.4784364805709497E-2</v>
+        <v>-5.1454453172126713E-3</v>
       </c>
       <c r="K172">
         <f t="array" ref="K172:M175">MMULT(V172:V175,TRANSPOSE(S165:S167))*(1-(O165:Q168)^2)</f>
-        <v>0.12619772823400494</v>
+        <v>0.16933437889031913</v>
       </c>
       <c r="L172">
-        <v>0.11227423294645629</v>
+        <v>0.14852418576370646</v>
       </c>
       <c r="M172">
-        <v>7.6433883612295556E-2</v>
+        <v>9.4956846818568724E-2</v>
       </c>
       <c r="S172">
         <f t="array" ref="S172:S174">1/4*MMULT(TRANSPOSE(O165:Q168),V172:V175)</f>
-        <v>-7.7078944701723523E-2</v>
+        <v>-9.4426055596190869E-2</v>
       </c>
       <c r="T172">
         <f>1/4*SUM(V172:V175)</f>
-        <v>-9.63373270653059E-3</v>
+        <v>-1.5118186369501713E-3</v>
       </c>
       <c r="V172">
         <f>X165-Z165</f>
-        <v>0.14953635700243376</v>
-      </c>
-    </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.2">
+        <v>0.20415917010913126</v>
+      </c>
+    </row>
+    <row r="173" spans="1:29">
       <c r="F173">
-        <v>6.8784614300650637E-2</v>
+        <v>7.6156401537665536E-2</v>
       </c>
       <c r="G173">
-        <v>6.1195553336771152E-2</v>
+        <v>6.6797230445461028E-2</v>
       </c>
       <c r="H173">
-        <v>4.1660616853766042E-2</v>
+        <v>4.2705868722319726E-2</v>
       </c>
       <c r="K173">
-        <v>-0.3308974453462788</v>
+        <v>-0.31306812804000933</v>
       </c>
       <c r="L173">
-        <v>-0.29438926817531014</v>
+        <v>-0.27459390768975439</v>
       </c>
       <c r="M173">
-        <v>-0.20041388366600044</v>
+        <v>-0.17555774836087212</v>
       </c>
       <c r="S173">
-        <v>-7.7078944701723523E-2</v>
+        <v>-9.4426055596190869E-2</v>
       </c>
       <c r="V173">
-        <f t="shared" ref="V173:V175" si="115">X166-Z166</f>
-        <v>-0.29174172352727046</v>
-      </c>
-    </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" ref="V173:V175" si="125">X166-Z166</f>
+        <v>-0.3093048877346446</v>
+      </c>
+    </row>
+    <row r="174" spans="1:29">
       <c r="F174">
-        <v>3.7235182242149403E-2</v>
+        <v>3.382280681508576E-2</v>
       </c>
       <c r="G174">
-        <v>3.3126995100157083E-2</v>
+        <v>2.9666184004534413E-2</v>
       </c>
       <c r="H174">
-        <v>2.2552145950692153E-2</v>
+        <v>1.8966657017677545E-2</v>
       </c>
       <c r="K174">
-        <v>-0.32593986772279204</v>
+        <v>-0.2272614550566453</v>
       </c>
       <c r="L174">
-        <v>-0.28997866401675199</v>
+        <v>-0.19933236705362917</v>
       </c>
       <c r="M174">
-        <v>-0.1974112391939076</v>
+        <v>-0.12744034210298591</v>
       </c>
       <c r="S174">
-        <v>-7.7078944701723523E-2</v>
+        <v>-9.4426055596190869E-2</v>
       </c>
       <c r="V174">
-        <f t="shared" si="115"/>
-        <v>-0.28834580296852219</v>
-      </c>
-    </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="125"/>
+        <v>-0.24671725257102062</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29">
       <c r="K175">
-        <v>0.47488059669138966</v>
+        <v>0.36255268231698834</v>
       </c>
       <c r="L175">
-        <v>0.42248664441738032</v>
+        <v>0.31799710307176682</v>
       </c>
       <c r="M175">
-        <v>0.28761982299667621</v>
+        <v>0.20330697017369609</v>
       </c>
       <c r="V175">
-        <f t="shared" si="115"/>
-        <v>0.39201623866723656</v>
-      </c>
-    </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="125"/>
+        <v>0.34581569564873327</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29">
       <c r="A176" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:29">
       <c r="F177" t="s">
         <v>28</v>
       </c>
@@ -5603,69 +5606,69 @@
         <v>32</v>
       </c>
     </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:29">
       <c r="F178">
         <f>F165-$B$1*F172</f>
-        <v>2.8911464754402711</v>
+        <v>2.4953054297974284</v>
       </c>
       <c r="G178">
-        <f t="shared" ref="G178:H178" si="116">G165-$B$1*G172</f>
-        <v>2.7521614584712104</v>
+        <f t="shared" ref="G178:H178" si="126">G165-$B$1*G172</f>
+        <v>2.3755970202339571</v>
       </c>
       <c r="H178">
-        <f t="shared" si="116"/>
-        <v>1.1571319013900467</v>
+        <f t="shared" si="126"/>
+        <v>0.83018721229808434</v>
       </c>
       <c r="I178">
         <f>I165-$B$1*I172</f>
-        <v>-0.1282763625922578</v>
+        <v>-0.36230171250397591</v>
       </c>
       <c r="S178">
         <f>S165-$B$1*S172</f>
-        <v>1.3905531426150701</v>
+        <v>1.2988524024003598</v>
       </c>
       <c r="T178">
         <f>T165-$B$1*T172</f>
-        <v>-0.22732244437060142</v>
-      </c>
-    </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.2">
+        <v>-0.33843506940928469</v>
+      </c>
+    </row>
+    <row r="179" spans="1:29">
       <c r="F179">
-        <f t="shared" ref="F179:H179" si="117">F166-$B$1*F173</f>
-        <v>-1.1085984710984869</v>
+        <f t="shared" ref="F179:H179" si="127">F166-$B$1*F173</f>
+        <v>-1.1858502935578066</v>
       </c>
       <c r="G179">
-        <f t="shared" si="117"/>
-        <v>-0.72604938871123181</v>
+        <f t="shared" si="127"/>
+        <v>-0.75816611524197797</v>
       </c>
       <c r="H179">
-        <f t="shared" si="117"/>
-        <v>-0.34988300709756454</v>
+        <f t="shared" si="127"/>
+        <v>-0.26581787182543792</v>
       </c>
       <c r="S179">
-        <f t="shared" ref="S179:S180" si="118">S166-$B$1*S173</f>
-        <v>1.2541406752708215</v>
-      </c>
-    </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" ref="S179:S180" si="128">S166-$B$1*S173</f>
+        <v>1.1624399350561108</v>
+      </c>
+    </row>
+    <row r="180" spans="1:29">
       <c r="F180">
-        <f t="shared" ref="F180:H180" si="119">F167-$B$1*F174</f>
-        <v>0.27670996151195415</v>
+        <f t="shared" ref="F180:H180" si="129">F167-$B$1*F174</f>
+        <v>0.1819287878579392</v>
       </c>
       <c r="G180">
-        <f t="shared" si="119"/>
-        <v>0.12131556852125427</v>
+        <f t="shared" si="129"/>
+        <v>5.8403355185798145E-2</v>
       </c>
       <c r="H180">
-        <f t="shared" si="119"/>
-        <v>0.25585686355261072</v>
+        <f t="shared" si="129"/>
+        <v>0.27497826657174068</v>
       </c>
       <c r="S180">
-        <f t="shared" si="118"/>
-        <v>0.90300251763271722</v>
-      </c>
-    </row>
-    <row r="182" spans="1:29" ht="37" x14ac:dyDescent="0.45">
+        <f t="shared" si="128"/>
+        <v>0.81130177741800658</v>
+      </c>
+    </row>
+    <row r="182" spans="1:29" ht="37">
       <c r="A182" s="5" t="s">
         <v>43</v>
       </c>
@@ -5698,12 +5701,12 @@
       <c r="AB182" s="5"/>
       <c r="AC182" s="5"/>
     </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:29">
       <c r="A183" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="184" spans="1:29" ht="18" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:29" ht="18">
       <c r="B184" s="1" t="s">
         <v>0</v>
       </c>
@@ -5753,7 +5756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:29">
       <c r="A185" t="s">
         <v>6</v>
       </c>
@@ -5768,71 +5771,71 @@
       </c>
       <c r="F185">
         <f>F178</f>
-        <v>2.8911464754402711</v>
+        <v>2.4953054297974284</v>
       </c>
       <c r="G185">
-        <f t="shared" ref="G185:H185" si="120">G178</f>
-        <v>2.7521614584712104</v>
+        <f t="shared" ref="G185:H185" si="130">G178</f>
+        <v>2.3755970202339571</v>
       </c>
       <c r="H185">
-        <f t="shared" si="120"/>
-        <v>1.1571319013900467</v>
+        <f t="shared" si="130"/>
+        <v>0.83018721229808434</v>
       </c>
       <c r="I185" s="3">
         <f>I178</f>
-        <v>-0.1282763625922578</v>
+        <v>-0.36230171250397591</v>
       </c>
       <c r="K185" s="3">
         <f t="array" ref="K185:M188">MMULT(B185:D188,H185:H187)+I185</f>
-        <v>-0.47815936968982231</v>
+        <v>-0.62811958432941384</v>
       </c>
       <c r="L185">
-        <v>-0.47815936968982231</v>
+        <v>-0.62811958432941384</v>
       </c>
       <c r="M185" s="4">
-        <v>-0.47815936968982231</v>
+        <v>-0.62811958432941384</v>
       </c>
       <c r="O185">
-        <f>(EXP(2*K185)-1)/(EXP(2*K185+1))</f>
-        <v>-0.58937958382829214</v>
+        <f>TANH(K185)</f>
+        <v>-0.55675604458029171</v>
       </c>
       <c r="P185">
-        <f t="shared" ref="P185:P188" si="121">(EXP(2*L185)-1)/(EXP(2*L185+1))</f>
-        <v>-0.58937958382829214</v>
+        <f t="shared" ref="P185:Q185" si="131">TANH(L185)</f>
+        <v>-0.55675604458029171</v>
       </c>
       <c r="Q185">
-        <f t="shared" ref="Q185:Q188" si="122">(EXP(2*M185)-1)/(EXP(2*M185+1))</f>
-        <v>-0.58937958382829214</v>
+        <f t="shared" si="131"/>
+        <v>-0.55675604458029171</v>
       </c>
       <c r="S185">
         <f>S178</f>
-        <v>1.3905531426150701</v>
+        <v>1.2988524024003598</v>
       </c>
       <c r="T185">
         <f>T178</f>
-        <v>-0.22732244437060142</v>
+        <v>-0.33843506940928469</v>
       </c>
       <c r="V185">
         <f t="array" ref="V185:V188">MMULT(O185:Q188,S185:S187)</f>
-        <v>-2.0909397897771149</v>
+        <v>-1.8220365549142548</v>
       </c>
       <c r="X185">
         <f>1/(1+EXP(-V185))</f>
-        <v>0.10998054947792549</v>
+        <v>0.13918968192281186</v>
       </c>
       <c r="Z185" s="2">
         <v>0</v>
       </c>
       <c r="AB185" s="4">
         <f>-(Z185*LOG(X185)+(1-Z185)*LOG(1-X185))</f>
-        <v>5.0600502161712933E-2</v>
+        <v>6.5092535988640565E-2</v>
       </c>
       <c r="AC185" s="3">
         <f>1/4*SUM(AB185:AB188)</f>
-        <v>0.11659262807416305</v>
-      </c>
-    </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.2">
+        <v>9.3354268265042534E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -5847,57 +5850,57 @@
       </c>
       <c r="F186">
         <f>F179</f>
-        <v>-1.1085984710984869</v>
+        <v>-1.1858502935578066</v>
       </c>
       <c r="G186">
-        <f t="shared" ref="G186:I186" si="123">G179</f>
-        <v>-0.72604938871123181</v>
+        <f t="shared" ref="G186:H186" si="132">G179</f>
+        <v>-0.75816611524197797</v>
       </c>
       <c r="H186">
-        <f t="shared" si="123"/>
-        <v>-0.34988300709756454</v>
+        <f t="shared" si="132"/>
+        <v>-0.26581787182543792</v>
       </c>
       <c r="K186" s="3">
-        <v>1.0288555387977889</v>
+        <v>0.46788549979410843</v>
       </c>
       <c r="L186">
-        <v>1.0288555387977889</v>
+        <v>0.46788549979410843</v>
       </c>
       <c r="M186" s="4">
-        <v>1.0288555387977889</v>
+        <v>0.46788549979410843</v>
       </c>
       <c r="O186">
-        <f t="shared" ref="O186:O188" si="124">(EXP(2*K186)-1)/(EXP(2*K186+1))</f>
-        <v>0.32088430073540219</v>
+        <f t="shared" ref="O186:O188" si="133">TANH(K186)</f>
+        <v>0.43648925613486239</v>
       </c>
       <c r="P186">
-        <f t="shared" si="121"/>
-        <v>0.32088430073540219</v>
+        <f t="shared" ref="P186:P188" si="134">TANH(L186)</f>
+        <v>0.43648925613486239</v>
       </c>
       <c r="Q186">
-        <f t="shared" si="122"/>
-        <v>0.32088430073540219</v>
+        <f t="shared" ref="Q186:Q188" si="135">TANH(M186)</f>
+        <v>0.43648925613486239</v>
       </c>
       <c r="S186">
-        <f t="shared" ref="S186:S187" si="125">S179</f>
-        <v>1.2541406752708215</v>
+        <f t="shared" ref="S186:S187" si="136">S179</f>
+        <v>1.1624399350561108</v>
       </c>
       <c r="V186">
-        <v>1.1384000578444375</v>
+        <v>1.4284521708328888</v>
       </c>
       <c r="X186">
-        <f t="shared" ref="X186:X188" si="126">1/(1+EXP(-V186))</f>
-        <v>0.7573857666053595</v>
+        <f t="shared" ref="X186:X188" si="137">1/(1+EXP(-V186))</f>
+        <v>0.80666003148570598</v>
       </c>
       <c r="Z186" s="2">
         <v>1</v>
       </c>
       <c r="AB186" s="4">
-        <f t="shared" ref="AB186:AB188" si="127">-(Z186*LOG(X186)+(1-Z186)*LOG(1-X186))</f>
-        <v>0.12068286074520897</v>
-      </c>
-    </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AB186:AB188" si="138">-(Z186*LOG(X186)+(1-Z186)*LOG(1-X186))</f>
+        <v>9.3309461013192749E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -5911,58 +5914,58 @@
         <v>1</v>
       </c>
       <c r="F187">
-        <f t="shared" ref="F187:H187" si="128">F180</f>
-        <v>0.27670996151195415</v>
+        <f t="shared" ref="F187:H187" si="139">F180</f>
+        <v>0.1819287878579392</v>
       </c>
       <c r="G187">
-        <f t="shared" si="128"/>
-        <v>0.12131556852125427</v>
+        <f t="shared" si="139"/>
+        <v>5.8403355185798145E-2</v>
       </c>
       <c r="H187">
-        <f t="shared" si="128"/>
-        <v>0.25585686355261072</v>
+        <f t="shared" si="139"/>
+        <v>0.27497826657174068</v>
       </c>
       <c r="K187" s="3">
-        <v>0.93482939525283526</v>
+        <v>0.47704589454041113</v>
       </c>
       <c r="L187">
-        <v>0.93482939525283526</v>
+        <v>0.47704589454041113</v>
       </c>
       <c r="M187" s="4">
-        <v>0.93482939525283526</v>
+        <v>0.47704589454041113</v>
       </c>
       <c r="O187">
-        <f t="shared" si="124"/>
-        <v>0.31116116507859704</v>
+        <f t="shared" si="133"/>
+        <v>0.4438746497415148</v>
       </c>
       <c r="P187">
-        <f t="shared" si="121"/>
-        <v>0.31116116507859704</v>
+        <f t="shared" si="134"/>
+        <v>0.4438746497415148</v>
       </c>
       <c r="Q187">
-        <f t="shared" si="122"/>
-        <v>0.31116116507859704</v>
+        <f t="shared" si="135"/>
+        <v>0.4438746497415148</v>
       </c>
       <c r="S187">
-        <f t="shared" si="125"/>
-        <v>0.90300251763271722</v>
+        <f t="shared" si="136"/>
+        <v>0.81130177741800658</v>
       </c>
       <c r="V187">
-        <v>1.1039053251050397</v>
+        <v>1.4526215664860511</v>
       </c>
       <c r="X187">
-        <f t="shared" si="126"/>
-        <v>0.75099113049549016</v>
+        <f t="shared" si="137"/>
+        <v>0.81040156776199335</v>
       </c>
       <c r="Z187" s="2">
         <v>1</v>
       </c>
       <c r="AB187" s="4">
-        <f t="shared" si="127"/>
-        <v>0.12436519215643406</v>
-      </c>
-    </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="138"/>
+        <v>9.1299727482766047E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29">
       <c r="A188" t="s">
         <v>9</v>
       </c>
@@ -5977,53 +5980,53 @@
       </c>
       <c r="H188" s="3"/>
       <c r="K188" s="3">
-        <v>-0.22230250613721161</v>
+        <v>-0.35314131775767316</v>
       </c>
       <c r="L188">
-        <v>-0.22230250613721161</v>
+        <v>-0.35314131775767316</v>
       </c>
       <c r="M188" s="4">
-        <v>-0.22230250613721161</v>
+        <v>-0.35314131775767316</v>
       </c>
       <c r="O188">
-        <f t="shared" si="124"/>
-        <v>-0.20596611330436046</v>
+        <f t="shared" si="133"/>
+        <v>-0.33915847690597606</v>
       </c>
       <c r="P188">
-        <f t="shared" si="121"/>
-        <v>-0.20596611330436046</v>
+        <f t="shared" si="134"/>
+        <v>-0.33915847690597606</v>
       </c>
       <c r="Q188">
-        <f t="shared" si="122"/>
-        <v>-0.20596611330436046</v>
+        <f t="shared" si="135"/>
+        <v>-0.33915847690597606</v>
       </c>
       <c r="V188">
-        <v>-0.73070522541089022</v>
+        <v>-1.1099280355322885</v>
       </c>
       <c r="X188">
-        <f t="shared" si="126"/>
-        <v>0.32503998963760167</v>
+        <f t="shared" si="137"/>
+        <v>0.24788430520514712</v>
       </c>
       <c r="Z188" s="2">
         <v>0</v>
       </c>
       <c r="AB188" s="4">
-        <f t="shared" si="127"/>
-        <v>0.17072195723329625</v>
-      </c>
-    </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.2">
+        <f t="shared" si="138"/>
+        <v>0.12371534857557076</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29">
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="H189" s="3"/>
     </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:29">
       <c r="A190" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:29">
       <c r="F191" t="s">
         <v>24</v>
       </c>
@@ -6043,119 +6046,119 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:29">
       <c r="F192">
         <f t="array" ref="F192:H194">1/4*MMULT(TRANSPOSE(B185:D188),K192:M195)</f>
-        <v>-0.15384125786373115</v>
+        <v>-0.1002542410677299</v>
       </c>
       <c r="G192">
-        <v>-0.1387495185253349</v>
+        <v>-8.9725001286134837E-2</v>
       </c>
       <c r="H192">
-        <v>-9.9902002238823132E-2</v>
+        <v>-6.2621775824279788E-2</v>
       </c>
       <c r="I192">
         <f>1/4*SUM(K192:M195)</f>
-        <v>-5.2776088120921022E-2</v>
+        <v>5.4549672777125038E-3</v>
       </c>
       <c r="K192">
         <f t="array" ref="K192:M195">MMULT(V192:V195,TRANSPOSE(S185:S187))*(1-(O185:Q188)^2)</f>
-        <v>9.9809445978086136E-2</v>
+        <v>0.12474703349592438</v>
       </c>
       <c r="L192">
-        <v>9.0018196458108476E-2</v>
+        <v>0.1116454288781817</v>
       </c>
       <c r="M192">
-        <v>6.4814625374362653E-2</v>
+        <v>7.7920701240440662E-2</v>
       </c>
       <c r="S192">
         <f t="array" ref="S192:S194">1/4*MMULT(TRANSPOSE(O185:Q188),V192:V195)</f>
-        <v>-7.1775125598968884E-2</v>
+        <v>-8.2528879223783727E-2</v>
       </c>
       <c r="T192">
         <f>1/4*SUM(V192:V195)</f>
-        <v>-1.4150640945905804E-2</v>
+        <v>1.0338965939145767E-3</v>
       </c>
       <c r="V192">
         <f>X185-Z185</f>
-        <v>0.10998054947792549</v>
-      </c>
-    </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.13918968192281186</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22">
       <c r="F193">
-        <v>5.4971489207952633E-2</v>
+        <v>5.2984000390379205E-2</v>
       </c>
       <c r="G193">
-        <v>4.9578817582082685E-2</v>
+        <v>4.7419335606556909E-2</v>
       </c>
       <c r="H193">
-        <v>3.5697587982469539E-2</v>
+        <v>3.3095379899971848E-2</v>
       </c>
       <c r="K193">
-        <v>-0.30263030499569993</v>
+        <v>-0.20327596355500835</v>
       </c>
       <c r="L193">
-        <v>-0.27294244529983092</v>
+        <v>-0.18192682820362222</v>
       </c>
       <c r="M193">
-        <v>-0.19652318127817264</v>
+        <v>-0.12697220271815121</v>
       </c>
       <c r="S193">
-        <v>-7.1775125598968884E-2</v>
+        <v>-8.2528879223783727E-2</v>
       </c>
       <c r="V193">
-        <f t="shared" ref="V193:V195" si="129">X186-Z186</f>
-        <v>-0.2426142333946405</v>
-      </c>
-    </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.2">
+        <f t="shared" ref="V193:V195" si="140">X186-Z186</f>
+        <v>-0.19333996851429402</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22">
       <c r="F194">
-        <v>3.0019127713431099E-2</v>
+        <v>2.1797242016398113E-2</v>
       </c>
       <c r="G194">
-        <v>2.7074268467555562E-2</v>
+        <v>1.9507978387011488E-2</v>
       </c>
       <c r="H194">
-        <v>1.9493931638878872E-2</v>
+        <v>1.3615204589861683E-2</v>
       </c>
       <c r="K194">
-        <v>-0.31273472645922468</v>
+        <v>-0.19774100071591122</v>
       </c>
       <c r="L194">
-        <v>-0.28205562880150875</v>
+        <v>-0.17697317694091713</v>
       </c>
       <c r="M194">
-        <v>-0.20308482767711988</v>
+        <v>-0.12351490057896793</v>
       </c>
       <c r="S194">
-        <v>-7.1775125598968884E-2</v>
+        <v>-8.2528879223783727E-2</v>
       </c>
       <c r="V194">
-        <f t="shared" si="129"/>
-        <v>-0.24900886950450984</v>
-      </c>
-    </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.2">
+        <f t="shared" si="140"/>
+        <v>-0.18959843223800665</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22">
       <c r="K195">
-        <v>0.43281123731294907</v>
+        <v>0.28492996878150367</v>
       </c>
       <c r="L195">
-        <v>0.390352702671731</v>
+        <v>0.25500509048896308</v>
       </c>
       <c r="M195">
-        <v>0.28106055423263537</v>
+        <v>0.17797571893841466</v>
       </c>
       <c r="V195">
-        <f t="shared" si="129"/>
-        <v>0.32503998963760167</v>
-      </c>
-    </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.2">
+        <f t="shared" si="140"/>
+        <v>0.24788430520514712</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22">
       <c r="A196" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:22">
       <c r="F197" t="s">
         <v>28</v>
       </c>
@@ -6169,80 +6172,80 @@
         <v>32</v>
       </c>
     </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:22">
       <c r="F198">
         <f>F185-$B$1*F192</f>
-        <v>3.1988289911677334</v>
+        <v>2.6958139119328881</v>
       </c>
       <c r="G198">
-        <f t="shared" ref="G198:H198" si="130">G185-$B$1*G192</f>
-        <v>3.0296604955218802</v>
+        <f t="shared" ref="G198:H198" si="141">G185-$B$1*G192</f>
+        <v>2.5550470228062268</v>
       </c>
       <c r="H198">
-        <f t="shared" si="130"/>
-        <v>1.3569359058676931</v>
+        <f t="shared" si="141"/>
+        <v>0.95543076394664395</v>
       </c>
       <c r="I198">
         <f>I185-$B$1*I192</f>
-        <v>-2.2724186350415759E-2</v>
+        <v>-0.37321164705940091</v>
       </c>
       <c r="S198">
         <f>S185-$B$1*S192</f>
-        <v>1.534103393813008</v>
+        <v>1.4639101608479272</v>
       </c>
       <c r="T198">
         <f>T185-$B$1*T192</f>
-        <v>-0.19902116247878981</v>
-      </c>
-    </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.2">
+        <v>-0.34050286259711382</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22">
       <c r="F199">
-        <f t="shared" ref="F199:H199" si="131">F186-$B$1*F193</f>
-        <v>-1.218541449514392</v>
+        <f t="shared" ref="F199:H199" si="142">F186-$B$1*F193</f>
+        <v>-1.291818294338565</v>
       </c>
       <c r="G199">
-        <f t="shared" si="131"/>
-        <v>-0.82520702387539724</v>
+        <f t="shared" si="142"/>
+        <v>-0.85300478645509181</v>
       </c>
       <c r="H199">
-        <f t="shared" si="131"/>
-        <v>-0.42127818306250364</v>
+        <f t="shared" si="142"/>
+        <v>-0.33200863162538163</v>
       </c>
       <c r="S199">
-        <f t="shared" ref="S199:S200" si="132">S186-$B$1*S193</f>
-        <v>1.3976909264687594</v>
-      </c>
-    </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.2">
+        <f t="shared" ref="S199:S200" si="143">S186-$B$1*S193</f>
+        <v>1.3274976935036782</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22">
       <c r="F200">
-        <f t="shared" ref="F200:H200" si="133">F187-$B$1*F194</f>
-        <v>0.21667170608509195</v>
+        <f t="shared" ref="F200:H200" si="144">F187-$B$1*F194</f>
+        <v>0.13833430382514297</v>
       </c>
       <c r="G200">
-        <f t="shared" si="133"/>
-        <v>6.716703158614315E-2</v>
+        <f t="shared" si="144"/>
+        <v>1.938739841177517E-2</v>
       </c>
       <c r="H200">
-        <f t="shared" si="133"/>
-        <v>0.21686900027485298</v>
+        <f t="shared" si="144"/>
+        <v>0.24774785739201732</v>
       </c>
       <c r="S200">
-        <f t="shared" si="132"/>
-        <v>1.0465527688306551</v>
+        <f t="shared" si="143"/>
+        <v>0.976359535865574</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:AC2"/>
+    <mergeCell ref="A22:AC22"/>
+    <mergeCell ref="A42:AC42"/>
+    <mergeCell ref="A62:AC62"/>
+    <mergeCell ref="A82:AC82"/>
     <mergeCell ref="A102:AC102"/>
     <mergeCell ref="A122:AC122"/>
     <mergeCell ref="A142:AC142"/>
     <mergeCell ref="A162:AC162"/>
     <mergeCell ref="A182:AC182"/>
-    <mergeCell ref="A2:AC2"/>
-    <mergeCell ref="A22:AC22"/>
-    <mergeCell ref="A42:AC42"/>
-    <mergeCell ref="A62:AC62"/>
-    <mergeCell ref="A82:AC82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Week 1/Excel 2 layer NN.xlsx
+++ b/Week 1/Excel 2 layer NN.xlsx
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="109" workbookViewId="0">
-      <selection activeCell="D168" sqref="D168"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="K185" sqref="K185:M188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -702,22 +702,22 @@
         <v>0</v>
       </c>
       <c r="K5" s="3">
-        <f t="array" ref="K5:M8">MMULT(B5:D8,H5:H7)+I5</f>
-        <v>0.18038609164867514</v>
+        <f t="array" ref="K5:M8">MMULT(B5:D8,F5:H7)+I5</f>
+        <v>0.4578456732931897</v>
       </c>
       <c r="L5">
-        <v>0.18038609164867514</v>
+        <v>0.55048189877015008</v>
       </c>
       <c r="M5" s="4">
         <v>0.18038609164867514</v>
       </c>
       <c r="O5">
         <f>TANH(K5)</f>
-        <v>0.17845468999957345</v>
+        <v>0.42832675009608789</v>
       </c>
       <c r="P5">
         <f t="shared" ref="P5:Q5" si="0">TANH(L5)</f>
-        <v>0.17845468999957345</v>
+        <v>0.50088129732634945</v>
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
@@ -731,22 +731,22 @@
       </c>
       <c r="V5">
         <f t="array" ref="V5:V8">MMULT(O5:Q8,S5:S7)</f>
-        <v>0.22232369772754015</v>
+        <v>0.53503350990589926</v>
       </c>
       <c r="X5">
         <f>1/(1+EXP(-V5))</f>
-        <v>0.55535311336181226</v>
+        <v>0.63065633111154384</v>
       </c>
       <c r="Z5" s="2">
         <v>0</v>
       </c>
       <c r="AB5" s="4">
         <f>-(Z5*LOG(X5)+(1-Z5)*LOG(1-X5))</f>
-        <v>0.35198474421324238</v>
+        <v>0.43256934104633427</v>
       </c>
       <c r="AC5" s="3">
         <f>1/4*SUM(AB5:AB8)</f>
-        <v>0.31317204264133192</v>
+        <v>0.3402583171427902</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -772,21 +772,21 @@
         <v>0.18038609164867514</v>
       </c>
       <c r="K6" s="3">
-        <v>0.14640984142830704</v>
+        <v>0.14236146623508639</v>
       </c>
       <c r="L6">
-        <v>0.14640984142830704</v>
+        <v>0.48967149875858185</v>
       </c>
       <c r="M6" s="4">
         <v>0.14640984142830704</v>
       </c>
       <c r="O6">
         <f t="shared" ref="O6:O8" si="1">TANH(K6)</f>
-        <v>0.14537259482976606</v>
+        <v>0.14140746281539157</v>
       </c>
       <c r="P6">
         <f t="shared" ref="P6:P8" si="2">TANH(L6)</f>
-        <v>0.14537259482976606</v>
+        <v>0.45395566647573837</v>
       </c>
       <c r="Q6">
         <f t="shared" ref="Q6:Q8" si="3">TANH(M6)</f>
@@ -796,18 +796,18 @@
         <v>0.48685094654278449</v>
       </c>
       <c r="V6">
-        <v>0.18110912540812646</v>
+        <v>0.32887176421025616</v>
       </c>
       <c r="X6">
         <f t="shared" ref="X6:X8" si="4">1/(1+EXP(-V6))</f>
-        <v>0.54515392610115032</v>
+        <v>0.58148483439877985</v>
       </c>
       <c r="Z6" s="2">
         <v>1</v>
       </c>
       <c r="AB6" s="4">
         <f t="shared" ref="AB6:AB8" si="5">-(Z6*LOG(X6)+(1-Z6)*LOG(1-X6))</f>
-        <v>0.26348085585564662</v>
+        <v>0.23546160754398066</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -833,21 +833,21 @@
         <v>0.44797098657502399</v>
       </c>
       <c r="K7" s="3">
-        <v>0.77476691965200617</v>
+        <v>1.3724695415334782</v>
       </c>
       <c r="L7">
-        <v>0.77476691965200617</v>
+        <v>1.5721219777413897</v>
       </c>
       <c r="M7" s="4">
         <v>0.77476691965200617</v>
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>0.64969278710267164</v>
+        <v>0.87925378218579764</v>
       </c>
       <c r="P7">
         <f t="shared" si="2"/>
-        <v>0.64969278710267164</v>
+        <v>0.91736263510883742</v>
       </c>
       <c r="Q7">
         <f t="shared" si="3"/>
@@ -857,18 +857,18 @@
         <v>0.1357127889046803</v>
       </c>
       <c r="V7">
-        <v>0.80940491289930627</v>
+        <v>1.0827972012528848</v>
       </c>
       <c r="X7">
         <f t="shared" si="4"/>
-        <v>0.69198268035282529</v>
+        <v>0.74702296263347456</v>
       </c>
       <c r="Z7" s="2">
         <v>1</v>
       </c>
       <c r="AB7" s="4">
         <f t="shared" si="5"/>
-        <v>0.15990477537175041</v>
+        <v>0.12666604826260114</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -886,39 +886,39 @@
       </c>
       <c r="H8" s="3"/>
       <c r="K8" s="3">
-        <v>0.62835707822369913</v>
+        <v>1.2301080752983919</v>
       </c>
       <c r="L8">
-        <v>0.62835707822369913</v>
+        <v>1.0824504789828078</v>
       </c>
       <c r="M8" s="4">
         <v>0.62835707822369913</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>0.55691989909114681</v>
+        <v>0.84261067113412014</v>
       </c>
       <c r="P8">
         <f t="shared" si="2"/>
-        <v>0.55691989909114681</v>
+        <v>0.7941060562405633</v>
       </c>
       <c r="Q8">
         <f t="shared" si="3"/>
         <v>0.55691989909114681</v>
       </c>
       <c r="V8">
-        <v>0.69382593029237982</v>
+        <v>0.98736084130694457</v>
       </c>
       <c r="X8">
         <f t="shared" si="4"/>
-        <v>0.66681748287367415</v>
+        <v>0.72856632403699373</v>
       </c>
       <c r="Z8" s="2">
         <v>0</v>
       </c>
       <c r="AB8" s="4">
         <f t="shared" si="5"/>
-        <v>0.47731779512468842</v>
+        <v>0.56633627171824474</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -955,108 +955,108 @@
     <row r="12" spans="1:29">
       <c r="F12">
         <f t="array" ref="F12:H14">1/4*MMULT(TRANSPOSE(B5:D8),K12:M15)</f>
-        <v>-9.7110160316960945E-2</v>
+        <v>-7.2851738330962867E-2</v>
       </c>
       <c r="G12">
-        <v>-7.5855845884454848E-2</v>
+        <v>-4.532004032554935E-2</v>
       </c>
       <c r="H12">
-        <v>-2.1145298109835946E-2</v>
+        <v>-1.8859526288061597E-2</v>
       </c>
       <c r="I12">
         <f>1/4*SUM(K12:M15)</f>
-        <v>0.11661817498115976</v>
+        <v>0.1041545691477293</v>
       </c>
       <c r="K12">
         <f t="array" ref="K12:M15">MMULT(V12:V15,TRANSPOSE(S5:S7))*(1-(O5:Q8)^2)</f>
-        <v>0.33510835424980212</v>
+        <v>0.3209518141782074</v>
       </c>
       <c r="L12">
-        <v>0.26176383183384083</v>
+        <v>0.23000589565732765</v>
       </c>
       <c r="M12">
-        <v>7.2968328201502966E-2</v>
+        <v>8.2862483424887529E-2</v>
       </c>
       <c r="S12">
         <f t="array" ref="S12:S14">1/4*MMULT(TRANSPOSE(O5:Q8),V12:V15)</f>
-        <v>5.105762701780614E-2</v>
+        <v>0.15060313784173818</v>
       </c>
       <c r="T12">
         <f>1/4*SUM(V12:V15)</f>
-        <v>0.1148268006723655</v>
+        <v>0.171932613045198</v>
       </c>
       <c r="V12">
         <f>X5-Z5</f>
-        <v>0.55535311336181226</v>
+        <v>0.63065633111154384</v>
       </c>
     </row>
     <row r="13" spans="1:29">
       <c r="F13">
-        <v>0.12771630772297179</v>
+        <v>0.10421580028280773</v>
       </c>
       <c r="G13">
-        <v>9.9763284541435154E-2</v>
+        <v>8.5379292508091009E-2</v>
       </c>
       <c r="H13">
-        <v>2.7809648253851189E-2</v>
+        <v>3.2807600126851751E-2</v>
       </c>
       <c r="K13">
-        <v>-0.27749789129310054</v>
+        <v>-0.25562931203936462</v>
       </c>
       <c r="L13">
-        <v>-0.21676246034900368</v>
+        <v>-0.16176564276726779</v>
       </c>
       <c r="M13">
-        <v>-6.0423910506289355E-2</v>
+        <v>-5.559754027345238E-2</v>
       </c>
       <c r="S13">
-        <v>5.105762701780614E-2</v>
+        <v>0.11809596975840968</v>
       </c>
       <c r="V13">
         <f t="shared" ref="V13:V15" si="6">X6-Z6</f>
-        <v>-0.45484607389884968</v>
+        <v>-0.41851516560122015</v>
       </c>
     </row>
     <row r="14" spans="1:29">
       <c r="F14">
-        <v>4.3939219160521265E-2</v>
+        <v>2.3977846738255891E-2</v>
       </c>
       <c r="G14">
-        <v>3.4322326582974932E-2</v>
+        <v>2.7877818593759103E-2</v>
       </c>
       <c r="H14">
-        <v>9.5675662034754461E-3</v>
+        <v>1.209197927062987E-2</v>
       </c>
       <c r="K14">
-        <v>-0.11094274997474325</v>
+        <v>-3.5777641284486829E-2</v>
       </c>
       <c r="L14">
-        <v>-8.66609231888157E-2</v>
+        <v>-1.9514518534929602E-2</v>
       </c>
       <c r="M14">
-        <v>-2.4157281933054435E-2</v>
+        <v>-1.9840564878794008E-2</v>
       </c>
       <c r="S14">
-        <v>5.105762701780614E-2</v>
+        <v>7.3274667912493985E-2</v>
       </c>
       <c r="V14">
         <f t="shared" si="6"/>
-        <v>-0.30801731964717471</v>
+        <v>-0.25297703736652544</v>
       </c>
     </row>
     <row r="15" spans="1:29">
       <c r="K15">
-        <v>0.2866996266168283</v>
+        <v>0.13168902823751039</v>
       </c>
       <c r="L15">
-        <v>0.22395022952071544</v>
+        <v>0.13102579290996602</v>
       </c>
       <c r="M15">
-        <v>6.242754674695622E-2</v>
+        <v>6.8208481961313489E-2</v>
       </c>
       <c r="V15">
         <f t="shared" si="6"/>
-        <v>0.66681748287367415</v>
+        <v>0.72856632403699373</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1081,63 +1081,63 @@
     <row r="18" spans="1:29">
       <c r="F18">
         <f>F5-$B$1*F12</f>
-        <v>0.3365817868690083</v>
+        <v>0.28806494289701212</v>
       </c>
       <c r="G18">
         <f t="shared" ref="G18:H18" si="7">G5-$B$1*G12</f>
-        <v>0.6413831905274916</v>
+        <v>0.58031157940968059</v>
       </c>
       <c r="H18">
         <f t="shared" si="7"/>
-        <v>0.18870043764797895</v>
+        <v>0.18412889400443022</v>
       </c>
       <c r="I18">
         <f>I5-$B$1*I12</f>
-        <v>-0.23323634996231951</v>
+        <v>-0.20830913829545861</v>
       </c>
       <c r="S18">
         <f>S5-$B$1*S12</f>
-        <v>0.52114815985142093</v>
+        <v>0.32205713820355686</v>
       </c>
       <c r="T18">
         <f>T5-$B$1*T12</f>
-        <v>-0.22965360134473101</v>
+        <v>-0.34386522609039599</v>
       </c>
     </row>
     <row r="19" spans="1:29">
       <c r="F19">
         <f t="shared" ref="F19:H20" si="8">F6-$B$1*F13</f>
-        <v>0.20241305784724611</v>
+        <v>0.24941407272757424</v>
       </c>
       <c r="G19">
         <f t="shared" si="8"/>
-        <v>0.35095532968727977</v>
+        <v>0.37972331375396806</v>
       </c>
       <c r="H19">
         <f t="shared" si="8"/>
-        <v>0.12476679514097276</v>
+        <v>0.11477089139497164</v>
       </c>
       <c r="S19">
         <f t="shared" ref="S19:S20" si="9">S6-$B$1*S13</f>
-        <v>0.38473569250717221</v>
+        <v>0.25065900702596511</v>
       </c>
     </row>
     <row r="20" spans="1:29">
       <c r="F20">
         <f t="shared" si="8"/>
-        <v>0.68438396368415955</v>
+        <v>0.72430670852869039</v>
       </c>
       <c r="G20">
         <f t="shared" si="8"/>
-        <v>0.46332392704670794</v>
+        <v>0.47621294302513961</v>
       </c>
       <c r="H20">
         <f t="shared" si="8"/>
-        <v>0.42883585416807307</v>
+        <v>0.42378702803376422</v>
       </c>
       <c r="S20">
         <f t="shared" si="9"/>
-        <v>3.3597534869068024E-2</v>
+        <v>-1.0836546920307666E-2</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="37">
@@ -1243,68 +1243,68 @@
       </c>
       <c r="F25">
         <f>F18</f>
-        <v>0.3365817868690083</v>
+        <v>0.28806494289701212</v>
       </c>
       <c r="G25">
         <f t="shared" ref="G25:H25" si="10">G18</f>
-        <v>0.6413831905274916</v>
+        <v>0.58031157940968059</v>
       </c>
       <c r="H25">
         <f t="shared" si="10"/>
-        <v>0.18870043764797895</v>
+        <v>0.18412889400443022</v>
       </c>
       <c r="I25" s="3">
         <f>I18</f>
-        <v>-0.23323634996231951</v>
+        <v>-0.20830913829545861</v>
       </c>
       <c r="K25" s="3">
-        <f t="array" ref="K25:M28">MMULT(B25:D28,H25:H27)+I25</f>
-        <v>-0.10846955482134675</v>
+        <f t="array" ref="K25:M28">MMULT(B25:D28,F25:H27)+I25</f>
+        <v>4.1104934432115631E-2</v>
       </c>
       <c r="L25">
-        <v>-0.10846955482134675</v>
+        <v>0.17141417545850945</v>
       </c>
       <c r="M25" s="4">
-        <v>-0.10846955482134675</v>
+        <v>-9.3538246900486968E-2</v>
       </c>
       <c r="O25">
         <f>TANH(K25)</f>
-        <v>-0.10804614266253368</v>
+        <v>4.108179955431749E-2</v>
       </c>
       <c r="P25">
         <f t="shared" ref="P25:Q25" si="11">TANH(L25)</f>
-        <v>-0.10804614266253368</v>
+        <v>0.16975479834277402</v>
       </c>
       <c r="Q25">
         <f t="shared" si="11"/>
-        <v>-0.10804614266253368</v>
+        <v>-9.3266396978316415E-2</v>
       </c>
       <c r="S25">
         <f>S18</f>
-        <v>0.52114815985142093</v>
+        <v>0.32205713820355686</v>
       </c>
       <c r="T25">
         <f>T18</f>
-        <v>-0.22965360134473101</v>
+        <v>-0.34386522609039599</v>
       </c>
       <c r="V25">
         <f t="array" ref="V25:V28">MMULT(O25:Q28,S25:S27)</f>
-        <v>-0.10150733999319492</v>
+        <v>5.67919416741519E-2</v>
       </c>
       <c r="X25">
         <f>1/(1+EXP(-V25))</f>
-        <v>0.47464493226619331</v>
+        <v>0.51419417055626715</v>
       </c>
       <c r="Z25" s="2">
         <v>0</v>
       </c>
       <c r="AB25" s="4">
         <f>-(Z25*LOG(X25)+(1-Z25)*LOG(1-X25))</f>
-        <v>0.27954707405038137</v>
+        <v>0.31353727816807209</v>
       </c>
       <c r="AC25" s="3">
         <f>1/4*SUM(AB25:AB28)</f>
-        <v>0.29358643002721896</v>
+        <v>0.29650181128460473</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -1322,54 +1322,54 @@
       </c>
       <c r="F26">
         <f t="shared" ref="F26:H26" si="12">F19</f>
-        <v>0.20241305784724611</v>
+        <v>0.24941407272757424</v>
       </c>
       <c r="G26">
         <f t="shared" si="12"/>
-        <v>0.35095532968727977</v>
+        <v>0.37972331375396806</v>
       </c>
       <c r="H26">
         <f t="shared" si="12"/>
-        <v>0.12476679514097276</v>
+        <v>0.11477089139497164</v>
       </c>
       <c r="K26" s="3">
-        <v>-4.4535912314340564E-2</v>
+        <v>7.9755804601553515E-2</v>
       </c>
       <c r="L26">
-        <v>-4.4535912314340564E-2</v>
+        <v>0.37200244111422198</v>
       </c>
       <c r="M26" s="4">
-        <v>-4.4535912314340564E-2</v>
+        <v>-2.4180244291028385E-2</v>
       </c>
       <c r="O26">
         <f t="shared" ref="O26:O28" si="13">TANH(K26)</f>
-        <v>-4.4506490775450401E-2</v>
+        <v>7.9587125193882835E-2</v>
       </c>
       <c r="P26">
         <f t="shared" ref="P26:P28" si="14">TANH(L26)</f>
-        <v>-4.4506490775450401E-2</v>
+        <v>0.35574198441453014</v>
       </c>
       <c r="Q26">
         <f t="shared" ref="Q26:Q28" si="15">TANH(M26)</f>
-        <v>-4.4506490775450401E-2</v>
+        <v>-2.4175532790545635E-2</v>
       </c>
       <c r="S26">
         <f t="shared" ref="S26:S27" si="16">S19</f>
-        <v>0.38473569250717221</v>
+        <v>0.25065900702596511</v>
       </c>
       <c r="V26">
-        <v>-4.1813019694355247E-2</v>
+        <v>0.11506351364399077</v>
       </c>
       <c r="X26">
         <f t="shared" ref="X26:X28" si="17">1/(1+EXP(-V26))</f>
-        <v>0.48954826778725125</v>
+        <v>0.52873418295106678</v>
       </c>
       <c r="Z26" s="2">
         <v>1</v>
       </c>
       <c r="AB26" s="4">
         <f t="shared" ref="AB26:AB28" si="18">-(Z26*LOG(X26)+(1-Z26)*LOG(1-X26))</f>
-        <v>0.31020448179708293</v>
+        <v>0.27676261131395535</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -1387,54 +1387,54 @@
       </c>
       <c r="F27">
         <f t="shared" ref="F27:H27" si="19">F20</f>
-        <v>0.68438396368415955</v>
+        <v>0.72430670852869039</v>
       </c>
       <c r="G27">
         <f t="shared" si="19"/>
-        <v>0.46332392704670794</v>
+        <v>0.47621294302513961</v>
       </c>
       <c r="H27">
         <f t="shared" si="19"/>
-        <v>0.42883585416807307</v>
+        <v>0.42378702803376422</v>
       </c>
       <c r="K27" s="3">
-        <v>0.50906673699470528</v>
+        <v>1.0534765858578181</v>
       </c>
       <c r="L27">
-        <v>0.50906673699470528</v>
+        <v>1.2279386978933298</v>
       </c>
       <c r="M27" s="4">
-        <v>0.50906673699470528</v>
+        <v>0.51437767513770749</v>
       </c>
       <c r="O27">
         <f t="shared" si="13"/>
-        <v>0.46921772680791923</v>
+        <v>0.78315431136157287</v>
       </c>
       <c r="P27">
         <f t="shared" si="14"/>
-        <v>0.46921772680791923</v>
+        <v>0.84198038480653037</v>
       </c>
       <c r="Q27">
         <f t="shared" si="15"/>
-        <v>0.46921772680791923</v>
+        <v>0.47334904675786349</v>
       </c>
       <c r="S27">
         <f t="shared" si="16"/>
-        <v>3.3597534869068024E-2</v>
+        <v>-1.0836546920307666E-2</v>
       </c>
       <c r="V27">
-        <v>0.44082132089331372</v>
+        <v>0.4581409343249559</v>
       </c>
       <c r="X27">
         <f t="shared" si="17"/>
-        <v>0.60845471766382286</v>
+        <v>0.61257306153516633</v>
       </c>
       <c r="Z27" s="2">
         <v>1</v>
       </c>
       <c r="AB27" s="4">
         <f t="shared" si="18"/>
-        <v>0.21577173723752607</v>
+        <v>0.21284210560954173</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -1452,39 +1452,39 @@
       </c>
       <c r="H28" s="3"/>
       <c r="K28" s="3">
-        <v>0.32036629934672628</v>
+        <v>0.76541164296080599</v>
       </c>
       <c r="L28">
-        <v>0.32036629934672628</v>
+        <v>0.64762711848364907</v>
       </c>
       <c r="M28" s="4">
-        <v>0.32036629934672628</v>
+        <v>0.33024878113327727</v>
       </c>
       <c r="O28">
         <f t="shared" si="13"/>
-        <v>0.30983809352349906</v>
+        <v>0.64425347767418528</v>
       </c>
       <c r="P28">
         <f t="shared" si="14"/>
-        <v>0.30983809352349906</v>
+        <v>0.57007039096134093</v>
       </c>
       <c r="Q28">
         <f t="shared" si="15"/>
-        <v>0.30983809352349906</v>
+        <v>0.31874430010840499</v>
       </c>
       <c r="V28">
-        <v>0.2910871219194307</v>
+        <v>0.34692562186700526</v>
       </c>
       <c r="X28">
         <f t="shared" si="17"/>
-        <v>0.57226225752130022</v>
+        <v>0.58587185223270666</v>
       </c>
       <c r="Z28" s="2">
         <v>0</v>
       </c>
       <c r="AB28" s="4">
         <f t="shared" si="18"/>
-        <v>0.36882242702388546</v>
+        <v>0.38286525004684968</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -1521,108 +1521,108 @@
     <row r="32" spans="1:29">
       <c r="F32">
         <f t="array" ref="F32:H34">1/4*MMULT(TRANSPOSE(B25:D28),K32:M35)</f>
-        <v>-0.10615543373435296</v>
+        <v>-4.9764822926798194E-2</v>
       </c>
       <c r="G32">
-        <v>-7.8368854497787133E-2</v>
+        <v>-3.2861019817335003E-2</v>
       </c>
       <c r="H32">
-        <v>-6.8436601358197032E-3</v>
+        <v>2.090398901666369E-3</v>
       </c>
       <c r="I32">
         <f>1/4*SUM(K32:M35)</f>
-        <v>4.0315026155528288E-2</v>
+        <v>4.1655591488306297E-2</v>
       </c>
       <c r="K32">
         <f t="array" ref="K32:M35">MMULT(V32:V35,TRANSPOSE(S25:S27))*(1-(O25:Q28)^2)</f>
-        <v>0.24447265618745792</v>
+        <v>0.16532041773336115</v>
       </c>
       <c r="L32">
-        <v>0.18048103000913432</v>
+        <v>0.1251732917522958</v>
       </c>
       <c r="M32">
-        <v>1.5760736050825761E-2</v>
+        <v>-5.5236197638557256E-3</v>
       </c>
       <c r="S32">
         <f t="array" ref="S32:S34">1/4*MMULT(TRANSPOSE(O25:Q28),V32:V35)</f>
-        <v>-8.7441198022337532E-3</v>
+        <v>1.4413057835427137E-2</v>
       </c>
       <c r="T32">
         <f>1/4*SUM(V32:V35)</f>
-        <v>3.622754380964191E-2</v>
+        <v>6.0343316818801729E-2</v>
       </c>
       <c r="V32">
         <f>X25-Z25</f>
-        <v>0.47464493226619331</v>
+        <v>0.51419417055626715</v>
       </c>
     </row>
     <row r="33" spans="1:29">
       <c r="F33">
-        <v>8.8737020116933032E-2</v>
+        <v>5.686068822864012E-2</v>
       </c>
       <c r="G33">
-        <v>6.5509775368763609E-2</v>
+        <v>4.9009092367847062E-2</v>
       </c>
       <c r="H33">
-        <v>5.7207246561243319E-3</v>
+        <v>-1.9924333994883431E-3</v>
       </c>
       <c r="K33">
-        <v>-0.26549403920220072</v>
+        <v>-0.15081316378933202</v>
       </c>
       <c r="L33">
-        <v>-0.19599998790767392</v>
+        <v>-0.10317776842693571</v>
       </c>
       <c r="M33">
-        <v>-1.7115948835296137E-2</v>
+        <v>5.1039093814975837E-3</v>
       </c>
       <c r="S33">
-        <v>-8.7441198022337532E-3</v>
+        <v>-1.8144949022351475E-2</v>
       </c>
       <c r="V33">
         <f t="shared" ref="V33:V35" si="20">X26-Z26</f>
-        <v>-0.51045173221274875</v>
+        <v>-0.47126581704893322</v>
       </c>
     </row>
     <row r="34" spans="1:29">
       <c r="F34">
-        <v>2.7618856070068552E-2</v>
+        <v>1.5530583795299832E-2</v>
       </c>
       <c r="G34">
-        <v>2.0389517866480033E-2</v>
+        <v>1.7715769429773109E-2</v>
       </c>
       <c r="H34">
-        <v>1.7805406434178916E-3</v>
+        <v>-6.1152845852441155E-4</v>
       </c>
       <c r="K34">
-        <v>-0.1591276957352111</v>
+        <v>-4.8246127917860766E-2</v>
       </c>
       <c r="L34">
-        <v>-0.11747543008347459</v>
+        <v>-2.8266310842404298E-2</v>
       </c>
       <c r="M34">
-        <v>-1.0258691707982676E-2</v>
+        <v>3.2576862251678918E-3</v>
       </c>
       <c r="S34">
-        <v>-8.7441198022337532E-3</v>
+        <v>-8.3021984848561658E-3</v>
       </c>
       <c r="V34">
         <f t="shared" si="20"/>
-        <v>-0.39154528233617714</v>
+        <v>-0.38742693846483367</v>
       </c>
     </row>
     <row r="35" spans="1:29">
       <c r="K35">
-        <v>0.26960312001548531</v>
+        <v>0.11036846309906009</v>
       </c>
       <c r="L35">
-        <v>0.19903350154939473</v>
+        <v>9.9129388561496737E-2</v>
       </c>
       <c r="M35">
-        <v>1.7380854281654243E-2</v>
+        <v>-5.703800059265538E-3</v>
       </c>
       <c r="V35">
         <f t="shared" si="20"/>
-        <v>0.57226225752130022</v>
+        <v>0.58587185223270666</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -1647,63 +1647,63 @@
     <row r="38" spans="1:29">
       <c r="F38">
         <f>F25-$B$1*F32</f>
-        <v>0.54889265433771417</v>
+        <v>0.38759458875060848</v>
       </c>
       <c r="G38">
         <f t="shared" ref="G38:H38" si="21">G25-$B$1*G32</f>
-        <v>0.79812089952306586</v>
+        <v>0.64603361904435064</v>
       </c>
       <c r="H38">
         <f t="shared" si="21"/>
-        <v>0.20238775791961836</v>
+        <v>0.17994809620109747</v>
       </c>
       <c r="I38">
         <f>I25-$B$1*I32</f>
-        <v>-0.31386640227337609</v>
+        <v>-0.29162032127207121</v>
       </c>
       <c r="S38">
         <f>S25-$B$1*S32</f>
-        <v>0.53863639945588848</v>
+        <v>0.29323102253270261</v>
       </c>
       <c r="T38">
         <f>T25-$B$1*T32</f>
-        <v>-0.30210868896401483</v>
+        <v>-0.46455185972799945</v>
       </c>
     </row>
     <row r="39" spans="1:29">
       <c r="F39">
         <f t="shared" ref="F39:H39" si="22">F26-$B$1*F33</f>
-        <v>2.4939017613380049E-2</v>
+        <v>0.13569269627029401</v>
       </c>
       <c r="G39">
         <f t="shared" si="22"/>
-        <v>0.21993577894975255</v>
+        <v>0.28170512901827394</v>
       </c>
       <c r="H39">
         <f t="shared" si="22"/>
-        <v>0.1133253458287241</v>
+        <v>0.11875575819394832</v>
       </c>
       <c r="S39">
         <f t="shared" ref="S39:S40" si="23">S26-$B$1*S33</f>
-        <v>0.4022239321116397</v>
+        <v>0.28694890507066806</v>
       </c>
     </row>
     <row r="40" spans="1:29">
       <c r="F40">
         <f t="shared" ref="F40:H40" si="24">F27-$B$1*F34</f>
-        <v>0.62914625154402248</v>
+        <v>0.69324554093809077</v>
       </c>
       <c r="G40">
         <f t="shared" si="24"/>
-        <v>0.42254489131374789</v>
+        <v>0.44078140416559342</v>
       </c>
       <c r="H40">
         <f t="shared" si="24"/>
-        <v>0.42527477288123727</v>
+        <v>0.42501008495081305</v>
       </c>
       <c r="S40">
         <f t="shared" si="23"/>
-        <v>5.1085774473535531E-2</v>
+        <v>5.7678500494046658E-3</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="37">
@@ -1809,68 +1809,68 @@
       </c>
       <c r="F45">
         <f>F38</f>
-        <v>0.54889265433771417</v>
+        <v>0.38759458875060848</v>
       </c>
       <c r="G45">
         <f t="shared" ref="G45:H45" si="25">G38</f>
-        <v>0.79812089952306586</v>
+        <v>0.64603361904435064</v>
       </c>
       <c r="H45">
         <f t="shared" si="25"/>
-        <v>0.20238775791961836</v>
+        <v>0.17994809620109747</v>
       </c>
       <c r="I45" s="3">
         <f>I38</f>
-        <v>-0.31386640227337609</v>
+        <v>-0.29162032127207121</v>
       </c>
       <c r="K45" s="3">
-        <f t="array" ref="K45:M48">MMULT(B45:D48,H45:H47)+I45</f>
-        <v>-0.20054105644465198</v>
+        <f t="array" ref="K45:M48">MMULT(B45:D48,F45:H47)+I45</f>
+        <v>-0.1559276250017772</v>
       </c>
       <c r="L45">
-        <v>-0.20054105644465198</v>
+        <v>-9.9151922537972781E-3</v>
       </c>
       <c r="M45" s="4">
-        <v>-0.20054105644465198</v>
+        <v>-0.1728645630781229</v>
       </c>
       <c r="O45">
         <f>TANH(K45)</f>
-        <v>-0.19789524315050347</v>
+        <v>-0.15467608379592968</v>
       </c>
       <c r="P45">
         <f t="shared" ref="P45:Q45" si="26">TANH(L45)</f>
-        <v>-0.19789524315050347</v>
+        <v>-9.9148673422952971E-3</v>
       </c>
       <c r="Q45">
         <f t="shared" si="26"/>
-        <v>-0.19789524315050347</v>
+        <v>-0.17116304287798759</v>
       </c>
       <c r="S45">
         <f>S38</f>
-        <v>0.53863639945588848</v>
+        <v>0.29323102253270261</v>
       </c>
       <c r="T45">
         <f>T38</f>
-        <v>-0.30210868896401483</v>
+        <v>-0.46455185972799945</v>
       </c>
       <c r="V45">
         <f t="array" ref="V45:V48">MMULT(O45:Q48,S45:S47)</f>
-        <v>-0.19630141584719141</v>
+        <v>-4.918812930594707E-2</v>
       </c>
       <c r="X45">
         <f>1/(1+EXP(-V45))</f>
-        <v>0.45108163128142897</v>
+        <v>0.48770544643430169</v>
       </c>
       <c r="Z45" s="2">
         <v>0</v>
       </c>
       <c r="AB45" s="4">
         <f>-(Z45*LOG(X45)+(1-Z45)*LOG(1-X45))</f>
-        <v>0.26049223597073118</v>
+        <v>0.29048026127949889</v>
       </c>
       <c r="AC45" s="3">
         <f>1/4*SUM(AB45:AB48)</f>
-        <v>0.29004848052905918</v>
+        <v>0.28554780392406254</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -1888,54 +1888,54 @@
       </c>
       <c r="F46">
         <f t="shared" ref="F46:H46" si="27">F39</f>
-        <v>2.4939017613380049E-2</v>
+        <v>0.13569269627029401</v>
       </c>
       <c r="G46">
         <f t="shared" si="27"/>
-        <v>0.21993577894975255</v>
+        <v>0.28170512901827394</v>
       </c>
       <c r="H46">
         <f t="shared" si="27"/>
-        <v>0.1133253458287241</v>
+        <v>0.11875575819394832</v>
       </c>
       <c r="K46" s="3">
-        <v>-0.11147864435375773</v>
+        <v>9.5974267478537267E-2</v>
       </c>
       <c r="L46">
-        <v>-0.11147864435375773</v>
+        <v>0.35441329777227942</v>
       </c>
       <c r="M46" s="4">
-        <v>-0.11147864435375773</v>
+        <v>-0.11167222507097374</v>
       </c>
       <c r="O46">
         <f t="shared" ref="O46:O48" si="28">TANH(K46)</f>
-        <v>-0.1110191286253794</v>
+        <v>9.5680674240440675E-2</v>
       </c>
       <c r="P46">
         <f t="shared" ref="P46:P48" si="29">TANH(L46)</f>
-        <v>-0.1110191286253794</v>
+        <v>0.34028365698984042</v>
       </c>
       <c r="Q46">
         <f t="shared" ref="Q46:Q48" si="30">TANH(M46)</f>
-        <v>-0.1110191286253794</v>
+        <v>-0.11121031930115853</v>
       </c>
       <c r="S46">
         <f t="shared" ref="S46:S47" si="31">S39</f>
-        <v>0.4022239321116397</v>
+        <v>0.28694890507066806</v>
       </c>
       <c r="V46">
-        <v>-0.11012499233601709</v>
+        <v>0.12505912028514482</v>
       </c>
       <c r="X46">
         <f t="shared" ref="X46:X48" si="32">1/(1+EXP(-V46))</f>
-        <v>0.47249654201357277</v>
+        <v>0.53122409583323871</v>
       </c>
       <c r="Z46" s="2">
         <v>1</v>
       </c>
       <c r="AB46" s="4">
         <f t="shared" ref="AB46:AB48" si="33">-(Z46*LOG(X46)+(1-Z46)*LOG(1-X46))</f>
-        <v>0.32560136554608177</v>
+        <v>0.27472223399757928</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -1953,54 +1953,54 @@
       </c>
       <c r="F47">
         <f t="shared" ref="F47:H47" si="34">F40</f>
-        <v>0.62914625154402248</v>
+        <v>0.69324554093809077</v>
       </c>
       <c r="G47">
         <f t="shared" si="34"/>
-        <v>0.42254489131374789</v>
+        <v>0.44078140416559342</v>
       </c>
       <c r="H47">
         <f t="shared" si="34"/>
-        <v>0.42527477288123727</v>
+        <v>0.42501008495081305</v>
       </c>
       <c r="K47" s="3">
-        <v>0.42712147435620357</v>
+        <v>0.92491250468692199</v>
       </c>
       <c r="L47">
-        <v>0.42712147435620357</v>
+        <v>1.0768998309561468</v>
       </c>
       <c r="M47" s="4">
-        <v>0.42712147435620357</v>
+        <v>0.4320936180737876</v>
       </c>
       <c r="O47">
         <f t="shared" si="28"/>
-        <v>0.4029128793473456</v>
+        <v>0.72821311155611723</v>
       </c>
       <c r="P47">
         <f t="shared" si="29"/>
-        <v>0.4029128793473456</v>
+        <v>0.79204661497927831</v>
       </c>
       <c r="Q47">
         <f t="shared" si="30"/>
-        <v>0.4029128793473456</v>
+        <v>0.40706948991756092</v>
       </c>
       <c r="S47">
         <f t="shared" si="31"/>
-        <v>5.1085774473535531E-2</v>
+        <v>5.7678500494046658E-3</v>
       </c>
       <c r="V47">
-        <v>0.39966786174239238</v>
+        <v>0.44315950003408633</v>
       </c>
       <c r="X47">
         <f t="shared" si="32"/>
-        <v>0.59860785771196467</v>
+        <v>0.60901161831416628</v>
       </c>
       <c r="Z47" s="2">
         <v>1</v>
       </c>
       <c r="AB47" s="4">
         <f t="shared" si="33"/>
-        <v>0.2228575866295581</v>
+        <v>0.21537442210997979</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -2018,39 +2018,39 @@
       </c>
       <c r="H48" s="3"/>
       <c r="K48" s="3">
-        <v>0.2247337164365853</v>
+        <v>0.53731791593631351</v>
       </c>
       <c r="L48">
-        <v>0.2247337164365853</v>
+        <v>0.43086621191179614</v>
       </c>
       <c r="M48" s="4">
-        <v>0.2247337164365853</v>
+        <v>0.25214552187269018</v>
       </c>
       <c r="O48">
         <f t="shared" si="28"/>
-        <v>0.22102520776931353</v>
+        <v>0.49095504551387331</v>
       </c>
       <c r="P48">
         <f t="shared" si="29"/>
-        <v>0.22102520776931353</v>
+        <v>0.40604496041178012</v>
       </c>
       <c r="Q48">
         <f t="shared" si="30"/>
-        <v>0.22102520776931353</v>
+        <v>0.24693442249117326</v>
       </c>
       <c r="V48">
-        <v>0.21924509418368759</v>
+        <v>0.26190168753421117</v>
       </c>
       <c r="X48">
         <f t="shared" si="32"/>
-        <v>0.55459276624556397</v>
+        <v>0.56510371112577473</v>
       </c>
       <c r="Z48" s="2">
         <v>0</v>
       </c>
       <c r="AB48" s="4">
         <f t="shared" si="33"/>
-        <v>0.35124273396986555</v>
+        <v>0.36161429830919217</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -2087,108 +2087,108 @@
     <row r="52" spans="1:29">
       <c r="F52">
         <f t="array" ref="F52:H54">1/4*MMULT(TRANSPOSE(B45:D48),K52:M55)</f>
-        <v>-0.1154341535752772</v>
+        <v>-4.7513235403685558E-2</v>
       </c>
       <c r="G52">
-        <v>-8.6199854294899514E-2</v>
+        <v>-4.0187303626246673E-2</v>
       </c>
       <c r="H52">
-        <v>-1.0948096233464839E-2</v>
+        <v>-1.1379645683373182E-3</v>
       </c>
       <c r="I52">
         <f>1/4*SUM(K52:M55)</f>
-        <v>2.5712081298296888E-2</v>
+        <v>4.7786121674622831E-2</v>
       </c>
       <c r="K52">
         <f t="array" ref="K52:M55">MMULT(V52:V55,TRANSPOSE(S45:S47))*(1-(O45:Q48)^2)</f>
-        <v>0.23345370620658265</v>
+        <v>0.13958888793286686</v>
       </c>
       <c r="L52">
-        <v>0.1743303418991036</v>
+        <v>0.1399327864630911</v>
       </c>
       <c r="M52">
-        <v>2.2141398905324433E-2</v>
+        <v>2.7305996726416579E-3</v>
       </c>
       <c r="S52">
         <f t="array" ref="S52:S54">1/4*MMULT(TRANSPOSE(O45:Q48),V52:V55)</f>
-        <v>-1.746275431513105E-2</v>
+        <v>-3.1892877718167401E-2</v>
       </c>
       <c r="T52">
         <f>1/4*SUM(V52:V55)</f>
-        <v>1.9194699313132585E-2</v>
+        <v>4.8261217926870353E-2</v>
       </c>
       <c r="V52">
         <f>X45-Z45</f>
-        <v>0.45108163128142897</v>
+        <v>0.48770544643430169</v>
       </c>
     </row>
     <row r="53" spans="1:29">
       <c r="F53">
-        <v>8.4119550468126206E-2</v>
+        <v>5.2875467521465137E-2</v>
       </c>
       <c r="G53">
-        <v>6.2815837160154916E-2</v>
+        <v>5.8385821693305313E-2</v>
       </c>
       <c r="H53">
-        <v>7.9781321655403893E-3</v>
+        <v>9.7745363671591879E-4</v>
       </c>
       <c r="K53">
-        <v>-0.28063055930931746</v>
+        <v>-0.13620122340511218</v>
       </c>
       <c r="L53">
-        <v>-0.2095594117852155</v>
+        <v>-0.11893887242272226</v>
       </c>
       <c r="M53">
-        <v>-2.6615782887565491E-2</v>
+        <v>-2.6703888796197608E-3</v>
       </c>
       <c r="S53">
-        <v>-1.746275431513105E-2</v>
+        <v>-6.1143955994992734E-2</v>
       </c>
       <c r="V53">
         <f t="shared" ref="V53:V55" si="35">X46-Z46</f>
-        <v>-0.52750345798642728</v>
+        <v>-0.46877590416676129</v>
       </c>
     </row>
     <row r="54" spans="1:29">
       <c r="F54">
-        <v>2.5756123916480543E-2</v>
+        <v>1.7978245538248422E-2</v>
       </c>
       <c r="G54">
-        <v>1.9233251685379017E-2</v>
+        <v>2.3402625077532539E-2</v>
       </c>
       <c r="H54">
-        <v>2.4427824392092819E-3</v>
+        <v>2.9480371855550433E-4</v>
       </c>
       <c r="K54">
-        <v>-0.1811060549917913</v>
+        <v>-5.3851718209630049E-2</v>
       </c>
       <c r="L54">
-        <v>-0.13524000539438255</v>
+        <v>-4.1810342082264446E-2</v>
       </c>
       <c r="M54">
-        <v>-1.7176602046293864E-2</v>
+        <v>-1.8814693937295119E-3</v>
       </c>
       <c r="S54">
-        <v>-1.746275431513105E-2</v>
+        <v>-1.2740078199717654E-2</v>
       </c>
       <c r="V54">
         <f t="shared" si="35"/>
-        <v>-0.40139214228803533</v>
+        <v>-0.39098838168583372</v>
       </c>
     </row>
     <row r="55" spans="1:29">
       <c r="K55">
-        <v>0.28413055065771348</v>
+        <v>0.12576470036262374</v>
       </c>
       <c r="L55">
-        <v>0.21217301213589862</v>
+        <v>0.1354208423923946</v>
       </c>
       <c r="M55">
-        <v>2.6947731803130991E-2</v>
+        <v>3.0606842679515292E-3</v>
       </c>
       <c r="V55">
         <f t="shared" si="35"/>
-        <v>0.55459276624556397</v>
+        <v>0.56510371112577473</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -2213,63 +2213,63 @@
     <row r="58" spans="1:29">
       <c r="F58">
         <f>F45-$B$1*F52</f>
-        <v>0.77976096148826857</v>
+        <v>0.48262105955797963</v>
       </c>
       <c r="G58">
         <f t="shared" ref="G58:H58" si="36">G45-$B$1*G52</f>
-        <v>0.97052060811286489</v>
+        <v>0.72640822629684398</v>
       </c>
       <c r="H58">
         <f t="shared" si="36"/>
-        <v>0.22428395038654803</v>
+        <v>0.1822240253377721</v>
       </c>
       <c r="I58">
         <f>I45-$B$1*I52</f>
-        <v>-0.36529056486996986</v>
+        <v>-0.3871925646213169</v>
       </c>
       <c r="S58">
         <f>S45-$B$1*S52</f>
-        <v>0.5735619080861506</v>
+        <v>0.35701677796903741</v>
       </c>
       <c r="T58">
         <f>T45-$B$1*T52</f>
-        <v>-0.34049808759028</v>
+        <v>-0.56107429558174016</v>
       </c>
     </row>
     <row r="59" spans="1:29">
       <c r="F59">
         <f t="shared" ref="F59:H59" si="37">F46-$B$1*F53</f>
-        <v>-0.14330008332287236</v>
+        <v>2.9941761227363736E-2</v>
       </c>
       <c r="G59">
         <f t="shared" si="37"/>
-        <v>9.430410462944272E-2</v>
+        <v>0.16493348563166332</v>
       </c>
       <c r="H59">
         <f t="shared" si="37"/>
-        <v>9.7369081497643312E-2</v>
+        <v>0.11680085092051648</v>
       </c>
       <c r="S59">
         <f t="shared" ref="S59:S60" si="38">S46-$B$1*S53</f>
-        <v>0.43714944074190182</v>
+        <v>0.40923681706065351</v>
       </c>
     </row>
     <row r="60" spans="1:29">
       <c r="F60">
         <f t="shared" ref="F60:H60" si="39">F47-$B$1*F54</f>
-        <v>0.57763400371106144</v>
+        <v>0.65728904986159398</v>
       </c>
       <c r="G60">
         <f t="shared" si="39"/>
-        <v>0.38407838794298987</v>
+        <v>0.39397615401052832</v>
       </c>
       <c r="H60">
         <f t="shared" si="39"/>
-        <v>0.4203892080028187</v>
+        <v>0.42442047751370204</v>
       </c>
       <c r="S60">
         <f t="shared" si="38"/>
-        <v>8.6011283103797631E-2</v>
+        <v>3.1248006448839974E-2</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="37">
@@ -2375,68 +2375,68 @@
       </c>
       <c r="F65">
         <f>F58</f>
-        <v>0.77976096148826857</v>
+        <v>0.48262105955797963</v>
       </c>
       <c r="G65">
         <f t="shared" ref="G65:H65" si="40">G58</f>
-        <v>0.97052060811286489</v>
+        <v>0.72640822629684398</v>
       </c>
       <c r="H65">
         <f t="shared" si="40"/>
-        <v>0.22428395038654803</v>
+        <v>0.1822240253377721</v>
       </c>
       <c r="I65" s="3">
         <f>I58</f>
-        <v>-0.36529056486996986</v>
+        <v>-0.3871925646213169</v>
       </c>
       <c r="K65" s="3">
-        <f t="array" ref="K65:M68">MMULT(B65:D68,H65:H67)+I65</f>
-        <v>-0.26792148337232657</v>
+        <f t="array" ref="K65:M68">MMULT(B65:D68,F65:H67)+I65</f>
+        <v>-0.35725080339395315</v>
       </c>
       <c r="L65">
-        <v>-0.26792148337232657</v>
+        <v>-0.22225907898965358</v>
       </c>
       <c r="M65" s="4">
-        <v>-0.26792148337232657</v>
+        <v>-0.2703917137008004</v>
       </c>
       <c r="O65">
         <f>TANH(K65)</f>
-        <v>-0.26168971414479891</v>
+        <v>-0.34279017250600341</v>
       </c>
       <c r="P65">
         <f t="shared" ref="P65:Q65" si="41">TANH(L65)</f>
-        <v>-0.26168971414479891</v>
+        <v>-0.21867017837034711</v>
       </c>
       <c r="Q65">
         <f t="shared" si="41"/>
-        <v>-0.26168971414479891</v>
+        <v>-0.26398928817910394</v>
       </c>
       <c r="S65">
         <f>S58</f>
-        <v>0.5735619080861506</v>
+        <v>0.35701677796903741</v>
       </c>
       <c r="T65">
         <f>T58</f>
-        <v>-0.34049808759028</v>
+        <v>-0.56107429558174016</v>
       </c>
       <c r="V65">
         <f t="array" ref="V65:V68">MMULT(O65:Q68,S65:S67)</f>
-        <v>-0.28700103204637734</v>
+        <v>-0.22011886966935537</v>
       </c>
       <c r="X65">
         <f>1/(1+EXP(-V65))</f>
-        <v>0.42873822208418111</v>
+        <v>0.44519140436656035</v>
       </c>
       <c r="Z65" s="2">
         <v>0</v>
       </c>
       <c r="AB65" s="4">
         <f>-(Z65*LOG(X65)+(1-Z65)*LOG(1-X65))</f>
-        <v>0.24316483281947926</v>
+        <v>0.25585681903485002</v>
       </c>
       <c r="AC65" s="3">
         <f>1/4*SUM(AB65:AB68)</f>
-        <v>0.28527887627397747</v>
+        <v>0.2661811604507846</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -2454,54 +2454,54 @@
       </c>
       <c r="F66">
         <f t="shared" ref="F66:H66" si="42">F59</f>
-        <v>-0.14330008332287236</v>
+        <v>2.9941761227363736E-2</v>
       </c>
       <c r="G66">
         <f t="shared" si="42"/>
-        <v>9.430410462944272E-2</v>
+        <v>0.16493348563166332</v>
       </c>
       <c r="H66">
         <f t="shared" si="42"/>
-        <v>9.7369081497643312E-2</v>
+        <v>0.11680085092051648</v>
       </c>
       <c r="K66" s="3">
-        <v>-0.14100661448342183</v>
+        <v>9.5428494936662722E-2</v>
       </c>
       <c r="L66">
-        <v>-0.14100661448342183</v>
+        <v>0.33921566167552708</v>
       </c>
       <c r="M66" s="4">
-        <v>-0.14100661448342183</v>
+        <v>-0.2049685392835448</v>
       </c>
       <c r="O66">
         <f t="shared" ref="O66:O68" si="43">TANH(K66)</f>
-        <v>-0.14007944915847995</v>
+        <v>9.5139869945309458E-2</v>
       </c>
       <c r="P66">
         <f t="shared" ref="P66:P68" si="44">TANH(L66)</f>
-        <v>-0.14007944915847995</v>
+        <v>0.32677699030139806</v>
       </c>
       <c r="Q66">
         <f t="shared" ref="Q66:Q68" si="45">TANH(M66)</f>
-        <v>-0.14007944915847995</v>
+        <v>-0.20214558274631284</v>
       </c>
       <c r="S66">
         <f t="shared" ref="S66:S67" si="46">S59</f>
-        <v>0.43714944074190182</v>
+        <v>0.40923681706065351</v>
       </c>
       <c r="V66">
-        <v>-0.1536283021606519</v>
+        <v>0.16137905875061054</v>
       </c>
       <c r="X66">
         <f t="shared" ref="X66:X68" si="47">1/(1+EXP(-V66))</f>
-        <v>0.46166828581249114</v>
+        <v>0.54025743321969288</v>
       </c>
       <c r="Z66" s="2">
         <v>1</v>
       </c>
       <c r="AB66" s="4">
         <f t="shared" ref="AB66:AB68" si="48">-(Z66*LOG(X66)+(1-Z66)*LOG(1-X66))</f>
-        <v>0.3356699581750856</v>
+        <v>0.26739924909240753</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -2519,54 +2519,54 @@
       </c>
       <c r="F67">
         <f t="shared" ref="F67:H67" si="49">F60</f>
-        <v>0.57763400371106144</v>
+        <v>0.65728904986159398</v>
       </c>
       <c r="G67">
         <f t="shared" si="49"/>
-        <v>0.38407838794298987</v>
+        <v>0.39397615401052832</v>
       </c>
       <c r="H67">
         <f t="shared" si="49"/>
-        <v>0.4203892080028187</v>
+        <v>0.42442047751370204</v>
       </c>
       <c r="K67" s="3">
-        <v>0.37675167501704027</v>
+        <v>0.78265930602562028</v>
       </c>
       <c r="L67">
-        <v>0.37675167501704027</v>
+        <v>0.89812530131771873</v>
       </c>
       <c r="M67" s="4">
-        <v>0.37675167501704027</v>
+        <v>0.33625278915067369</v>
       </c>
       <c r="O67">
         <f t="shared" si="43"/>
-        <v>0.35988316389564623</v>
+        <v>0.65423042997064396</v>
       </c>
       <c r="P67">
         <f t="shared" si="44"/>
-        <v>0.35988316389564623</v>
+        <v>0.71538382050957883</v>
       </c>
       <c r="Q67">
         <f t="shared" si="45"/>
-        <v>0.35988316389564623</v>
+        <v>0.32412794574055598</v>
       </c>
       <c r="S67">
         <f t="shared" si="46"/>
-        <v>8.6011283103797631E-2</v>
+        <v>3.1248006448839974E-2</v>
       </c>
       <c r="V67">
-        <v>0.39469201069559451</v>
+        <v>0.53646098997819736</v>
       </c>
       <c r="X67">
         <f t="shared" si="47"/>
-        <v>0.59741169324601529</v>
+        <v>0.63098877044810686</v>
       </c>
       <c r="Z67" s="2">
         <v>1</v>
       </c>
       <c r="AB67" s="4">
         <f t="shared" si="48"/>
-        <v>0.22372628112506043</v>
+        <v>0.19997836971912711</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -2584,39 +2584,39 @@
       </c>
       <c r="H68" s="3"/>
       <c r="K68" s="3">
-        <v>0.15246772463049213</v>
+        <v>0.30003824646764077</v>
       </c>
       <c r="L68">
-        <v>0.15246772463049213</v>
+        <v>0.17171707502087474</v>
       </c>
       <c r="M68" s="4">
-        <v>0.15246772463049213</v>
+        <v>0.15402876381290165</v>
       </c>
       <c r="O68">
         <f t="shared" si="43"/>
-        <v>0.15129716567967183</v>
+        <v>0.29134761281780847</v>
       </c>
       <c r="P68">
         <f t="shared" si="44"/>
-        <v>0.15129716567967183</v>
+        <v>0.1700489542077821</v>
       </c>
       <c r="Q68">
         <f t="shared" si="45"/>
-        <v>0.15129716567967183</v>
+        <v>0.15282210997462381</v>
       </c>
       <c r="V68">
-        <v>0.16593102574803889</v>
+        <v>0.17838166503968256</v>
       </c>
       <c r="X68">
         <f t="shared" si="47"/>
-        <v>0.54138783867474116</v>
+        <v>0.54447753908386332</v>
       </c>
       <c r="Z68" s="2">
         <v>0</v>
       </c>
       <c r="AB68" s="4">
         <f t="shared" si="48"/>
-        <v>0.33855443297628468</v>
+        <v>0.34149020395675383</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -2653,108 +2653,108 @@
     <row r="72" spans="1:29">
       <c r="F72">
         <f t="array" ref="F72:H74">1/4*MMULT(TRANSPOSE(B65:D68),K72:M75)</f>
-        <v>-0.12592769026476325</v>
+        <v>-5.950123247782424E-2</v>
       </c>
       <c r="G72">
-        <v>-9.5977816164340105E-2</v>
+        <v>-6.0445368118908424E-2</v>
       </c>
       <c r="H72">
-        <v>-1.8884103119942576E-2</v>
+        <v>-6.0246116417923311E-3</v>
       </c>
       <c r="I72">
         <f>1/4*SUM(K72:M75)</f>
-        <v>1.3752201642453143E-2</v>
+        <v>5.8419842426492119E-2</v>
       </c>
       <c r="K72">
         <f t="array" ref="K72:M75">MMULT(V72:V75,TRANSPOSE(S65:S67))*(1-(O65:Q68)^2)</f>
-        <v>0.22906776840683726</v>
+        <v>0.14026444570215274</v>
       </c>
       <c r="L72">
-        <v>0.1745876869424243</v>
+        <v>0.17347705993087575</v>
       </c>
       <c r="M72">
-        <v>3.4350978334907613E-2</v>
+        <v>1.2941857530688123E-2</v>
       </c>
       <c r="S72">
         <f t="array" ref="S72:S74">1/4*MMULT(TRANSPOSE(O65:Q68),V72:V75)</f>
-        <v>-2.4940370212328845E-2</v>
+        <v>-6.978330761038419E-2</v>
       </c>
       <c r="T72">
         <f>1/4*SUM(V72:V75)</f>
-        <v>7.3015099543571882E-3</v>
+        <v>4.0228786779555853E-2</v>
       </c>
       <c r="V72">
         <f>X65-Z65</f>
-        <v>0.42873822208418111</v>
+        <v>0.44519140436656035</v>
       </c>
     </row>
     <row r="73" spans="1:29">
       <c r="F73">
-        <v>8.2869067607541175E-2</v>
+        <v>6.0699240890580965E-2</v>
       </c>
       <c r="G73">
-        <v>6.3159993801398334E-2</v>
+        <v>7.9031409572765526E-2</v>
       </c>
       <c r="H73">
-        <v>1.2427036618110586E-2</v>
+        <v>4.8097247221947324E-3</v>
       </c>
       <c r="K73">
-        <v>-0.30270786979804915</v>
+        <v>-0.16265011903511847</v>
       </c>
       <c r="L73">
-        <v>-0.23071367558550193</v>
+        <v>-0.16805301040150561</v>
       </c>
       <c r="M73">
-        <v>-4.5394040154836772E-2</v>
+        <v>-1.3779001599572318E-2</v>
       </c>
       <c r="S73">
-        <v>-2.4940370212328845E-2</v>
+        <v>-0.10474505079615551</v>
       </c>
       <c r="V73">
         <f t="shared" ref="V73:V75" si="50">X66-Z66</f>
-        <v>-0.5383317141875088</v>
+        <v>-0.45974256678030712</v>
       </c>
     </row>
     <row r="74" spans="1:29">
       <c r="F74">
-        <v>2.5602125505831866E-2</v>
+        <v>2.563312946504278E-2</v>
       </c>
       <c r="G74">
-        <v>1.9513072065792267E-2</v>
+        <v>3.5662144590046588E-2</v>
       </c>
       <c r="H74">
-        <v>3.8392920343836819E-3</v>
+        <v>1.5742603395227017E-3</v>
       </c>
       <c r="K74">
-        <v>-0.2010028912610039</v>
+        <v>-7.5354810876178485E-2</v>
       </c>
       <c r="L74">
-        <v>-0.15319758907185849</v>
+        <v>-7.3728462074128073E-2</v>
       </c>
       <c r="M74">
-        <v>-3.0142372324933529E-2</v>
+        <v>-1.0319444967597007E-2</v>
       </c>
       <c r="S74">
-        <v>-2.4940370212328845E-2</v>
+        <v>-1.524736957508956E-2</v>
       </c>
       <c r="V74">
         <f t="shared" si="50"/>
-        <v>-0.40258830675398471</v>
+        <v>-0.36901122955189314</v>
       </c>
     </row>
     <row r="75" spans="1:29">
       <c r="K75">
-        <v>0.30341139328433137</v>
+        <v>0.1778873287363496</v>
       </c>
       <c r="L75">
-        <v>0.23124987733502755</v>
+        <v>0.21637704043431441</v>
       </c>
       <c r="M75">
-        <v>4.5499540462468256E-2</v>
+        <v>1.6616486325687813E-2</v>
       </c>
       <c r="V75">
         <f t="shared" si="50"/>
-        <v>0.54138783867474116</v>
+        <v>0.54447753908386332</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -2779,63 +2779,63 @@
     <row r="78" spans="1:29">
       <c r="F78">
         <f>F65-$B$1*F72</f>
-        <v>1.0316163420177951</v>
+        <v>0.60162352451362811</v>
       </c>
       <c r="G78">
         <f t="shared" ref="G78:H78" si="51">G65-$B$1*G72</f>
-        <v>1.1624762404415452</v>
+        <v>0.84729896253466086</v>
       </c>
       <c r="H78">
         <f t="shared" si="51"/>
-        <v>0.26205215662643316</v>
+        <v>0.19427324862135675</v>
       </c>
       <c r="I78">
         <f>I65-$B$1*I72</f>
-        <v>-0.39279496815487613</v>
+        <v>-0.50403224947430114</v>
       </c>
       <c r="S78">
         <f>S65-$B$1*S72</f>
-        <v>0.62344264851080833</v>
+        <v>0.49658339318980582</v>
       </c>
       <c r="T78">
         <f>T65-$B$1*T72</f>
-        <v>-0.35510110749899437</v>
+        <v>-0.64153186914085181</v>
       </c>
     </row>
     <row r="79" spans="1:29">
       <c r="F79">
         <f t="shared" ref="F79:H79" si="52">F66-$B$1*F73</f>
-        <v>-0.30903821853795471</v>
+        <v>-9.1456720553798193E-2</v>
       </c>
       <c r="G79">
         <f t="shared" si="52"/>
-        <v>-3.2015882973353949E-2</v>
+        <v>6.8706664861322708E-3</v>
       </c>
       <c r="H79">
         <f t="shared" si="52"/>
-        <v>7.251500826142214E-2</v>
+        <v>0.10718140147612701</v>
       </c>
       <c r="S79">
         <f t="shared" ref="S79:S80" si="53">S66-$B$1*S73</f>
-        <v>0.48703018116655949</v>
+        <v>0.61872691865296447</v>
       </c>
     </row>
     <row r="80" spans="1:29">
       <c r="F80">
         <f t="shared" ref="F80:H80" si="54">F67-$B$1*F74</f>
-        <v>0.52642975269939773</v>
+        <v>0.60602279093150846</v>
       </c>
       <c r="G80">
         <f t="shared" si="54"/>
-        <v>0.34505224381140531</v>
+        <v>0.32265186483043518</v>
       </c>
       <c r="H80">
         <f t="shared" si="54"/>
-        <v>0.41271062393405133</v>
+        <v>0.42127195683465662</v>
       </c>
       <c r="S80">
         <f t="shared" si="53"/>
-        <v>0.13589202352845531</v>
+        <v>6.1742745599019093E-2</v>
       </c>
     </row>
     <row r="82" spans="1:29" ht="37">
@@ -2941,68 +2941,68 @@
       </c>
       <c r="F85">
         <f>F78</f>
-        <v>1.0316163420177951</v>
+        <v>0.60162352451362811</v>
       </c>
       <c r="G85">
         <f t="shared" ref="G85:H85" si="55">G78</f>
-        <v>1.1624762404415452</v>
+        <v>0.84729896253466086</v>
       </c>
       <c r="H85">
         <f t="shared" si="55"/>
-        <v>0.26205215662643316</v>
+        <v>0.19427324862135675</v>
       </c>
       <c r="I85" s="3">
         <f>I78</f>
-        <v>-0.39279496815487613</v>
+        <v>-0.50403224947430114</v>
       </c>
       <c r="K85" s="3">
-        <f t="array" ref="K85:M88">MMULT(B85:D88,H85:H87)+I85</f>
-        <v>-0.32027995989345398</v>
+        <f t="array" ref="K85:M88">MMULT(B85:D88,F85:H87)+I85</f>
+        <v>-0.59548897002809931</v>
       </c>
       <c r="L85">
-        <v>-0.32027995989345398</v>
+        <v>-0.49716158298816887</v>
       </c>
       <c r="M85" s="4">
-        <v>-0.32027995989345398</v>
+        <v>-0.39685084799817416</v>
       </c>
       <c r="O85">
         <f>TANH(K85)</f>
-        <v>-0.30976004053920009</v>
+        <v>-0.53383184480583779</v>
       </c>
       <c r="P85">
         <f t="shared" ref="P85:Q85" si="56">TANH(L85)</f>
-        <v>-0.30976004053920009</v>
+        <v>-0.45988196477857457</v>
       </c>
       <c r="Q85">
         <f t="shared" si="56"/>
-        <v>-0.30976004053920009</v>
+        <v>-0.37725120666669654</v>
       </c>
       <c r="S85">
         <f>S78</f>
-        <v>0.62344264851080833</v>
+        <v>0.49658339318980582</v>
       </c>
       <c r="T85">
         <f>T78</f>
-        <v>-0.35510110749899437</v>
+        <v>-0.64153186914085181</v>
       </c>
       <c r="V85">
         <f t="array" ref="V85:V88">MMULT(O85:Q88,S85:S87)</f>
-        <v>-0.38607402745566993</v>
+        <v>-0.57292590517812014</v>
       </c>
       <c r="X85">
         <f>1/(1+EXP(-V85))</f>
-        <v>0.40466275483793185</v>
+        <v>0.36056196198205992</v>
       </c>
       <c r="Z85" s="2">
         <v>0</v>
       </c>
       <c r="AB85" s="4">
         <f>-(Z85*LOG(X85)+(1-Z85)*LOG(1-X85))</f>
-        <v>0.22523694650523304</v>
+        <v>0.19420153257804146</v>
       </c>
       <c r="AC85" s="3">
         <f>1/4*SUM(AB85:AB88)</f>
-        <v>0.27704488080981715</v>
+        <v>0.22750011195709824</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -3020,54 +3020,54 @@
       </c>
       <c r="F86">
         <f t="shared" ref="F86:H86" si="57">F79</f>
-        <v>-0.30903821853795471</v>
+        <v>-9.1456720553798193E-2</v>
       </c>
       <c r="G86">
         <f t="shared" si="57"/>
-        <v>-3.2015882973353949E-2</v>
+        <v>6.8706664861322708E-3</v>
       </c>
       <c r="H86">
         <f t="shared" si="57"/>
-        <v>7.251500826142214E-2</v>
+        <v>0.10718140147612701</v>
       </c>
       <c r="K86" s="3">
-        <v>-0.13074281152844297</v>
+        <v>9.7591275039326963E-2</v>
       </c>
       <c r="L86">
-        <v>-0.13074281152844297</v>
+        <v>0.34326671306035972</v>
       </c>
       <c r="M86" s="4">
-        <v>-0.13074281152844297</v>
+        <v>-0.30975900085294439</v>
       </c>
       <c r="O86">
         <f t="shared" ref="O86:O88" si="58">TANH(K86)</f>
-        <v>-0.13000291144910098</v>
+        <v>9.7282629189403766E-2</v>
       </c>
       <c r="P86">
         <f t="shared" ref="P86:P88" si="59">TANH(L86)</f>
-        <v>-0.13000291144910098</v>
+        <v>0.33039065394924677</v>
       </c>
       <c r="Q86">
         <f t="shared" ref="Q86:Q88" si="60">TANH(M86)</f>
-        <v>-0.13000291144910098</v>
+        <v>-0.30021783530247387</v>
       </c>
       <c r="S86">
         <f t="shared" ref="S86:S87" si="61">S79</f>
-        <v>0.48703018116655949</v>
+        <v>0.61872691865296447</v>
       </c>
       <c r="V86">
-        <v>-0.16203105964458836</v>
+        <v>0.23419425594168625</v>
       </c>
       <c r="X86">
         <f t="shared" ref="X86:X88" si="62">1/(1+EXP(-V86))</f>
-        <v>0.45958062748548784</v>
+        <v>0.55828242274923523</v>
       </c>
       <c r="Z86" s="2">
         <v>1</v>
       </c>
       <c r="AB86" s="4">
         <f t="shared" ref="AB86:AB88" si="63">-(Z86*LOG(X86)+(1-Z86)*LOG(1-X86))</f>
-        <v>0.33763828623587067</v>
+        <v>0.25314604548502573</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -3085,54 +3085,54 @@
       </c>
       <c r="F87">
         <f t="shared" ref="F87:H87" si="64">F80</f>
-        <v>0.52642975269939773</v>
+        <v>0.60602279093150846</v>
       </c>
       <c r="G87">
         <f t="shared" si="64"/>
-        <v>0.34505224381140531</v>
+        <v>0.32265186483043518</v>
       </c>
       <c r="H87">
         <f t="shared" si="64"/>
-        <v>0.41271062393405133</v>
+        <v>0.42127195683465662</v>
       </c>
       <c r="K87" s="3">
-        <v>0.35448282066703052</v>
+        <v>0.61215734541703715</v>
       </c>
       <c r="L87">
-        <v>0.35448282066703052</v>
+        <v>0.67278924437692711</v>
       </c>
       <c r="M87" s="4">
-        <v>0.35448282066703052</v>
+        <v>0.21869435745783916</v>
       </c>
       <c r="O87">
         <f t="shared" si="58"/>
-        <v>0.34034512816796519</v>
+        <v>0.5456439268248473</v>
       </c>
       <c r="P87">
         <f t="shared" si="59"/>
-        <v>0.34034512816796519</v>
+        <v>0.58681165019332804</v>
       </c>
       <c r="Q87">
         <f t="shared" si="60"/>
-        <v>0.34034512816796519</v>
+        <v>0.21527327637844543</v>
       </c>
       <c r="S87">
         <f t="shared" si="61"/>
-        <v>0.13589202352845531</v>
+        <v>6.1742745599019093E-2</v>
       </c>
       <c r="V87">
-        <v>0.42419420570838301</v>
+        <v>0.64732543994757352</v>
       </c>
       <c r="X87">
         <f t="shared" si="62"/>
-        <v>0.60448644956358322</v>
+        <v>0.65640750383465818</v>
       </c>
       <c r="Z87" s="2">
         <v>1</v>
       </c>
       <c r="AB87" s="4">
         <f t="shared" si="63"/>
-        <v>0.21861343003186395</v>
+        <v>0.18282646287891102</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -3150,39 +3150,39 @@
       </c>
       <c r="H88" s="3"/>
       <c r="K88" s="3">
-        <v>9.2430664040597355E-2</v>
+        <v>1.0533820903409152E-2</v>
       </c>
       <c r="L88">
-        <v>9.2430664040597355E-2</v>
+        <v>-0.1745097181577337</v>
       </c>
       <c r="M88" s="4">
-        <v>9.2430664040597355E-2</v>
+        <v>2.4421108836482519E-2</v>
       </c>
       <c r="O88">
         <f t="shared" si="58"/>
-        <v>9.2168335580716479E-2</v>
+        <v>1.0533431304923339E-2</v>
       </c>
       <c r="P88">
         <f t="shared" si="59"/>
-        <v>9.2168335580716479E-2</v>
+        <v>-0.17275954919909406</v>
       </c>
       <c r="Q88">
         <f t="shared" si="60"/>
-        <v>9.2168335580716479E-2</v>
+        <v>2.441625515478962E-2</v>
       </c>
       <c r="V88">
-        <v>0.11487537404628473</v>
+        <v>-0.10015272985399722</v>
       </c>
       <c r="X88">
         <f t="shared" si="62"/>
-        <v>0.52868730313641854</v>
+        <v>0.47498272550022952</v>
       </c>
       <c r="Z88" s="2">
         <v>0</v>
       </c>
       <c r="AB88" s="4">
         <f t="shared" si="63"/>
-        <v>0.32669086046630097</v>
+        <v>0.27982640688641475</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -3219,108 +3219,108 @@
     <row r="92" spans="1:29">
       <c r="F92">
         <f t="array" ref="F92:H94">1/4*MMULT(TRANSPOSE(B85:D88),K92:M95)</f>
-        <v>-0.13731093519004856</v>
+        <v>-8.4274277981985057E-2</v>
       </c>
       <c r="G92">
-        <v>-0.10726659429139082</v>
+        <v>-9.5713607106585996E-2</v>
       </c>
       <c r="H92">
-        <v>-2.9929715075045573E-2</v>
+        <v>-1.1261487409574299E-2</v>
       </c>
       <c r="I92">
         <f>1/4*SUM(K92:M95)</f>
-        <v>2.8185783564973338E-3</v>
+        <v>2.7073369466604595E-2</v>
       </c>
       <c r="K92">
         <f t="array" ref="K92:M95">MMULT(V92:V95,TRANSPOSE(S85:S87))*(1-(O85:Q88)^2)</f>
-        <v>0.22807704433789938</v>
+        <v>0.12802431267320177</v>
       </c>
       <c r="L92">
-        <v>0.17817261056675177</v>
+        <v>0.17590789913768062</v>
       </c>
       <c r="M92">
-        <v>4.971403728875478E-2</v>
+        <v>1.909377947994377E-2</v>
       </c>
       <c r="S92">
         <f t="array" ref="S92:S94">1/4*MMULT(TRANSPOSE(O85:Q88),V92:V95)</f>
-        <v>-3.5243785188906786E-2</v>
+        <v>-0.10448171638273747</v>
       </c>
       <c r="T92">
         <f>1/4*SUM(V92:V95)</f>
-        <v>-6.4571624414461182E-4</v>
+        <v>1.2558653516545712E-2</v>
       </c>
       <c r="V92">
         <f>X85-Z85</f>
-        <v>0.40466275483793185</v>
+        <v>0.36056196198205992</v>
       </c>
     </row>
     <row r="93" spans="1:29">
       <c r="F93">
-        <v>8.4216446071334355E-2</v>
+        <v>6.1010818068573003E-2</v>
       </c>
       <c r="G93">
-        <v>6.5789453264544662E-2</v>
+        <v>8.0409057302214912E-2</v>
       </c>
       <c r="H93">
-        <v>1.835668974258544E-2</v>
+        <v>7.0429543146689234E-3</v>
       </c>
       <c r="K93">
-        <v>-0.33122627366823326</v>
+        <v>-0.21727370835627582</v>
       </c>
       <c r="L93">
-        <v>-0.25875225645389477</v>
+        <v>-0.24346939944887594</v>
       </c>
       <c r="M93">
-        <v>-7.2197512765740463E-2</v>
+        <v>-2.4814733070257191E-2</v>
       </c>
       <c r="S93">
-        <v>-3.5243785188906786E-2</v>
+        <v>-0.14885929597827255</v>
       </c>
       <c r="V93">
         <f t="shared" ref="V93:V95" si="65">X86-Z86</f>
-        <v>-0.54041937251451211</v>
+        <v>-0.44171757725076477</v>
       </c>
     </row>
     <row r="94" spans="1:29">
       <c r="F94">
-        <v>2.7197184986859517E-2</v>
+        <v>2.9004739900272559E-2</v>
       </c>
       <c r="G94">
-        <v>2.1246300622856713E-2</v>
+        <v>3.6432082517794756E-2</v>
       </c>
       <c r="H94">
-        <v>5.9281804203967468E-3</v>
+        <v>2.2695094446829808E-3</v>
       </c>
       <c r="K94">
-        <v>-0.21801746709196093</v>
+        <v>-0.11982340357166441</v>
       </c>
       <c r="L94">
-        <v>-0.17031412071166854</v>
+        <v>-0.13938502897746807</v>
       </c>
       <c r="M94">
-        <v>-4.752134753444183E-2</v>
+        <v>-2.0231216568040004E-2</v>
       </c>
       <c r="S94">
-        <v>-3.5243785188906786E-2</v>
+        <v>-1.6444980836799093E-2</v>
       </c>
       <c r="V94">
         <f t="shared" si="65"/>
-        <v>-0.39551355043641678</v>
+        <v>-0.34359249616534182</v>
       </c>
     </row>
     <row r="95" spans="1:29">
       <c r="K95">
-        <v>0.326806207039399</v>
+        <v>0.23584236317275464</v>
       </c>
       <c r="L95">
-        <v>0.2552993232030954</v>
+        <v>0.2851133590486471</v>
       </c>
       <c r="M95">
-        <v>7.1234069216028817E-2</v>
+        <v>2.9309254346771927E-2</v>
       </c>
       <c r="V95">
         <f t="shared" si="65"/>
-        <v>0.52868730313641854</v>
+        <v>0.47498272550022952</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -3345,63 +3345,63 @@
     <row r="98" spans="1:29">
       <c r="F98">
         <f>F85-$B$1*F92</f>
-        <v>1.3062382123978922</v>
+        <v>0.77017208047759822</v>
       </c>
       <c r="G98">
         <f t="shared" ref="G98:H98" si="66">G85-$B$1*G92</f>
-        <v>1.3770094290243269</v>
+        <v>1.0387261767478329</v>
       </c>
       <c r="H98">
         <f t="shared" si="66"/>
-        <v>0.32191158677652432</v>
+        <v>0.21679622344050536</v>
       </c>
       <c r="I98">
         <f>I85-$B$1*I92</f>
-        <v>-0.39843212486787083</v>
+        <v>-0.55817898840751035</v>
       </c>
       <c r="S98">
         <f>S85-$B$1*S92</f>
-        <v>0.69393021888862194</v>
+        <v>0.70554682595528073</v>
       </c>
       <c r="T98">
         <f>T85-$B$1*T92</f>
-        <v>-0.35380967501070515</v>
+        <v>-0.66664917617394326</v>
       </c>
     </row>
     <row r="99" spans="1:29">
       <c r="F99">
         <f t="shared" ref="F99:H99" si="67">F86-$B$1*F93</f>
-        <v>-0.47747111068062342</v>
+        <v>-0.2134783566909442</v>
       </c>
       <c r="G99">
         <f t="shared" si="67"/>
-        <v>-0.16359478950244327</v>
+        <v>-0.15394744811829755</v>
       </c>
       <c r="H99">
         <f t="shared" si="67"/>
-        <v>3.580162877625126E-2</v>
+        <v>9.3095492846789168E-2</v>
       </c>
       <c r="S99">
         <f t="shared" ref="S99:S100" si="68">S86-$B$1*S93</f>
-        <v>0.55751775154437311</v>
+        <v>0.91644551060950952</v>
       </c>
     </row>
     <row r="100" spans="1:29">
       <c r="F100">
         <f t="shared" ref="F100:H100" si="69">F87-$B$1*F94</f>
-        <v>0.47203538272567869</v>
+        <v>0.5480133111309633</v>
       </c>
       <c r="G100">
         <f t="shared" si="69"/>
-        <v>0.3025596425656919</v>
+        <v>0.24978769979484566</v>
       </c>
       <c r="H100">
         <f t="shared" si="69"/>
-        <v>0.40085426309325783</v>
+        <v>0.41673293794529065</v>
       </c>
       <c r="S100">
         <f t="shared" si="68"/>
-        <v>0.20637959390626887</v>
+        <v>9.4632707272617272E-2</v>
       </c>
     </row>
     <row r="102" spans="1:29" ht="37">
@@ -3507,68 +3507,68 @@
       </c>
       <c r="F105">
         <f>F98</f>
-        <v>1.3062382123978922</v>
+        <v>0.77017208047759822</v>
       </c>
       <c r="G105">
         <f t="shared" ref="G105:H105" si="70">G98</f>
-        <v>1.3770094290243269</v>
+        <v>1.0387261767478329</v>
       </c>
       <c r="H105">
         <f t="shared" si="70"/>
-        <v>0.32191158677652432</v>
+        <v>0.21679622344050536</v>
       </c>
       <c r="I105" s="3">
         <f>I98</f>
-        <v>-0.39843212486787083</v>
+        <v>-0.55817898840751035</v>
       </c>
       <c r="K105" s="3">
-        <f t="array" ref="K105:M108">MMULT(B105:D108,H105:H107)+I105</f>
-        <v>-0.36263049609161957</v>
+        <f t="array" ref="K105:M108">MMULT(B105:D108,F105:H107)+I105</f>
+        <v>-0.77165734509845452</v>
       </c>
       <c r="L105">
-        <v>-0.36263049609161957</v>
+        <v>-0.71212643652580787</v>
       </c>
       <c r="M105" s="4">
-        <v>-0.36263049609161957</v>
+        <v>-0.46508349556072115</v>
       </c>
       <c r="O105">
         <f>TANH(K105)</f>
-        <v>-0.34752893936020263</v>
+        <v>-0.64789213420169878</v>
       </c>
       <c r="P105">
         <f t="shared" ref="P105:Q105" si="71">TANH(L105)</f>
-        <v>-0.34752893936020263</v>
+        <v>-0.61200853415336331</v>
       </c>
       <c r="Q105">
         <f t="shared" si="71"/>
-        <v>-0.34752893936020263</v>
+        <v>-0.43421832628617119</v>
       </c>
       <c r="S105">
         <f>S98</f>
-        <v>0.69393021888862194</v>
+        <v>0.70554682595528073</v>
       </c>
       <c r="T105">
         <f>T98</f>
-        <v>-0.35380967501070515</v>
+        <v>-0.66664917617394326</v>
       </c>
       <c r="V105">
         <f t="array" ref="V105:V108">MMULT(O105:Q108,S105:S107)</f>
-        <v>-0.50663726720489199</v>
+        <v>-1.0590819681908028</v>
       </c>
       <c r="X105">
         <f>1/(1+EXP(-V105))</f>
-        <v>0.37598215883715452</v>
+        <v>0.25748493085212693</v>
       </c>
       <c r="Z105" s="2">
         <v>0</v>
       </c>
       <c r="AB105" s="4">
         <f>-(Z105*LOG(X105)+(1-Z105)*LOG(1-X105))</f>
-        <v>0.20480299331788343</v>
+        <v>0.12929472802912192</v>
       </c>
       <c r="AC105" s="3">
         <f>1/4*SUM(AB105:AB108)</f>
-        <v>0.26232522610981079</v>
+        <v>0.17082692591496323</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -3586,54 +3586,54 @@
       </c>
       <c r="F106">
         <f t="shared" ref="F106:H106" si="72">F99</f>
-        <v>-0.47747111068062342</v>
+        <v>-0.2134783566909442</v>
       </c>
       <c r="G106">
         <f t="shared" si="72"/>
-        <v>-0.16359478950244327</v>
+        <v>-0.15394744811829755</v>
       </c>
       <c r="H106">
         <f t="shared" si="72"/>
-        <v>3.580162877625126E-2</v>
+        <v>9.3095492846789168E-2</v>
       </c>
       <c r="K106" s="3">
-        <v>-7.6520538091346513E-2</v>
+        <v>0.21199309207008787</v>
       </c>
       <c r="L106">
-        <v>-7.6520538091346513E-2</v>
+        <v>0.48054718834032251</v>
       </c>
       <c r="M106" s="4">
-        <v>-7.6520538091346513E-2</v>
+        <v>-0.34138276496700498</v>
       </c>
       <c r="O106">
         <f t="shared" ref="O106:O108" si="73">TANH(K106)</f>
-        <v>-7.6371534470190752E-2</v>
+        <v>0.20887342829826519</v>
       </c>
       <c r="P106">
         <f t="shared" ref="P106:P108" si="74">TANH(L106)</f>
-        <v>-7.6371534470190752E-2</v>
+        <v>0.44668172811347162</v>
       </c>
       <c r="Q106">
         <f t="shared" ref="Q106:Q108" si="75">TANH(M106)</f>
-        <v>-7.6371534470190752E-2</v>
+        <v>-0.32871131053036678</v>
       </c>
       <c r="S106">
         <f t="shared" ref="S106:S107" si="76">S99</f>
-        <v>0.55751775154437311</v>
+        <v>0.91644551060950952</v>
       </c>
       <c r="V106">
-        <v>-0.11133652808153033</v>
+        <v>0.52562260753650902</v>
       </c>
       <c r="X106">
         <f t="shared" ref="X106:X108" si="77">1/(1+EXP(-V106))</f>
-        <v>0.47219458463012204</v>
+        <v>0.62846157729898389</v>
       </c>
       <c r="Z106" s="2">
         <v>1</v>
       </c>
       <c r="AB106" s="4">
         <f t="shared" ref="AB106:AB108" si="78">-(Z106*LOG(X106)+(1-Z106)*LOG(1-X106))</f>
-        <v>0.32587899794077679</v>
+        <v>0.20172126893604425</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -3651,54 +3651,54 @@
       </c>
       <c r="F107">
         <f t="shared" ref="F107:H107" si="79">F100</f>
-        <v>0.47203538272567869</v>
+        <v>0.5480133111309633</v>
       </c>
       <c r="G107">
         <f t="shared" si="79"/>
-        <v>0.3025596425656919</v>
+        <v>0.24978769979484566</v>
       </c>
       <c r="H107">
         <f t="shared" si="79"/>
-        <v>0.40085426309325783</v>
+        <v>0.41673293794529065</v>
       </c>
       <c r="K107" s="3">
-        <v>0.36013535377816264</v>
+        <v>0.546528046510107</v>
       </c>
       <c r="L107">
-        <v>0.36013535377816264</v>
+        <v>0.5763874400168707</v>
       </c>
       <c r="M107" s="4">
-        <v>0.36013535377816264</v>
+        <v>0.16844566582507481</v>
       </c>
       <c r="O107">
         <f t="shared" si="73"/>
-        <v>0.34533325186321168</v>
+        <v>0.49791353379608805</v>
       </c>
       <c r="P107">
         <f t="shared" si="74"/>
-        <v>0.34533325186321168</v>
+        <v>0.52003479014809517</v>
       </c>
       <c r="Q107">
         <f t="shared" si="75"/>
-        <v>0.34533325186321168</v>
+        <v>0.16687038629903866</v>
       </c>
       <c r="S107">
         <f t="shared" si="76"/>
-        <v>0.20637959390626887</v>
+        <v>9.4632707272617272E-2</v>
       </c>
       <c r="V107">
-        <v>0.50343633344910343</v>
+        <v>0.84367625858109307</v>
       </c>
       <c r="X107">
         <f t="shared" si="77"/>
-        <v>0.62326654184124131</v>
+        <v>0.69923891318190545</v>
       </c>
       <c r="Z107" s="2">
         <v>1</v>
       </c>
       <c r="AB107" s="4">
         <f t="shared" si="78"/>
-        <v>0.20532618625373297</v>
+        <v>0.15537441088005605</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -3716,39 +3716,39 @@
       </c>
       <c r="H108" s="3"/>
       <c r="K108" s="3">
-        <v>3.8223767001638265E-2</v>
+        <v>-0.22364403396749122</v>
       </c>
       <c r="L108">
-        <v>3.8223767001638265E-2</v>
+        <v>-0.46233873673096226</v>
       </c>
       <c r="M108" s="4">
-        <v>3.8223767001638265E-2</v>
+        <v>-4.8350557615430501E-2</v>
       </c>
       <c r="O108">
         <f t="shared" si="73"/>
-        <v>3.8205162181963362E-2</v>
+        <v>-0.21998850934776443</v>
       </c>
       <c r="P108">
         <f t="shared" si="74"/>
-        <v>3.8205162181963362E-2</v>
+        <v>-0.43198842748456867</v>
       </c>
       <c r="Q108">
         <f t="shared" si="75"/>
-        <v>3.8205162181963362E-2</v>
+        <v>-4.8312915216986461E-2</v>
       </c>
       <c r="V108">
-        <v>5.5696538528918205E-2</v>
+        <v>-0.55567803148365924</v>
       </c>
       <c r="X108">
         <f t="shared" si="77"/>
-        <v>0.51392053623853762</v>
+        <v>0.36454806838246812</v>
       </c>
       <c r="Z108" s="2">
         <v>0</v>
       </c>
       <c r="AB108" s="4">
         <f t="shared" si="78"/>
-        <v>0.31329272692685001</v>
+        <v>0.19691729581463074</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -3785,108 +3785,108 @@
     <row r="112" spans="1:29">
       <c r="F112">
         <f t="array" ref="F112:H114">1/4*MMULT(TRANSPOSE(B105:D108),K112:M115)</f>
-        <v>-0.14859353659970673</v>
+        <v>-0.10257344485706946</v>
       </c>
       <c r="G112">
-        <v>-0.11938309092775172</v>
+        <v>-0.11841204263981872</v>
       </c>
       <c r="H112">
-        <v>-4.419273423437102E-2</v>
+        <v>-1.4757484617186085E-2</v>
       </c>
       <c r="I112">
         <f>1/4*SUM(K112:M115)</f>
-        <v>-4.6614836285313738E-3</v>
+        <v>-2.9820940628711566E-2</v>
       </c>
       <c r="K112">
         <f t="array" ref="K112:M115">MMULT(V112:V115,TRANSPOSE(S105:S107))*(1-(O105:Q108)^2)</f>
-        <v>0.22939417850079594</v>
+        <v>0.10541008595030495</v>
       </c>
       <c r="L112">
-        <v>0.1842999816609216</v>
+        <v>0.14758695589213278</v>
       </c>
       <c r="M112">
-        <v>6.822339785011583E-2</v>
+        <v>1.977230156289592E-2</v>
       </c>
       <c r="S112">
         <f t="array" ref="S112:S114">1/4*MMULT(TRANSPOSE(O105:Q108),V112:V115)</f>
-        <v>-5.0204886040391E-2</v>
+        <v>-0.11859409179591704</v>
       </c>
       <c r="T112">
         <f>1/4*SUM(V112:V115)</f>
-        <v>-3.659044613236101E-3</v>
+        <v>-1.2566627571128905E-2</v>
       </c>
       <c r="V112">
         <f>X105-Z105</f>
-        <v>0.37598215883715452</v>
+        <v>0.25748493085212693</v>
       </c>
     </row>
     <row r="113" spans="1:29">
       <c r="F113">
-        <v>8.8812088666037597E-2</v>
+        <v>4.7643940573307189E-2</v>
       </c>
       <c r="G113">
-        <v>7.135345116163043E-2</v>
+        <v>5.4559825883011781E-2</v>
       </c>
       <c r="H113">
-        <v>2.641332268570112E-2</v>
+        <v>6.630163328081356E-3</v>
       </c>
       <c r="K113">
-        <v>-0.364123874468603</v>
+        <v>-0.25070118030234784</v>
       </c>
       <c r="L113">
-        <v>-0.29254457905362408</v>
+        <v>-0.27255765829063722</v>
       </c>
       <c r="M113">
-        <v>-0.10829293104537499</v>
+        <v>-3.1360643059462491E-2</v>
       </c>
       <c r="S113">
-        <v>-5.0204886040391E-2</v>
+        <v>-0.15935729382031849</v>
       </c>
       <c r="V113">
         <f t="shared" ref="V113:V115" si="80">X106-Z106</f>
-        <v>-0.52780541536987791</v>
+        <v>-0.37153842270101611</v>
       </c>
     </row>
     <row r="114" spans="1:29">
       <c r="F114">
-        <v>3.146354404083862E-2</v>
+        <v>2.1291419085730949E-2</v>
       </c>
       <c r="G114">
-        <v>2.527845574640003E-2</v>
+        <v>1.7663086909978587E-2</v>
       </c>
       <c r="H114">
-        <v>9.3574732231721629E-3</v>
+        <v>1.6870879373573761E-3</v>
       </c>
       <c r="K114">
-        <v>-0.2302502719302239</v>
+        <v>-0.15959259912593002</v>
       </c>
       <c r="L114">
-        <v>-0.1849877846573828</v>
+        <v>-0.20109051226863767</v>
       </c>
       <c r="M114">
-        <v>-6.8478005892109076E-2</v>
+        <v>-2.7669295409281848E-2</v>
       </c>
       <c r="S114">
-        <v>-5.0204886040391E-2</v>
+        <v>-1.4369073135354299E-2</v>
       </c>
       <c r="V114">
         <f t="shared" si="80"/>
-        <v>-0.37673345815875869</v>
+        <v>-0.30076108681809455</v>
       </c>
     </row>
     <row r="115" spans="1:29">
       <c r="K115">
-        <v>0.35610444809357839</v>
+        <v>0.24475827546885381</v>
       </c>
       <c r="L115">
-        <v>0.28610160764298292</v>
+        <v>0.27174285990855201</v>
       </c>
       <c r="M115">
-        <v>0.10590789878479773</v>
+        <v>3.4417647158711352E-2</v>
       </c>
       <c r="V115">
         <f t="shared" si="80"/>
-        <v>0.51392053623853762</v>
+        <v>0.36454806838246812</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -3911,63 +3911,63 @@
     <row r="118" spans="1:29">
       <c r="F118">
         <f>F105-$B$1*F112</f>
-        <v>1.6034252855973057</v>
+        <v>0.97531897019173708</v>
       </c>
       <c r="G118">
         <f t="shared" ref="G118:H118" si="81">G105-$B$1*G112</f>
-        <v>1.6157756108798302</v>
+        <v>1.2755502620274703</v>
       </c>
       <c r="H118">
         <f t="shared" si="81"/>
-        <v>0.41029705524526638</v>
+        <v>0.24631119267487753</v>
       </c>
       <c r="I118">
         <f>I105-$B$1*I112</f>
-        <v>-0.38910915761080811</v>
+        <v>-0.4985371071500872</v>
       </c>
       <c r="S118">
         <f>S105-$B$1*S112</f>
-        <v>0.794339990969404</v>
+        <v>0.94273500954711476</v>
       </c>
       <c r="T118">
         <f>T105-$B$1*T112</f>
-        <v>-0.34649158578423295</v>
+        <v>-0.64151592103168542</v>
       </c>
     </row>
     <row r="119" spans="1:29">
       <c r="F119">
         <f t="shared" ref="F119:H119" si="82">F106-$B$1*F113</f>
-        <v>-0.65509528801269856</v>
+        <v>-0.30876623783755858</v>
       </c>
       <c r="G119">
         <f t="shared" si="82"/>
-        <v>-0.3063016918257041</v>
+        <v>-0.26306709988432109</v>
       </c>
       <c r="H119">
         <f t="shared" si="82"/>
-        <v>-1.7025016595150981E-2</v>
+        <v>7.9835166190626458E-2</v>
       </c>
       <c r="S119">
         <f t="shared" ref="S119:S120" si="83">S106-$B$1*S113</f>
-        <v>0.65792752362515516</v>
+        <v>1.2351600982501465</v>
       </c>
     </row>
     <row r="120" spans="1:29">
       <c r="F120">
         <f t="shared" ref="F120:H120" si="84">F107-$B$1*F114</f>
-        <v>0.40910829464400145</v>
+        <v>0.50543047295950139</v>
       </c>
       <c r="G120">
         <f t="shared" si="84"/>
-        <v>0.25200273107289184</v>
+        <v>0.21446152597488849</v>
       </c>
       <c r="H120">
         <f t="shared" si="84"/>
-        <v>0.38213931664691353</v>
+        <v>0.41335876207057587</v>
       </c>
       <c r="S120">
         <f t="shared" si="83"/>
-        <v>0.30678936598705087</v>
+        <v>0.12337085354332587</v>
       </c>
     </row>
     <row r="122" spans="1:29" ht="37">
@@ -4073,68 +4073,68 @@
       </c>
       <c r="F125">
         <f>F118</f>
-        <v>1.6034252855973057</v>
+        <v>0.97531897019173708</v>
       </c>
       <c r="G125">
         <f t="shared" ref="G125:H125" si="85">G118</f>
-        <v>1.6157756108798302</v>
+        <v>1.2755502620274703</v>
       </c>
       <c r="H125">
         <f t="shared" si="85"/>
-        <v>0.41029705524526638</v>
+        <v>0.24631119267487753</v>
       </c>
       <c r="I125" s="3">
         <f>I118</f>
-        <v>-0.38910915761080811</v>
+        <v>-0.4985371071500872</v>
       </c>
       <c r="K125" s="3">
-        <f t="array" ref="K125:M128">MMULT(B125:D128,H125:H127)+I125</f>
-        <v>-0.4061341742059591</v>
+        <f t="array" ref="K125:M128">MMULT(B125:D128,F125:H127)+I125</f>
+        <v>-0.80730334498764578</v>
       </c>
       <c r="L125">
-        <v>-0.4061341742059591</v>
+        <v>-0.76160420703440823</v>
       </c>
       <c r="M125" s="4">
-        <v>-0.4061341742059591</v>
+        <v>-0.41870194095946073</v>
       </c>
       <c r="O125">
         <f>TANH(K125)</f>
-        <v>-0.38518532968757185</v>
+        <v>-0.66809996554716777</v>
       </c>
       <c r="P125">
         <f t="shared" ref="P125:Q125" si="86">TANH(L125)</f>
-        <v>-0.38518532968757185</v>
+        <v>-0.64202090016625712</v>
       </c>
       <c r="Q125">
         <f t="shared" si="86"/>
-        <v>-0.38518532968757185</v>
+        <v>-0.39583632394448615</v>
       </c>
       <c r="S125">
         <f>S118</f>
-        <v>0.794339990969404</v>
+        <v>0.94273500954711476</v>
       </c>
       <c r="T125">
         <f>T118</f>
-        <v>-0.34649158578423295</v>
+        <v>-0.64151592103168542</v>
       </c>
       <c r="V125">
         <f t="array" ref="V125:V128">MMULT(O125:Q128,S125:S127)</f>
-        <v>-0.67756290448601908</v>
+        <v>-1.4716744906750217</v>
       </c>
       <c r="X125">
         <f>1/(1+EXP(-V125))</f>
-        <v>0.33680545393610012</v>
+        <v>0.1866882330444618</v>
       </c>
       <c r="Z125" s="2">
         <v>0</v>
       </c>
       <c r="AB125" s="4">
         <f>-(Z125*LOG(X125)+(1-Z125)*LOG(1-X125))</f>
-        <v>0.17835905396576282</v>
+        <v>8.9742944302715774E-2</v>
       </c>
       <c r="AC125" s="3">
         <f>1/4*SUM(AB125:AB128)</f>
-        <v>0.23652916555990752</v>
+        <v>0.11350474342325777</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -4152,54 +4152,54 @@
       </c>
       <c r="F126">
         <f t="shared" ref="F126:H126" si="87">F119</f>
-        <v>-0.65509528801269856</v>
+        <v>-0.30876623783755858</v>
       </c>
       <c r="G126">
         <f t="shared" si="87"/>
-        <v>-0.3063016918257041</v>
+        <v>-0.26306709988432109</v>
       </c>
       <c r="H126">
         <f t="shared" si="87"/>
-        <v>-1.7025016595150981E-2</v>
+        <v>7.9835166190626458E-2</v>
       </c>
       <c r="K126" s="3">
-        <v>2.1187897634458275E-2</v>
+        <v>0.47678186304164988</v>
       </c>
       <c r="L126">
-        <v>2.1187897634458275E-2</v>
+        <v>0.77701315487738309</v>
       </c>
       <c r="M126" s="4">
-        <v>2.1187897634458275E-2</v>
+        <v>-0.2522259144752097</v>
       </c>
       <c r="O126">
         <f t="shared" ref="O126:O128" si="88">TANH(K126)</f>
-        <v>2.1184727597219177E-2</v>
+        <v>0.44366261412583669</v>
       </c>
       <c r="P126">
         <f t="shared" ref="P126:P128" si="89">TANH(L126)</f>
-        <v>2.1184727597219177E-2</v>
+        <v>0.6509889910156561</v>
       </c>
       <c r="Q126">
         <f t="shared" ref="Q126:Q128" si="90">TANH(M126)</f>
-        <v>2.1184727597219177E-2</v>
+        <v>-0.24700991152665314</v>
       </c>
       <c r="S126">
         <f t="shared" ref="S126:S127" si="91">S119</f>
-        <v>0.65792752362515516</v>
+        <v>1.2351600982501465</v>
       </c>
       <c r="V126">
-        <v>3.7265140843135508E-2</v>
+        <v>1.1918580812475754</v>
       </c>
       <c r="X126">
         <f t="shared" ref="X126:X128" si="92">1/(1+EXP(-V126))</f>
-        <v>0.50931520724057733</v>
+        <v>0.76707321586311761</v>
       </c>
       <c r="Z126" s="2">
         <v>1</v>
       </c>
       <c r="AB126" s="4">
         <f t="shared" ref="AB126:AB128" si="93">-(Z126*LOG(X126)+(1-Z126)*LOG(1-X126))</f>
-        <v>0.29301335637424664</v>
+        <v>0.11516318138635884</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -4217,54 +4217,54 @@
       </c>
       <c r="F127">
         <f t="shared" ref="F127:H127" si="94">F120</f>
-        <v>0.40910829464400145</v>
+        <v>0.50543047295950139</v>
       </c>
       <c r="G127">
         <f t="shared" si="94"/>
-        <v>0.25200273107289184</v>
+        <v>0.21446152597488849</v>
       </c>
       <c r="H127">
         <f t="shared" si="94"/>
-        <v>0.38213931664691353</v>
+        <v>0.41335876207057587</v>
       </c>
       <c r="K127" s="3">
-        <v>0.38630219768622087</v>
+        <v>0.67344609816359258</v>
       </c>
       <c r="L127">
-        <v>0.38630219768622087</v>
+        <v>0.72840758096795044</v>
       </c>
       <c r="M127" s="4">
-        <v>0.38630219768622087</v>
+        <v>0.2409680137859927</v>
       </c>
       <c r="O127">
         <f t="shared" si="88"/>
-        <v>0.36816801458221921</v>
+        <v>0.58724215175103378</v>
       </c>
       <c r="P127">
         <f t="shared" si="89"/>
-        <v>0.36816801458221921</v>
+        <v>0.62209015747433305</v>
       </c>
       <c r="Q127">
         <f t="shared" si="90"/>
-        <v>0.36816801458221921</v>
+        <v>0.23640987030447183</v>
       </c>
       <c r="S127">
         <f t="shared" si="91"/>
-        <v>0.30678936598705087</v>
+        <v>0.12337085354332587</v>
       </c>
       <c r="V127">
-        <v>0.64762847926092326</v>
+        <v>1.3511607630494551</v>
       </c>
       <c r="X127">
         <f t="shared" si="92"/>
-        <v>0.65647584707933226</v>
+        <v>0.79431933396234977</v>
       </c>
       <c r="Z127" s="2">
         <v>1</v>
       </c>
       <c r="AB127" s="4">
         <f t="shared" si="93"/>
-        <v>0.18278124775139271</v>
+        <v>0.10000486646864656</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -4282,39 +4282,39 @@
       </c>
       <c r="H128" s="3"/>
       <c r="K128" s="3">
-        <v>-2.3994857559045568E-2</v>
+        <v>-0.30187287202814439</v>
       </c>
       <c r="L128">
-        <v>-2.3994857559045568E-2</v>
+        <v>-0.5471426810595198</v>
       </c>
       <c r="M128" s="4">
-        <v>-2.3994857559045568E-2</v>
+        <v>-5.3431788888848586E-3</v>
       </c>
       <c r="O128">
         <f t="shared" si="88"/>
-        <v>-2.3990253580756096E-2</v>
+        <v>-0.2930256102698427</v>
       </c>
       <c r="P128">
         <f t="shared" si="89"/>
-        <v>-2.3990253580756096E-2</v>
+        <v>-0.49837564796541156</v>
       </c>
       <c r="Q128">
         <f t="shared" si="90"/>
-        <v>-2.3990253580756096E-2</v>
+        <v>-5.3431280409956348E-3</v>
       </c>
       <c r="V128">
-        <v>-4.2200220628126624E-2</v>
+        <v>-0.8924784020687363</v>
       </c>
       <c r="X128">
         <f t="shared" si="92"/>
-        <v>0.48945151024391648</v>
+        <v>0.29059863716114315</v>
       </c>
       <c r="Z128" s="2">
         <v>0</v>
       </c>
       <c r="AB128" s="4">
         <f t="shared" si="93"/>
-        <v>0.29196300414822796</v>
+        <v>0.14910798153530985</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -4351,108 +4351,108 @@
     <row r="132" spans="1:29">
       <c r="F132">
         <f t="array" ref="F132:H134">1/4*MMULT(TRANSPOSE(B125:D128),K132:M135)</f>
-        <v>-0.15637075721235608</v>
+        <v>-7.5849934236109917E-2</v>
       </c>
       <c r="G132">
-        <v>-0.12951711638559379</v>
+        <v>-8.0377597511153795E-2</v>
       </c>
       <c r="H132">
-        <v>-6.0393390751418911E-2</v>
+        <v>-1.2734964494551998E-2</v>
       </c>
       <c r="I132">
         <f>1/4*SUM(K132:M135)</f>
-        <v>-5.0223800323980147E-3</v>
+        <v>3.3156105384745622E-2</v>
       </c>
       <c r="K132">
         <f t="array" ref="K132:M135">MMULT(V132:V135,TRANSPOSE(S125:S127))*(1-(O125:Q128)^2)</f>
-        <v>0.22784402717535507</v>
+        <v>9.7439702995839816E-2</v>
       </c>
       <c r="L132">
-        <v>0.18871624024534084</v>
+        <v>0.13554283058284849</v>
       </c>
       <c r="M132">
-        <v>8.799774081090668E-2</v>
+        <v>1.9423103358676173E-2</v>
       </c>
       <c r="S132">
         <f t="array" ref="S132:S134">1/4*MMULT(TRANSPOSE(O125:Q128),V132:V135)</f>
-        <v>-6.9586053668432957E-2</v>
+        <v>-0.1085011269776061</v>
       </c>
       <c r="T132">
         <f>1/4*SUM(V132:V135)</f>
-        <v>-1.9879953750184531E-3</v>
+        <v>9.6698550077680828E-3</v>
       </c>
       <c r="V132">
         <f>X125-Z125</f>
-        <v>0.33680545393610012</v>
+        <v>0.1866882330444618</v>
       </c>
     </row>
     <row r="133" spans="1:29">
       <c r="F133">
-        <v>9.5130943129219533E-2</v>
+        <v>5.5209909128136767E-2</v>
       </c>
       <c r="G133">
-        <v>7.8794051092340958E-2</v>
+        <v>6.2398516477526846E-2</v>
       </c>
       <c r="H133">
-        <v>3.6741397965808317E-2</v>
+        <v>7.8291704142217991E-3</v>
       </c>
       <c r="K133">
-        <v>-0.38959562767658362</v>
+        <v>-0.17636525130031527</v>
       </c>
       <c r="L133">
-        <v>-0.32269014458106982</v>
+        <v>-0.1657776533466305</v>
       </c>
       <c r="M133">
-        <v>-0.1504693166214138</v>
+        <v>-2.6983057893613393E-2</v>
       </c>
       <c r="S133">
-        <v>-6.9586053668432957E-2</v>
+        <v>-0.13606743040832042</v>
       </c>
       <c r="V133">
         <f t="shared" ref="V133:V135" si="95">X126-Z126</f>
-        <v>-0.49068479275942267</v>
+        <v>-0.23292678413688239</v>
       </c>
     </row>
     <row r="134" spans="1:29">
       <c r="F134">
-        <v>3.8169936335380766E-2</v>
+        <v>3.0849983379176812E-2</v>
       </c>
       <c r="G134">
-        <v>3.1614991031005749E-2</v>
+        <v>2.8512808831814722E-2</v>
       </c>
       <c r="H134">
-        <v>1.4741962763081644E-2</v>
+        <v>2.9733945745527551E-3</v>
       </c>
       <c r="K134">
-        <v>-0.23588740117284068</v>
+        <v>-0.1270344856441244</v>
       </c>
       <c r="L134">
-        <v>-0.19537832096130536</v>
+        <v>-0.15573273669798468</v>
       </c>
       <c r="M134">
-        <v>-9.1104246384261844E-2</v>
+        <v>-2.3956800084594596E-2</v>
       </c>
       <c r="S134">
-        <v>-6.9586053668432957E-2</v>
+        <v>-1.6635101214790313E-2</v>
       </c>
       <c r="V134">
         <f t="shared" si="95"/>
-        <v>-0.34352415292066774</v>
+        <v>-0.20568066603765023</v>
       </c>
     </row>
     <row r="135" spans="1:29">
       <c r="K135">
-        <v>0.38856714651436375</v>
+        <v>0.25043441916083165</v>
       </c>
       <c r="L135">
-        <v>0.32183828508532836</v>
+        <v>0.26978397202524357</v>
       </c>
       <c r="M135">
-        <v>0.15007209743658842</v>
+        <v>3.5850378382805616E-2</v>
       </c>
       <c r="V135">
         <f t="shared" si="95"/>
-        <v>0.48945151024391648</v>
+        <v>0.29059863716114315</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -4477,63 +4477,63 @@
     <row r="138" spans="1:29">
       <c r="F138">
         <f>F125-$B$1*F132</f>
-        <v>1.9161668000220178</v>
+        <v>1.127018838663957</v>
       </c>
       <c r="G138">
         <f t="shared" ref="G138:H138" si="96">G125-$B$1*G132</f>
-        <v>1.8748098436510179</v>
+        <v>1.436305457049778</v>
       </c>
       <c r="H138">
         <f t="shared" si="96"/>
-        <v>0.53108383674810422</v>
+        <v>0.2717811216639815</v>
       </c>
       <c r="I138">
         <f>I125-$B$1*I132</f>
-        <v>-0.37906439754601207</v>
+        <v>-0.56484931791957849</v>
       </c>
       <c r="S138">
         <f>S125-$B$1*S132</f>
-        <v>0.93351209830626991</v>
+        <v>1.1597372635023269</v>
       </c>
       <c r="T138">
         <f>T125-$B$1*T132</f>
-        <v>-0.34251559503419604</v>
+        <v>-0.66085563104722156</v>
       </c>
     </row>
     <row r="139" spans="1:29">
       <c r="F139">
         <f t="shared" ref="F139:H139" si="97">F126-$B$1*F133</f>
-        <v>-0.84535717427113766</v>
+        <v>-0.41918605609383208</v>
       </c>
       <c r="G139">
         <f t="shared" si="97"/>
-        <v>-0.46388979401038599</v>
+        <v>-0.38786413283937476</v>
       </c>
       <c r="H139">
         <f t="shared" si="97"/>
-        <v>-9.0507812526767623E-2</v>
+        <v>6.417682536218286E-2</v>
       </c>
       <c r="S139">
         <f t="shared" ref="S139:S140" si="98">S126-$B$1*S133</f>
-        <v>0.79709963096202108</v>
+        <v>1.5072949590667872</v>
       </c>
     </row>
     <row r="140" spans="1:29">
       <c r="F140">
         <f t="shared" ref="F140:H140" si="99">F127-$B$1*F134</f>
-        <v>0.33276842197323991</v>
+        <v>0.44373050620114773</v>
       </c>
       <c r="G140">
         <f t="shared" si="99"/>
-        <v>0.18877274901088034</v>
+        <v>0.15743590831125903</v>
       </c>
       <c r="H140">
         <f t="shared" si="99"/>
-        <v>0.35265539112075023</v>
+        <v>0.40741197292147036</v>
       </c>
       <c r="S140">
         <f t="shared" si="98"/>
-        <v>0.44596147332391678</v>
+        <v>0.15664105597290651</v>
       </c>
     </row>
     <row r="142" spans="1:29" ht="37">
@@ -4639,68 +4639,68 @@
       </c>
       <c r="F145">
         <f>F138</f>
-        <v>1.9161668000220178</v>
+        <v>1.127018838663957</v>
       </c>
       <c r="G145">
         <f t="shared" ref="G145:H145" si="100">G138</f>
-        <v>1.8748098436510179</v>
+        <v>1.436305457049778</v>
       </c>
       <c r="H145">
         <f t="shared" si="100"/>
-        <v>0.53108383674810422</v>
+        <v>0.2717811216639815</v>
       </c>
       <c r="I145" s="3">
         <f>I138</f>
-        <v>-0.37906439754601207</v>
+        <v>-0.56484931791957849</v>
       </c>
       <c r="K145" s="3">
-        <f t="array" ref="K145:M148">MMULT(B145:D148,H145:H147)+I145</f>
-        <v>-0.46957221007277972</v>
+        <f t="array" ref="K145:M148">MMULT(B145:D148,F145:H147)+I145</f>
+        <v>-0.98403537401341057</v>
       </c>
       <c r="L145">
-        <v>-0.46957221007277972</v>
+        <v>-0.9527134507589532</v>
       </c>
       <c r="M145" s="4">
-        <v>-0.46957221007277972</v>
+        <v>-0.50067249255739565</v>
       </c>
       <c r="O145">
         <f>TANH(K145)</f>
-        <v>-0.43785360376041355</v>
+        <v>-0.75480748301980705</v>
       </c>
       <c r="P145">
         <f t="shared" ref="P145:Q145" si="101">TANH(L145)</f>
-        <v>-0.43785360376041355</v>
+        <v>-0.74100902353304898</v>
       </c>
       <c r="Q145">
         <f t="shared" si="101"/>
-        <v>-0.43785360376041355</v>
+        <v>-0.46264587311829514</v>
       </c>
       <c r="S145">
         <f>S138</f>
-        <v>0.93351209830626991</v>
+        <v>1.1597372635023269</v>
       </c>
       <c r="T145">
         <f>T138</f>
-        <v>-0.34251559503419604</v>
+        <v>-0.66085563104722156</v>
       </c>
       <c r="V145">
         <f t="array" ref="V145:V148">MMULT(O145:Q148,S145:S147)</f>
-        <v>-0.9530204206033428</v>
+        <v>-2.0647668687295941</v>
       </c>
       <c r="X145">
         <f>1/(1+EXP(-V145))</f>
-        <v>0.27827779686449139</v>
+        <v>0.11256875386875836</v>
       </c>
       <c r="Z145" s="2">
         <v>0</v>
       </c>
       <c r="AB145" s="4">
         <f>-(Z145*LOG(X145)+(1-Z145)*LOG(1-X145))</f>
-        <v>0.14162993381694697</v>
+        <v>5.1865283999587293E-2</v>
       </c>
       <c r="AC145" s="3">
         <f>1/4*SUM(AB145:AB148)</f>
-        <v>0.19520299727703039</v>
+        <v>7.5146158845288955E-2</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -4718,54 +4718,54 @@
       </c>
       <c r="F146">
         <f t="shared" ref="F146:H146" si="102">F139</f>
-        <v>-0.84535717427113766</v>
+        <v>-0.41918605609383208</v>
       </c>
       <c r="G146">
         <f t="shared" si="102"/>
-        <v>-0.46388979401038599</v>
+        <v>-0.38786413283937476</v>
       </c>
       <c r="H146">
         <f t="shared" si="102"/>
-        <v>-9.0507812526767623E-2</v>
+        <v>6.417682536218286E-2</v>
       </c>
       <c r="K146" s="3">
-        <v>0.15201943920209215</v>
+        <v>0.56216952074437854</v>
       </c>
       <c r="L146">
-        <v>0.15201943920209215</v>
+        <v>0.87145613913019948</v>
       </c>
       <c r="M146" s="4">
-        <v>0.15201943920209215</v>
+        <v>-0.29306819625559699</v>
       </c>
       <c r="O146">
         <f t="shared" ref="O146:O148" si="103">TANH(K146)</f>
-        <v>0.15085911219652143</v>
+        <v>0.50958535362291535</v>
       </c>
       <c r="P146">
         <f t="shared" ref="P146:P148" si="104">TANH(L146)</f>
-        <v>0.15085911219652143</v>
+        <v>0.70211320251410159</v>
       </c>
       <c r="Q146">
         <f t="shared" ref="Q146:Q148" si="105">TANH(M146)</f>
-        <v>0.15085911219652143</v>
+        <v>-0.28495632905690738</v>
       </c>
       <c r="S146">
         <f t="shared" ref="S146:S147" si="106">S139</f>
-        <v>0.79709963096202108</v>
+        <v>1.5072949590667872</v>
       </c>
       <c r="V146">
-        <v>0.3283559009737998</v>
+        <v>1.6046409540856119</v>
       </c>
       <c r="X146">
         <f t="shared" ref="X146:X148" si="107">1/(1+EXP(-V146))</f>
-        <v>0.58135928853261631</v>
+        <v>0.83266602337852402</v>
       </c>
       <c r="Z146" s="2">
         <v>1</v>
       </c>
       <c r="AB146" s="4">
         <f t="shared" ref="AB146:AB148" si="108">-(Z146*LOG(X146)+(1-Z146)*LOG(1-X146))</f>
-        <v>0.23555538430397321</v>
+        <v>7.9529156201880252E-2</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -4783,54 +4783,54 @@
       </c>
       <c r="F147">
         <f t="shared" ref="F147:H147" si="109">F140</f>
-        <v>0.33276842197323991</v>
+        <v>0.44373050620114773</v>
       </c>
       <c r="G147">
         <f t="shared" si="109"/>
-        <v>0.18877274901088034</v>
+        <v>0.15743590831125903</v>
       </c>
       <c r="H147">
         <f t="shared" si="109"/>
-        <v>0.35265539112075023</v>
+        <v>0.40741197292147036</v>
       </c>
       <c r="K147" s="3">
-        <v>0.41416701779607468</v>
+        <v>0.58671397085169408</v>
       </c>
       <c r="L147">
-        <v>0.41416701779607468</v>
+        <v>0.64102791460208375</v>
       </c>
       <c r="M147" s="4">
-        <v>0.41416701779607468</v>
+        <v>0.1785206020280562</v>
       </c>
       <c r="O147">
         <f t="shared" si="103"/>
-        <v>0.39200511044563441</v>
+        <v>0.52752814655802527</v>
       </c>
       <c r="P147">
         <f t="shared" si="104"/>
-        <v>0.39200511044563441</v>
+        <v>0.56559904165534713</v>
       </c>
       <c r="Q147">
         <f t="shared" si="105"/>
-        <v>0.39200511044563441</v>
+        <v>0.17664800954605564</v>
       </c>
       <c r="S147">
         <f t="shared" si="106"/>
-        <v>0.44596147332391678</v>
+        <v>0.15664105597290651</v>
       </c>
       <c r="V147">
-        <v>0.85322781867516662</v>
+        <v>1.4919889642005753</v>
       </c>
       <c r="X147">
         <f t="shared" si="107"/>
-        <v>0.70124381244446454</v>
+        <v>0.81637661756021584</v>
       </c>
       <c r="Z147" s="2">
         <v>1</v>
       </c>
       <c r="AB147" s="4">
         <f t="shared" si="108"/>
-        <v>0.15413095779721689</v>
+        <v>8.8109442723724035E-2</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -4848,39 +4848,39 @@
       </c>
       <c r="H148" s="3"/>
       <c r="K148" s="3">
-        <v>-0.11691681895202943</v>
+        <v>-0.54030486781226283</v>
       </c>
       <c r="L148">
-        <v>-0.11691681895202943</v>
+        <v>-0.79527754244769422</v>
       </c>
       <c r="M148" s="4">
-        <v>-0.11691681895202943</v>
+        <v>-9.3260519635925299E-2</v>
       </c>
       <c r="O148">
         <f t="shared" si="103"/>
-        <v>-0.11638698266744606</v>
+        <v>-0.49321870560152986</v>
       </c>
       <c r="P148">
         <f t="shared" si="104"/>
-        <v>-0.11638698266744606</v>
+        <v>-0.66138837057858202</v>
       </c>
       <c r="Q148">
         <f t="shared" si="105"/>
-        <v>-0.11638698266744606</v>
+        <v>-9.2991078433523139E-2</v>
       </c>
       <c r="V148">
-        <v>-0.25332478760452687</v>
+        <v>-1.5834776896228573</v>
       </c>
       <c r="X148">
         <f t="shared" si="107"/>
-        <v>0.43700532545640564</v>
+        <v>0.17030352009596156</v>
       </c>
       <c r="Z148" s="2">
         <v>0</v>
       </c>
       <c r="AB148" s="4">
         <f t="shared" si="108"/>
-        <v>0.24949571318998454</v>
+        <v>8.1080752455964231E-2</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -4917,108 +4917,108 @@
     <row r="152" spans="1:29">
       <c r="F152">
         <f t="array" ref="F152:H154">1/4*MMULT(TRANSPOSE(B145:D148),K152:M155)</f>
-        <v>-0.15448691911354173</v>
+        <v>-7.4340529546626621E-2</v>
       </c>
       <c r="G152">
-        <v>-0.13191201960562382</v>
+        <v>-7.9029875259114396E-2</v>
       </c>
       <c r="H152">
-        <v>-7.3802165159025546E-2</v>
+        <v>-1.2987107697613832E-2</v>
       </c>
       <c r="I152">
         <f>1/4*SUM(K152:M155)</f>
-        <v>-3.2358972038054185E-3</v>
+        <v>-4.9644282407317754E-2</v>
       </c>
       <c r="K152">
         <f t="array" ref="K152:M155">MMULT(V152:V155,TRANSPOSE(S145:S147))*(1-(O145:Q148)^2)</f>
-        <v>0.20997259145241709</v>
+        <v>5.6171259211532848E-2</v>
       </c>
       <c r="L152">
-        <v>0.17928966904931301</v>
+        <v>7.6507103512993155E-2</v>
       </c>
       <c r="M152">
-        <v>0.10030902268075281</v>
+        <v>1.3858723797777863E-2</v>
       </c>
       <c r="S152">
         <f t="array" ref="S152:S154">1/4*MMULT(TRANSPOSE(O145:Q148),V152:V155)</f>
-        <v>-8.8244096450854015E-2</v>
+        <v>-8.7775516442106558E-2</v>
       </c>
       <c r="T152">
         <f>1/4*SUM(V152:V155)</f>
-        <v>-5.2844417550552969E-4</v>
+        <v>-1.7021271274135052E-2</v>
       </c>
       <c r="V152">
         <f>X145-Z145</f>
-        <v>0.27827779686449139</v>
+        <v>0.11256875386875836</v>
       </c>
     </row>
     <row r="153" spans="1:29">
       <c r="F153">
-        <v>9.409015810566887E-2</v>
+        <v>1.2984876652776124E-2</v>
       </c>
       <c r="G153">
-        <v>8.0340930170334945E-2</v>
+        <v>8.1706359623914086E-3</v>
       </c>
       <c r="H153">
-        <v>4.4949160927015411E-2</v>
+        <v>3.1097849667186751E-3</v>
       </c>
       <c r="K153">
-        <v>-0.38191201784822459</v>
+        <v>-0.14366958897143758</v>
       </c>
       <c r="L153">
-        <v>-0.32610389200002071</v>
+        <v>-0.12788572636540099</v>
       </c>
       <c r="M153">
-        <v>-0.18244867577905313</v>
+        <v>-2.408300461997722E-2</v>
       </c>
       <c r="S153">
-        <v>-8.8244096450854015E-2</v>
+        <v>-0.10434895834831627</v>
       </c>
       <c r="V153">
         <f t="shared" ref="V153:V155" si="110">X146-Z146</f>
-        <v>-0.41864071146738369</v>
+        <v>-0.16733397662147598</v>
       </c>
     </row>
     <row r="154" spans="1:29">
       <c r="F154">
-        <v>4.1597010242564597E-2</v>
+        <v>-1.0579381501070878E-3</v>
       </c>
       <c r="G154">
-        <v>3.5518512908006686E-2</v>
+        <v>-1.095613991585688E-2</v>
       </c>
       <c r="H154">
-        <v>1.9871905256827208E-2</v>
+        <v>-3.5489598272579054E-4</v>
       </c>
       <c r="K154">
-        <v>-0.23603565860594239</v>
+        <v>-0.1536925292150689</v>
       </c>
       <c r="L154">
-        <v>-0.20154418642247457</v>
+        <v>-0.18823377467105662</v>
       </c>
       <c r="M154">
-        <v>-0.11275998485704908</v>
+        <v>-2.7865426170478109E-2</v>
       </c>
       <c r="S154">
-        <v>-8.8244096450854015E-2</v>
+        <v>-1.3167501680937672E-2</v>
       </c>
       <c r="V154">
         <f t="shared" si="110"/>
-        <v>-0.29875618755553546</v>
+        <v>-0.18362338243978416</v>
       </c>
     </row>
     <row r="155" spans="1:29">
       <c r="K155">
-        <v>0.40242369957620078</v>
+        <v>0.14946077661464055</v>
       </c>
       <c r="L155">
-        <v>0.34361823805450131</v>
+        <v>0.1444092150076291</v>
       </c>
       <c r="M155">
-        <v>0.19224760588435791</v>
+        <v>2.6445842239574947E-2</v>
       </c>
       <c r="V155">
         <f t="shared" si="110"/>
-        <v>0.43700532545640564</v>
+        <v>0.17030352009596156</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -5043,63 +5043,63 @@
     <row r="158" spans="1:29">
       <c r="F158">
         <f>F145-$B$1*F152</f>
-        <v>2.2251406382491012</v>
+        <v>1.2756998977572103</v>
       </c>
       <c r="G158">
         <f t="shared" ref="G158:H158" si="111">G145-$B$1*G152</f>
-        <v>2.1386338828622655</v>
+        <v>1.5943652075680068</v>
       </c>
       <c r="H158">
         <f t="shared" si="111"/>
-        <v>0.67868816706615531</v>
+        <v>0.29775533705920915</v>
       </c>
       <c r="I158">
         <f>I145-$B$1*I152</f>
-        <v>-0.37259260313840126</v>
+        <v>-0.46556075310494299</v>
       </c>
       <c r="S158">
         <f>S145-$B$1*S152</f>
-        <v>1.1100002912079781</v>
+        <v>1.33528829638654</v>
       </c>
       <c r="T158">
         <f>T145-$B$1*T152</f>
-        <v>-0.34145870668318501</v>
+        <v>-0.62681308849895145</v>
       </c>
     </row>
     <row r="159" spans="1:29">
       <c r="F159">
         <f t="shared" ref="F159:H159" si="112">F146-$B$1*F153</f>
-        <v>-1.0335374904824755</v>
+        <v>-0.44515580939938432</v>
       </c>
       <c r="G159">
         <f t="shared" si="112"/>
-        <v>-0.62457165435105588</v>
+        <v>-0.40420540476415756</v>
       </c>
       <c r="H159">
         <f t="shared" si="112"/>
-        <v>-0.18040613438079844</v>
+        <v>5.7957255428745511E-2</v>
       </c>
       <c r="S159">
         <f t="shared" ref="S159:S160" si="113">S146-$B$1*S153</f>
-        <v>0.97358782386372911</v>
+        <v>1.7159928757634197</v>
       </c>
     </row>
     <row r="160" spans="1:29">
       <c r="F160">
         <f t="shared" ref="F160:H160" si="114">F147-$B$1*F154</f>
-        <v>0.24957440148811072</v>
+        <v>0.44584638250136188</v>
       </c>
       <c r="G160">
         <f t="shared" si="114"/>
-        <v>0.11773572319486697</v>
+        <v>0.17934818814297279</v>
       </c>
       <c r="H160">
         <f t="shared" si="114"/>
-        <v>0.31291158060709579</v>
+        <v>0.40812176488692192</v>
       </c>
       <c r="S160">
         <f t="shared" si="113"/>
-        <v>0.62244966622562481</v>
+        <v>0.18297605933478184</v>
       </c>
     </row>
     <row r="162" spans="1:29" ht="37">
@@ -5205,68 +5205,68 @@
       </c>
       <c r="F165">
         <f>F158</f>
-        <v>2.2251406382491012</v>
+        <v>1.2756998977572103</v>
       </c>
       <c r="G165">
         <f t="shared" ref="G165:H165" si="115">G158</f>
-        <v>2.1386338828622655</v>
+        <v>1.5943652075680068</v>
       </c>
       <c r="H165">
         <f t="shared" si="115"/>
-        <v>0.67868816706615531</v>
+        <v>0.29775533705920915</v>
       </c>
       <c r="I165" s="3">
         <f>I158</f>
-        <v>-0.37259260313840126</v>
+        <v>-0.46556075310494299</v>
       </c>
       <c r="K165" s="3">
-        <f t="array" ref="K165:M168">MMULT(B165:D168,H165:H167)+I165</f>
-        <v>-0.5529987375191997</v>
+        <f t="array" ref="K165:M168">MMULT(B165:D168,F165:H167)+I165</f>
+        <v>-0.91071656250432731</v>
       </c>
       <c r="L165">
-        <v>-0.5529987375191997</v>
+        <v>-0.8697661578691005</v>
       </c>
       <c r="M165" s="4">
-        <v>-0.5529987375191997</v>
+        <v>-0.40760349767619747</v>
       </c>
       <c r="O165">
         <f>TANH(K165)</f>
-        <v>-0.50276432855438091</v>
+        <v>-0.72147600365704323</v>
       </c>
       <c r="P165">
         <f t="shared" ref="P165:Q165" si="116">TANH(L165)</f>
-        <v>-0.50276432855438091</v>
+        <v>-0.70125530226767041</v>
       </c>
       <c r="Q165">
         <f t="shared" si="116"/>
-        <v>-0.50276432855438091</v>
+        <v>-0.38643594425771882</v>
       </c>
       <c r="S165">
         <f>S158</f>
-        <v>1.1100002912079781</v>
+        <v>1.33528829638654</v>
       </c>
       <c r="T165">
         <f>T158</f>
-        <v>-0.34145870668318501</v>
+        <v>-0.62681308849895145</v>
       </c>
       <c r="V165">
         <f t="array" ref="V165:V168">MMULT(O165:Q168,S165:S167)</f>
-        <v>-1.3604992681567398</v>
+        <v>-2.237436092855221</v>
       </c>
       <c r="X165">
         <f>1/(1+EXP(-V165))</f>
-        <v>0.20415917010913126</v>
+        <v>9.6438725165358188E-2</v>
       </c>
       <c r="Z165" s="2">
         <v>0</v>
       </c>
       <c r="AB165" s="4">
         <f>-(Z165*LOG(X165)+(1-Z165)*LOG(1-X165))</f>
-        <v>9.9173783534156595E-2</v>
+        <v>4.4042390507340226E-2</v>
       </c>
       <c r="AC165" s="3">
         <f>1/4*SUM(AB165:AB168)</f>
-        <v>0.14180731499595431</v>
+        <v>5.3323227889003025E-2</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -5284,54 +5284,54 @@
       </c>
       <c r="F166">
         <f>F159</f>
-        <v>-1.0335374904824755</v>
+        <v>-0.44515580939938432</v>
       </c>
       <c r="G166">
         <f t="shared" ref="G166:H166" si="117">G159</f>
-        <v>-0.62457165435105588</v>
+        <v>-0.40420540476415756</v>
       </c>
       <c r="H166">
         <f t="shared" si="117"/>
-        <v>-0.18040613438079844</v>
+        <v>5.7957255428745511E-2</v>
       </c>
       <c r="K166" s="3">
-        <v>0.30609556392775406</v>
+        <v>0.81013914465226722</v>
       </c>
       <c r="L166">
-        <v>0.30609556392775406</v>
+        <v>1.1288044544630638</v>
       </c>
       <c r="M166" s="4">
-        <v>0.30609556392775406</v>
+        <v>-0.16780541604573385</v>
       </c>
       <c r="O166">
         <f t="shared" ref="O166:O168" si="118">TANH(K166)</f>
-        <v>0.29688093159403506</v>
+        <v>0.66966701145948282</v>
       </c>
       <c r="P166">
         <f t="shared" ref="P166:P168" si="119">TANH(L166)</f>
-        <v>0.29688093159403506</v>
+        <v>0.81060969239393355</v>
       </c>
       <c r="Q166">
         <f t="shared" ref="Q166:Q168" si="120">TANH(M166)</f>
-        <v>0.29688093159403506</v>
+        <v>-0.16624789831874451</v>
       </c>
       <c r="S166">
         <f t="shared" ref="S166:S167" si="121">S159</f>
-        <v>0.97358782386372911</v>
+        <v>1.7159928757634197</v>
       </c>
       <c r="V166">
-        <v>0.80337101744020767</v>
+        <v>2.2547795947437117</v>
       </c>
       <c r="X166">
         <f t="shared" ref="X166:X168" si="122">1/(1+EXP(-V166))</f>
-        <v>0.6906951122653554</v>
+        <v>0.9050620165033969</v>
       </c>
       <c r="Z166" s="2">
         <v>1</v>
       </c>
       <c r="AB166" s="4">
         <f t="shared" ref="AB166:AB168" si="123">-(Z166*LOG(X166)+(1-Z166)*LOG(1-X166))</f>
-        <v>0.16071361728717271</v>
+        <v>4.3321661123606213E-2</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -5349,54 +5349,54 @@
       </c>
       <c r="F167">
         <f t="shared" ref="F167:H167" si="124">F160</f>
-        <v>0.24957440148811072</v>
+        <v>0.44584638250136188</v>
       </c>
       <c r="G167">
         <f t="shared" si="124"/>
-        <v>0.11773572319486697</v>
+        <v>0.17934818814297279</v>
       </c>
       <c r="H167">
         <f t="shared" si="124"/>
-        <v>0.31291158060709579</v>
+        <v>0.40812176488692192</v>
       </c>
       <c r="K167" s="3">
-        <v>0.4386010101540514</v>
+        <v>0.81082971775424473</v>
       </c>
       <c r="L167">
-        <v>0.4386010101540514</v>
+        <v>0.90394723784187891</v>
       </c>
       <c r="M167" s="4">
-        <v>0.4386010101540514</v>
+        <v>0.2982736042699336</v>
       </c>
       <c r="O167">
         <f t="shared" si="118"/>
-        <v>0.4124841512311766</v>
+        <v>0.67004771823643616</v>
       </c>
       <c r="P167">
         <f t="shared" si="119"/>
-        <v>0.4124841512311766</v>
+        <v>0.71821442002983438</v>
       </c>
       <c r="Q167">
         <f t="shared" si="120"/>
-        <v>0.4124841512311766</v>
+        <v>0.28973193052074353</v>
       </c>
       <c r="S167">
         <f t="shared" si="121"/>
-        <v>0.62244966622562481</v>
+        <v>0.18297605933478184</v>
       </c>
       <c r="V167">
-        <v>1.1161976974179262</v>
+        <v>2.1801717111335162</v>
       </c>
       <c r="X167">
         <f t="shared" si="122"/>
-        <v>0.75328274742897938</v>
+        <v>0.8984547390370512</v>
       </c>
       <c r="Z167" s="2">
         <v>1</v>
       </c>
       <c r="AB167" s="4">
         <f t="shared" si="123"/>
-        <v>0.1230419791785867</v>
+        <v>4.6503796219515482E-2</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -5414,39 +5414,39 @@
       </c>
       <c r="H168" s="3"/>
       <c r="K168" s="3">
-        <v>-0.24008715691210392</v>
+        <v>-0.46487018000296543</v>
       </c>
       <c r="L168">
-        <v>-0.24008715691210392</v>
+        <v>-0.69041796972612779</v>
       </c>
       <c r="M168" s="4">
-        <v>-0.24008715691210392</v>
+        <v>5.1826721072445459E-4</v>
       </c>
       <c r="O168">
         <f t="shared" si="118"/>
-        <v>-0.23557807119108393</v>
+        <v>-0.43404521439666383</v>
       </c>
       <c r="P168">
         <f t="shared" si="119"/>
-        <v>-0.23557807119108393</v>
+        <v>-0.59825044446671338</v>
       </c>
       <c r="Q168">
         <f t="shared" si="120"/>
-        <v>-0.23557807119108393</v>
+        <v>5.1826716432211276E-4</v>
       </c>
       <c r="V168">
-        <v>-0.63748316108822567</v>
+        <v>-1.606074165030221</v>
       </c>
       <c r="X168">
         <f t="shared" si="122"/>
-        <v>0.34581569564873327</v>
+        <v>0.16713437778577733</v>
       </c>
       <c r="Z168" s="2">
         <v>0</v>
       </c>
       <c r="AB168" s="4">
         <f t="shared" si="123"/>
-        <v>0.18429987998390115</v>
+        <v>7.9425063705550206E-2</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -5483,108 +5483,108 @@
     <row r="172" spans="1:29">
       <c r="F172">
         <f t="array" ref="F172:H174">1/4*MMULT(TRANSPOSE(B165:D168),K172:M175)</f>
-        <v>-0.13508239577416364</v>
+        <v>-3.6158863971970087E-2</v>
       </c>
       <c r="G172">
-        <v>-0.11848156868584589</v>
+        <v>-3.5057879237243288E-2</v>
       </c>
       <c r="H172">
-        <v>-7.5749522615964515E-2</v>
+        <v>-8.4779733241288884E-3</v>
       </c>
       <c r="I172">
         <f>1/4*SUM(K172:M175)</f>
-        <v>-5.1454453172126713E-3</v>
+        <v>5.9486713214808182E-2</v>
       </c>
       <c r="K172">
         <f t="array" ref="K172:M175">MMULT(V172:V175,TRANSPOSE(S165:S167))*(1-(O165:Q168)^2)</f>
-        <v>0.16933437889031913</v>
+        <v>6.174333652446496E-2</v>
       </c>
       <c r="L172">
-        <v>0.14852418576370646</v>
+        <v>8.4107870808579427E-2</v>
       </c>
       <c r="M172">
-        <v>9.4956846818568724E-2</v>
+        <v>1.5010855685928116E-2</v>
       </c>
       <c r="S172">
         <f t="array" ref="S172:S174">1/4*MMULT(TRANSPOSE(O165:Q168),V172:V175)</f>
-        <v>-9.4426055596190869E-2</v>
+        <v>-6.8434777239317623E-2</v>
       </c>
       <c r="T172">
         <f>1/4*SUM(V172:V175)</f>
-        <v>-1.5118186369501713E-3</v>
+        <v>1.6772464622895906E-2</v>
       </c>
       <c r="V172">
         <f>X165-Z165</f>
-        <v>0.20415917010913126</v>
+        <v>9.6438725165358188E-2</v>
       </c>
     </row>
     <row r="173" spans="1:29">
       <c r="F173">
-        <v>7.6156401537665536E-2</v>
+        <v>4.2038767896773889E-2</v>
       </c>
       <c r="G173">
-        <v>6.6797230445461028E-2</v>
+        <v>4.5973820126117393E-2</v>
       </c>
       <c r="H173">
-        <v>4.2705868722319726E-2</v>
+        <v>7.1429514093314722E-3</v>
       </c>
       <c r="K173">
-        <v>-0.31306812804000933</v>
+        <v>-6.9919265689307994E-2</v>
       </c>
       <c r="L173">
-        <v>-0.27459390768975439</v>
+        <v>-5.5864777544808057E-2</v>
       </c>
       <c r="M173">
-        <v>-0.17555774836087212</v>
+        <v>-1.6891261635542221E-2</v>
       </c>
       <c r="S173">
-        <v>-9.4426055596190869E-2</v>
+        <v>-7.9376325867528782E-2</v>
       </c>
       <c r="V173">
         <f t="shared" ref="V173:V175" si="125">X166-Z166</f>
-        <v>-0.3093048877346446</v>
+        <v>-9.4937983496603096E-2</v>
       </c>
     </row>
     <row r="174" spans="1:29">
       <c r="F174">
-        <v>3.382280681508576E-2</v>
+        <v>2.6602933765657651E-2</v>
       </c>
       <c r="G174">
-        <v>2.9666184004534413E-2</v>
+        <v>2.494685242397254E-2</v>
       </c>
       <c r="H174">
-        <v>1.8966657017677545E-2</v>
+        <v>3.3902374878494431E-3</v>
       </c>
       <c r="K174">
-        <v>-0.2272614550566453</v>
+        <v>-7.4716190198572369E-2</v>
       </c>
       <c r="L174">
-        <v>-0.19933236705362917</v>
+        <v>-8.43667394041651E-2</v>
       </c>
       <c r="M174">
-        <v>-0.12744034210298591</v>
+        <v>-1.7020631660973333E-2</v>
       </c>
       <c r="S174">
-        <v>-9.4426055596190869E-2</v>
+        <v>-1.2704608457336996E-2</v>
       </c>
       <c r="V174">
         <f t="shared" si="125"/>
-        <v>-0.24671725257102062</v>
+        <v>-0.1015452609629488</v>
       </c>
     </row>
     <row r="175" spans="1:29">
       <c r="K175">
-        <v>0.36255268231698834</v>
+        <v>0.18112792526120297</v>
       </c>
       <c r="L175">
-        <v>0.31799710307176682</v>
+        <v>0.18415414910005526</v>
       </c>
       <c r="M175">
-        <v>0.20330697017369609</v>
+        <v>3.0581581612371105E-2</v>
       </c>
       <c r="V175">
         <f t="shared" si="125"/>
-        <v>0.34581569564873327</v>
+        <v>0.16713437778577733</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -5609,63 +5609,63 @@
     <row r="178" spans="1:29">
       <c r="F178">
         <f>F165-$B$1*F172</f>
-        <v>2.4953054297974284</v>
+        <v>1.3480176257011505</v>
       </c>
       <c r="G178">
         <f t="shared" ref="G178:H178" si="126">G165-$B$1*G172</f>
-        <v>2.3755970202339571</v>
+        <v>1.6644809660424933</v>
       </c>
       <c r="H178">
         <f t="shared" si="126"/>
-        <v>0.83018721229808434</v>
+        <v>0.31471128370746693</v>
       </c>
       <c r="I178">
         <f>I165-$B$1*I172</f>
-        <v>-0.36230171250397591</v>
+        <v>-0.58453417953455933</v>
       </c>
       <c r="S178">
         <f>S165-$B$1*S172</f>
-        <v>1.2988524024003598</v>
+        <v>1.4721578508651754</v>
       </c>
       <c r="T178">
         <f>T165-$B$1*T172</f>
-        <v>-0.33843506940928469</v>
+        <v>-0.66035801774474323</v>
       </c>
     </row>
     <row r="179" spans="1:29">
       <c r="F179">
         <f t="shared" ref="F179:H179" si="127">F166-$B$1*F173</f>
-        <v>-1.1858502935578066</v>
+        <v>-0.52923334519293208</v>
       </c>
       <c r="G179">
         <f t="shared" si="127"/>
-        <v>-0.75816611524197797</v>
+        <v>-0.49615304501639235</v>
       </c>
       <c r="H179">
         <f t="shared" si="127"/>
-        <v>-0.26581787182543792</v>
+        <v>4.3671352610082564E-2</v>
       </c>
       <c r="S179">
         <f t="shared" ref="S179:S180" si="128">S166-$B$1*S173</f>
-        <v>1.1624399350561108</v>
+        <v>1.8747455274984772</v>
       </c>
     </row>
     <row r="180" spans="1:29">
       <c r="F180">
         <f t="shared" ref="F180:H180" si="129">F167-$B$1*F174</f>
-        <v>0.1819287878579392</v>
+        <v>0.39264051497004659</v>
       </c>
       <c r="G180">
         <f t="shared" si="129"/>
-        <v>5.8403355185798145E-2</v>
+        <v>0.12945448329502771</v>
       </c>
       <c r="H180">
         <f t="shared" si="129"/>
-        <v>0.27497826657174068</v>
+        <v>0.40134128991122303</v>
       </c>
       <c r="S180">
         <f t="shared" si="128"/>
-        <v>0.81130177741800658</v>
+        <v>0.20838527624945583</v>
       </c>
     </row>
     <row r="182" spans="1:29" ht="37">
@@ -5771,68 +5771,68 @@
       </c>
       <c r="F185">
         <f>F178</f>
-        <v>2.4953054297974284</v>
+        <v>1.3480176257011505</v>
       </c>
       <c r="G185">
         <f t="shared" ref="G185:H185" si="130">G178</f>
-        <v>2.3755970202339571</v>
+        <v>1.6644809660424933</v>
       </c>
       <c r="H185">
         <f t="shared" si="130"/>
-        <v>0.83018721229808434</v>
+        <v>0.31471128370746693</v>
       </c>
       <c r="I185" s="3">
         <f>I178</f>
-        <v>-0.36230171250397591</v>
+        <v>-0.58453417953455933</v>
       </c>
       <c r="K185" s="3">
-        <f t="array" ref="K185:M188">MMULT(B185:D188,H185:H187)+I185</f>
-        <v>-0.62811958432941384</v>
+        <f t="array" ref="K185:M188">MMULT(B185:D188,F185:H187)+I185</f>
+        <v>-1.1137675247274914</v>
       </c>
       <c r="L185">
-        <v>-0.62811958432941384</v>
+        <v>-1.0806872245509518</v>
       </c>
       <c r="M185" s="4">
-        <v>-0.62811958432941384</v>
+        <v>-0.54086282692447674</v>
       </c>
       <c r="O185">
         <f>TANH(K185)</f>
-        <v>-0.55675604458029171</v>
+        <v>-0.80539012146729594</v>
       </c>
       <c r="P185">
         <f t="shared" ref="P185:Q185" si="131">TANH(L185)</f>
-        <v>-0.55675604458029171</v>
+        <v>-0.79345380524904563</v>
       </c>
       <c r="Q185">
         <f t="shared" si="131"/>
-        <v>-0.55675604458029171</v>
+        <v>-0.4936408167553602</v>
       </c>
       <c r="S185">
         <f>S178</f>
-        <v>1.2988524024003598</v>
+        <v>1.4721578508651754</v>
       </c>
       <c r="T185">
         <f>T178</f>
-        <v>-0.33843506940928469</v>
+        <v>-0.66035801774474323</v>
       </c>
       <c r="V185">
         <f t="array" ref="V185:V188">MMULT(O185:Q188,S185:S187)</f>
-        <v>-1.8220365549142548</v>
+        <v>-2.7760528409622056</v>
       </c>
       <c r="X185">
         <f>1/(1+EXP(-V185))</f>
-        <v>0.13918968192281186</v>
+        <v>5.8632037138957989E-2</v>
       </c>
       <c r="Z185" s="2">
         <v>0</v>
       </c>
       <c r="AB185" s="4">
         <f>-(Z185*LOG(X185)+(1-Z185)*LOG(1-X185))</f>
-        <v>6.5092535988640565E-2</v>
+        <v>2.6240585920453786E-2</v>
       </c>
       <c r="AC185" s="3">
         <f>1/4*SUM(AB185:AB188)</f>
-        <v>9.3354268265042534E-2</v>
+        <v>4.0039484778623478E-2</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -5850,54 +5850,54 @@
       </c>
       <c r="F186">
         <f>F179</f>
-        <v>-1.1858502935578066</v>
+        <v>-0.52923334519293208</v>
       </c>
       <c r="G186">
         <f t="shared" ref="G186:H186" si="132">G179</f>
-        <v>-0.75816611524197797</v>
+        <v>-0.49615304501639235</v>
       </c>
       <c r="H186">
         <f t="shared" si="132"/>
-        <v>-0.26581787182543792</v>
+        <v>4.3671352610082564E-2</v>
       </c>
       <c r="K186" s="3">
-        <v>0.46788549979410843</v>
+        <v>0.76348344616659114</v>
       </c>
       <c r="L186">
-        <v>0.46788549979410843</v>
+        <v>1.079946786507934</v>
       </c>
       <c r="M186" s="4">
-        <v>0.46788549979410843</v>
+        <v>-0.2698228958270924</v>
       </c>
       <c r="O186">
         <f t="shared" ref="O186:O188" si="133">TANH(K186)</f>
-        <v>0.43648925613486239</v>
+        <v>0.64312420170502582</v>
       </c>
       <c r="P186">
         <f t="shared" ref="P186:P188" si="134">TANH(L186)</f>
-        <v>0.43648925613486239</v>
+        <v>0.79317936281499013</v>
       </c>
       <c r="Q186">
         <f t="shared" ref="Q186:Q188" si="135">TANH(M186)</f>
-        <v>0.43648925613486239</v>
+        <v>-0.26346003200185059</v>
       </c>
       <c r="S186">
         <f t="shared" ref="S186:S187" si="136">S179</f>
-        <v>1.1624399350561108</v>
+        <v>1.8747455274984772</v>
       </c>
       <c r="V186">
-        <v>1.4284521708328888</v>
+        <v>2.378888614013551</v>
       </c>
       <c r="X186">
         <f t="shared" ref="X186:X188" si="137">1/(1+EXP(-V186))</f>
-        <v>0.80666003148570598</v>
+        <v>0.91520322352459527</v>
       </c>
       <c r="Z186" s="2">
         <v>1</v>
       </c>
       <c r="AB186" s="4">
         <f t="shared" ref="AB186:AB188" si="138">-(Z186*LOG(X186)+(1-Z186)*LOG(1-X186))</f>
-        <v>9.3309461013192749E-2</v>
+        <v>3.8482458878325347E-2</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -5915,54 +5915,54 @@
       </c>
       <c r="F187">
         <f t="shared" ref="F187:H187" si="139">F180</f>
-        <v>0.1819287878579392</v>
+        <v>0.39264051497004659</v>
       </c>
       <c r="G187">
         <f t="shared" si="139"/>
-        <v>5.8403355185798145E-2</v>
+        <v>0.12945448329502771</v>
       </c>
       <c r="H187">
         <f t="shared" si="139"/>
-        <v>0.27497826657174068</v>
+        <v>0.40134128991122303</v>
       </c>
       <c r="K187" s="3">
-        <v>0.47704589454041113</v>
+        <v>0.62689061594370576</v>
       </c>
       <c r="L187">
-        <v>0.47704589454041113</v>
+        <v>0.71324822478656924</v>
       </c>
       <c r="M187" s="4">
-        <v>0.47704589454041113</v>
+        <v>0.17518974669421317</v>
       </c>
       <c r="O187">
         <f t="shared" si="133"/>
-        <v>0.4438746497415148</v>
+        <v>0.55590744827563221</v>
       </c>
       <c r="P187">
         <f t="shared" si="134"/>
-        <v>0.4438746497415148</v>
+        <v>0.61270966997903253</v>
       </c>
       <c r="Q187">
         <f t="shared" si="135"/>
-        <v>0.4438746497415148</v>
+        <v>0.17341920409894696</v>
       </c>
       <c r="S187">
         <f t="shared" si="136"/>
-        <v>0.81130177741800658</v>
+        <v>0.20838527624945583</v>
       </c>
       <c r="V187">
-        <v>1.4526215664860511</v>
+        <v>2.0031962365347775</v>
       </c>
       <c r="X187">
         <f t="shared" si="137"/>
-        <v>0.81040156776199335</v>
+        <v>0.88113225407741458</v>
       </c>
       <c r="Z187" s="2">
         <v>1</v>
       </c>
       <c r="AB187" s="4">
         <f t="shared" si="138"/>
-        <v>9.1299727482766047E-2</v>
+        <v>5.4958901003073685E-2</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -5980,39 +5980,39 @@
       </c>
       <c r="H188" s="3"/>
       <c r="K188" s="3">
-        <v>-0.35314131775767316</v>
+        <v>-0.72112700975744481</v>
       </c>
       <c r="L188">
-        <v>-0.35314131775767316</v>
+        <v>-0.95123274125592394</v>
       </c>
       <c r="M188" s="4">
-        <v>-0.35314131775767316</v>
+        <v>-0.13952153701325376</v>
       </c>
       <c r="O188">
         <f t="shared" si="133"/>
-        <v>-0.33915847690597606</v>
+        <v>-0.61760691322501748</v>
       </c>
       <c r="P188">
         <f t="shared" si="134"/>
-        <v>-0.33915847690597606</v>
+        <v>-0.74034063040088893</v>
       </c>
       <c r="Q188">
         <f t="shared" si="135"/>
-        <v>-0.33915847690597606</v>
+        <v>-0.13862321038368663</v>
       </c>
       <c r="V188">
-        <v>-1.1099280355322885</v>
+        <v>-2.3260521877126767</v>
       </c>
       <c r="X188">
         <f t="shared" si="137"/>
-        <v>0.24788430520514712</v>
+        <v>8.8988190724870783E-2</v>
       </c>
       <c r="Z188" s="2">
         <v>0</v>
       </c>
       <c r="AB188" s="4">
         <f t="shared" si="138"/>
-        <v>0.12371534857557076</v>
+        <v>4.0475993312641088E-2</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -6049,108 +6049,108 @@
     <row r="192" spans="1:29">
       <c r="F192">
         <f t="array" ref="F192:H194">1/4*MMULT(TRANSPOSE(B185:D188),K192:M195)</f>
-        <v>-0.1002542410677299</v>
+        <v>-4.8528861970334916E-2</v>
       </c>
       <c r="G192">
-        <v>-8.9725001286134837E-2</v>
+        <v>-4.9536174128503183E-2</v>
       </c>
       <c r="H192">
-        <v>-6.2621775824279788E-2</v>
+        <v>-1.0117304304343305E-2</v>
       </c>
       <c r="I192">
         <f>1/4*SUM(K192:M195)</f>
-        <v>5.4549672777125038E-3</v>
+        <v>-4.4458064027738775E-2</v>
       </c>
       <c r="K192">
         <f t="array" ref="K192:M195">MMULT(V192:V195,TRANSPOSE(S185:S187))*(1-(O185:Q188)^2)</f>
-        <v>0.12474703349592438</v>
+        <v>3.032671057168098E-2</v>
       </c>
       <c r="L192">
-        <v>0.1116454288781817</v>
+        <v>4.0717837338544824E-2</v>
       </c>
       <c r="M192">
-        <v>7.7920701240440662E-2</v>
+        <v>9.2407426933117515E-3</v>
       </c>
       <c r="S192">
         <f t="array" ref="S192:S194">1/4*MMULT(TRANSPOSE(O185:Q188),V192:V195)</f>
-        <v>-8.2528879223783727E-2</v>
+        <v>-5.5698927449072948E-2</v>
       </c>
       <c r="T192">
         <f>1/4*SUM(V192:V195)</f>
-        <v>1.0338965939145767E-3</v>
+        <v>-1.4011073633540348E-2</v>
       </c>
       <c r="V192">
         <f>X185-Z185</f>
-        <v>0.13918968192281186</v>
+        <v>5.8632037138957989E-2</v>
       </c>
     </row>
     <row r="193" spans="1:22">
       <c r="F193">
-        <v>5.2984000390379205E-2</v>
+        <v>-2.3881405559056657E-3</v>
       </c>
       <c r="G193">
-        <v>4.7419335606556909E-2</v>
+        <v>-5.7698665046648986E-3</v>
       </c>
       <c r="H193">
-        <v>3.3095379899971848E-2</v>
+        <v>8.5072122590974884E-4</v>
       </c>
       <c r="K193">
-        <v>-0.20327596355500835</v>
+        <v>-7.3201707559057722E-2</v>
       </c>
       <c r="L193">
-        <v>-0.18192682820362222</v>
+        <v>-5.895752896551415E-2</v>
       </c>
       <c r="M193">
-        <v>-0.12697220271815121</v>
+        <v>-1.644387624773995E-2</v>
       </c>
       <c r="S193">
-        <v>-8.2528879223783727E-2</v>
+        <v>-6.3123464176450109E-2</v>
       </c>
       <c r="V193">
         <f t="shared" ref="V193:V195" si="140">X186-Z186</f>
-        <v>-0.19333996851429402</v>
+        <v>-8.4796776475404734E-2</v>
       </c>
     </row>
     <row r="194" spans="1:22">
       <c r="F194">
-        <v>2.1797242016398113E-2</v>
+        <v>-9.9698181988259124E-3</v>
       </c>
       <c r="G194">
-        <v>1.9507978387011488E-2</v>
+        <v>-1.5949325839301105E-2</v>
       </c>
       <c r="H194">
-        <v>1.3615204589861683E-2</v>
+        <v>-1.459464447418189E-3</v>
       </c>
       <c r="K194">
-        <v>-0.19774100071591122</v>
+        <v>-0.12091374032228194</v>
       </c>
       <c r="L194">
-        <v>-0.17697317694091713</v>
+        <v>-0.13918716754849858</v>
       </c>
       <c r="M194">
-        <v>-0.12351490057896793</v>
+        <v>-2.4025340969633265E-2</v>
       </c>
       <c r="S194">
-        <v>-8.2528879223783727E-2</v>
+        <v>-9.8880959582224835E-3</v>
       </c>
       <c r="V194">
         <f t="shared" si="140"/>
-        <v>-0.18959843223800665</v>
+        <v>-0.11886774592258542</v>
       </c>
     </row>
     <row r="195" spans="1:22">
       <c r="K195">
-        <v>0.28492996878150367</v>
+        <v>8.1034467526978293E-2</v>
       </c>
       <c r="L195">
-        <v>0.25500509048896308</v>
+        <v>7.5389864191294162E-2</v>
       </c>
       <c r="M195">
-        <v>0.17797571893841466</v>
+        <v>1.8187483179960509E-2</v>
       </c>
       <c r="V195">
         <f t="shared" si="140"/>
-        <v>0.24788430520514712</v>
+        <v>8.8988190724870783E-2</v>
       </c>
     </row>
     <row r="196" spans="1:22">
@@ -6175,77 +6175,77 @@
     <row r="198" spans="1:22">
       <c r="F198">
         <f>F185-$B$1*F192</f>
-        <v>2.6958139119328881</v>
+        <v>1.4450753496418203</v>
       </c>
       <c r="G198">
         <f t="shared" ref="G198:H198" si="141">G185-$B$1*G192</f>
-        <v>2.5550470228062268</v>
+        <v>1.7635533142994997</v>
       </c>
       <c r="H198">
         <f t="shared" si="141"/>
-        <v>0.95543076394664395</v>
+        <v>0.33494589231615352</v>
       </c>
       <c r="I198">
         <f>I185-$B$1*I192</f>
-        <v>-0.37321164705940091</v>
+        <v>-0.49561805147908178</v>
       </c>
       <c r="S198">
         <f>S185-$B$1*S192</f>
-        <v>1.4639101608479272</v>
+        <v>1.5835557057633212</v>
       </c>
       <c r="T198">
         <f>T185-$B$1*T192</f>
-        <v>-0.34050286259711382</v>
+        <v>-0.63233587047766249</v>
       </c>
     </row>
     <row r="199" spans="1:22">
       <c r="F199">
         <f t="shared" ref="F199:H199" si="142">F186-$B$1*F193</f>
-        <v>-1.291818294338565</v>
+        <v>-0.52445706408112081</v>
       </c>
       <c r="G199">
         <f t="shared" si="142"/>
-        <v>-0.85300478645509181</v>
+        <v>-0.48461331200706254</v>
       </c>
       <c r="H199">
         <f t="shared" si="142"/>
-        <v>-0.33200863162538163</v>
+        <v>4.1969910158263068E-2</v>
       </c>
       <c r="S199">
         <f t="shared" ref="S199:S200" si="143">S186-$B$1*S193</f>
-        <v>1.3274976935036782</v>
+        <v>2.0009924558513776</v>
       </c>
     </row>
     <row r="200" spans="1:22">
       <c r="F200">
         <f t="shared" ref="F200:H200" si="144">F187-$B$1*F194</f>
-        <v>0.13833430382514297</v>
+        <v>0.41258015136769843</v>
       </c>
       <c r="G200">
         <f t="shared" si="144"/>
-        <v>1.938739841177517E-2</v>
+        <v>0.16135313497362991</v>
       </c>
       <c r="H200">
         <f t="shared" si="144"/>
-        <v>0.24774785739201732</v>
+        <v>0.40426021880605939</v>
       </c>
       <c r="S200">
         <f t="shared" si="143"/>
-        <v>0.976359535865574</v>
+        <v>0.2281614681659008</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A102:AC102"/>
+    <mergeCell ref="A122:AC122"/>
+    <mergeCell ref="A142:AC142"/>
+    <mergeCell ref="A162:AC162"/>
+    <mergeCell ref="A182:AC182"/>
     <mergeCell ref="A2:AC2"/>
     <mergeCell ref="A22:AC22"/>
     <mergeCell ref="A42:AC42"/>
     <mergeCell ref="A62:AC62"/>
     <mergeCell ref="A82:AC82"/>
-    <mergeCell ref="A102:AC102"/>
-    <mergeCell ref="A122:AC122"/>
-    <mergeCell ref="A142:AC142"/>
-    <mergeCell ref="A162:AC162"/>
-    <mergeCell ref="A182:AC182"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
